--- a/data/weather/weather_2020-02.xlsx
+++ b/data/weather/weather_2020-02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>武汉</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>雨夹雪</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>阵雨</t>
+  </si>
+  <si>
+    <t>2020-02-04</t>
   </si>
 </sst>
 </file>
@@ -588,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:YP5"/>
+  <dimension ref="A1:YP7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7334,6 +7343,4006 @@
         <v>0</v>
       </c>
       <c r="YP5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:666">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>-7</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>-6</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>58</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>11</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>64</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>67</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>67</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>14</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>64</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>62</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>62</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>64</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>4</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>67</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>67</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>18</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>64</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>2</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="FR6" t="s">
+        <v>56</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>11</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU6" t="s">
+        <v>59</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK6" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>-17</v>
+      </c>
+      <c r="GN6" t="s">
+        <v>66</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>4</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC6" t="s">
+        <v>58</v>
+      </c>
+      <c r="HD6" t="s">
+        <v>58</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>-13</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>-23</v>
+      </c>
+      <c r="HG6" t="s">
+        <v>68</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV6" t="s">
+        <v>56</v>
+      </c>
+      <c r="HW6" t="s">
+        <v>56</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="HZ6" t="s">
+        <v>65</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="II6" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO6" t="s">
+        <v>56</v>
+      </c>
+      <c r="IP6" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>-11</v>
+      </c>
+      <c r="IS6" t="s">
+        <v>66</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH6" t="s">
+        <v>67</v>
+      </c>
+      <c r="JI6" t="s">
+        <v>67</v>
+      </c>
+      <c r="JJ6" t="n">
+        <v>20</v>
+      </c>
+      <c r="JK6" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL6" t="s">
+        <v>71</v>
+      </c>
+      <c r="JM6" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA6" t="s">
+        <v>56</v>
+      </c>
+      <c r="KB6" t="s">
+        <v>56</v>
+      </c>
+      <c r="KC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="KD6" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE6" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH6" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>3</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT6" t="s">
+        <v>56</v>
+      </c>
+      <c r="KU6" t="s">
+        <v>58</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>4</v>
+      </c>
+      <c r="KW6" t="n">
+        <v>-8</v>
+      </c>
+      <c r="KX6" t="s">
+        <v>66</v>
+      </c>
+      <c r="KY6" t="n">
+        <v>4</v>
+      </c>
+      <c r="KZ6" t="n">
+        <v>5</v>
+      </c>
+      <c r="LA6" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="LI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM6" t="s">
+        <v>56</v>
+      </c>
+      <c r="LN6" t="s">
+        <v>58</v>
+      </c>
+      <c r="LO6" t="n">
+        <v>18</v>
+      </c>
+      <c r="LP6" t="n">
+        <v>3</v>
+      </c>
+      <c r="LQ6" t="s">
+        <v>68</v>
+      </c>
+      <c r="LR6" t="n">
+        <v>3</v>
+      </c>
+      <c r="LS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="LT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU6" t="n">
+        <v>3</v>
+      </c>
+      <c r="LV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="MA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="MB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF6" t="s">
+        <v>62</v>
+      </c>
+      <c r="MG6" t="s">
+        <v>62</v>
+      </c>
+      <c r="MH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="MI6" t="n">
+        <v>6</v>
+      </c>
+      <c r="MJ6" t="s">
+        <v>59</v>
+      </c>
+      <c r="MK6" t="n">
+        <v>3</v>
+      </c>
+      <c r="ML6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="MN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="MO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="MT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="MU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY6" t="s">
+        <v>58</v>
+      </c>
+      <c r="MZ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="NA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="NB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC6" t="s">
+        <v>59</v>
+      </c>
+      <c r="ND6" t="n">
+        <v>1</v>
+      </c>
+      <c r="NE6" t="n">
+        <v>2</v>
+      </c>
+      <c r="NF6" t="n">
+        <v>2</v>
+      </c>
+      <c r="NG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="NH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL6" t="n">
+        <v>3</v>
+      </c>
+      <c r="NM6" t="n">
+        <v>3</v>
+      </c>
+      <c r="NN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR6" t="s">
+        <v>58</v>
+      </c>
+      <c r="NS6" t="s">
+        <v>58</v>
+      </c>
+      <c r="NT6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="NU6" t="n">
+        <v>-16</v>
+      </c>
+      <c r="NV6" t="s">
+        <v>68</v>
+      </c>
+      <c r="NW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="NX6" t="n">
+        <v>2</v>
+      </c>
+      <c r="NY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="NZ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="OA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE6" t="n">
+        <v>2</v>
+      </c>
+      <c r="OF6" t="n">
+        <v>2</v>
+      </c>
+      <c r="OG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK6" t="s">
+        <v>56</v>
+      </c>
+      <c r="OL6" t="s">
+        <v>56</v>
+      </c>
+      <c r="OM6" t="n">
+        <v>6</v>
+      </c>
+      <c r="ON6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="OO6" t="s">
+        <v>65</v>
+      </c>
+      <c r="OP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="OQ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="OR6" t="n">
+        <v>3</v>
+      </c>
+      <c r="OS6" t="n">
+        <v>3</v>
+      </c>
+      <c r="OT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX6" t="n">
+        <v>3</v>
+      </c>
+      <c r="OY6" t="n">
+        <v>3</v>
+      </c>
+      <c r="OZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD6" t="s">
+        <v>58</v>
+      </c>
+      <c r="PE6" t="s">
+        <v>58</v>
+      </c>
+      <c r="PF6" t="n">
+        <v>25</v>
+      </c>
+      <c r="PG6" t="n">
+        <v>16</v>
+      </c>
+      <c r="PH6" t="s">
+        <v>57</v>
+      </c>
+      <c r="PI6" t="n">
+        <v>3</v>
+      </c>
+      <c r="PJ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="PK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="PL6" t="n">
+        <v>2</v>
+      </c>
+      <c r="PM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR6" t="n">
+        <v>2</v>
+      </c>
+      <c r="PS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW6" t="s">
+        <v>76</v>
+      </c>
+      <c r="PX6" t="s">
+        <v>76</v>
+      </c>
+      <c r="PY6" t="n">
+        <v>20</v>
+      </c>
+      <c r="PZ6" t="n">
+        <v>16</v>
+      </c>
+      <c r="QA6" t="s">
+        <v>59</v>
+      </c>
+      <c r="QB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="QC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="QD6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="QE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="QI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="QK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="QO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP6" t="s">
+        <v>56</v>
+      </c>
+      <c r="QQ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="QR6" t="n">
+        <v>6</v>
+      </c>
+      <c r="QS6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="QT6" t="s">
+        <v>65</v>
+      </c>
+      <c r="QU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV6" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW6" t="n">
+        <v>3</v>
+      </c>
+      <c r="QX6" t="n">
+        <v>3</v>
+      </c>
+      <c r="QY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="RD6" t="n">
+        <v>3</v>
+      </c>
+      <c r="RE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI6" t="s">
+        <v>67</v>
+      </c>
+      <c r="RJ6" t="s">
+        <v>67</v>
+      </c>
+      <c r="RK6" t="n">
+        <v>11</v>
+      </c>
+      <c r="RL6" t="n">
+        <v>7</v>
+      </c>
+      <c r="RM6" t="s">
+        <v>71</v>
+      </c>
+      <c r="RN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="RO6" t="n">
+        <v>2</v>
+      </c>
+      <c r="RP6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="RU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="SA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB6" t="s">
+        <v>56</v>
+      </c>
+      <c r="SC6" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD6" t="n">
+        <v>3</v>
+      </c>
+      <c r="SE6" t="n">
+        <v>-14</v>
+      </c>
+      <c r="SF6" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI6" t="n">
+        <v>3</v>
+      </c>
+      <c r="SJ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="SK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO6" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP6" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST6" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU6" t="s">
+        <v>56</v>
+      </c>
+      <c r="SV6" t="s">
+        <v>56</v>
+      </c>
+      <c r="SW6" t="n">
+        <v>9</v>
+      </c>
+      <c r="SX6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="SY6" t="s">
+        <v>64</v>
+      </c>
+      <c r="SZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="TA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="TB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="TC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="TD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH6" t="n">
+        <v>3</v>
+      </c>
+      <c r="TI6" t="n">
+        <v>3</v>
+      </c>
+      <c r="TJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN6" t="s">
+        <v>62</v>
+      </c>
+      <c r="TO6" t="s">
+        <v>62</v>
+      </c>
+      <c r="TP6" t="n">
+        <v>6</v>
+      </c>
+      <c r="TQ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="TR6" t="s">
+        <v>71</v>
+      </c>
+      <c r="TS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="TV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="TW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="UB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="UC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="UF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG6" t="s">
+        <v>56</v>
+      </c>
+      <c r="UH6" t="s">
+        <v>56</v>
+      </c>
+      <c r="UI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="UJ6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="UK6" t="s">
+        <v>65</v>
+      </c>
+      <c r="UL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="UM6" t="n">
+        <v>2</v>
+      </c>
+      <c r="UN6" t="n">
+        <v>3</v>
+      </c>
+      <c r="UO6" t="n">
+        <v>3</v>
+      </c>
+      <c r="UP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="US6" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="UU6" t="n">
+        <v>3</v>
+      </c>
+      <c r="UV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ6" t="s">
+        <v>67</v>
+      </c>
+      <c r="VA6" t="s">
+        <v>58</v>
+      </c>
+      <c r="VB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="VC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="VD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="VE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF6" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="VH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="VI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="VL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM6" t="n">
+        <v>2</v>
+      </c>
+      <c r="VN6" t="n">
+        <v>2</v>
+      </c>
+      <c r="VO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS6" t="s">
+        <v>56</v>
+      </c>
+      <c r="VT6" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU6" t="n">
+        <v>5</v>
+      </c>
+      <c r="VV6" t="n">
+        <v>-9</v>
+      </c>
+      <c r="VW6" t="s">
+        <v>61</v>
+      </c>
+      <c r="VX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="VY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="VZ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="WA6" t="n">
+        <v>3</v>
+      </c>
+      <c r="WB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF6" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG6" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL6" t="s">
+        <v>58</v>
+      </c>
+      <c r="WM6" t="s">
+        <v>58</v>
+      </c>
+      <c r="WN6" t="n">
+        <v>-11</v>
+      </c>
+      <c r="WO6" t="n">
+        <v>-23</v>
+      </c>
+      <c r="WP6" t="s">
+        <v>66</v>
+      </c>
+      <c r="WQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="WR6" t="n">
+        <v>2</v>
+      </c>
+      <c r="WS6" t="n">
+        <v>2</v>
+      </c>
+      <c r="WT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="WU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="WZ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="XA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE6" t="s">
+        <v>67</v>
+      </c>
+      <c r="XF6" t="s">
+        <v>62</v>
+      </c>
+      <c r="XG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="XH6" t="n">
+        <v>5</v>
+      </c>
+      <c r="XI6" t="s">
+        <v>71</v>
+      </c>
+      <c r="XJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="XM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="XN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP6" t="n">
+        <v>2</v>
+      </c>
+      <c r="XQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="XS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="XT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX6" t="s">
+        <v>58</v>
+      </c>
+      <c r="XY6" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="YA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="YB6" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD6" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE6" t="n">
+        <v>2</v>
+      </c>
+      <c r="YF6" t="n">
+        <v>2</v>
+      </c>
+      <c r="YG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL6" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:666">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-13</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>58</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>-8</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>64</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>56</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>57</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>67</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>67</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>13</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>9</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>64</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>58</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>14</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>64</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>2</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" t="s">
+        <v>67</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>67</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="FB7" t="s">
+        <v>61</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>2</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="FR7" t="s">
+        <v>56</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>13</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU7" t="s">
+        <v>59</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>3</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK7" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="GM7" t="n">
+        <v>-12</v>
+      </c>
+      <c r="GN7" t="s">
+        <v>71</v>
+      </c>
+      <c r="GO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP7" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR7" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC7" t="s">
+        <v>58</v>
+      </c>
+      <c r="HD7" t="s">
+        <v>56</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>-18</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>-29</v>
+      </c>
+      <c r="HG7" t="s">
+        <v>70</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV7" t="s">
+        <v>56</v>
+      </c>
+      <c r="HW7" t="s">
+        <v>56</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="HZ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>5</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="II7" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO7" t="s">
+        <v>56</v>
+      </c>
+      <c r="IP7" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>-10</v>
+      </c>
+      <c r="IS7" t="s">
+        <v>59</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB7" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH7" t="s">
+        <v>67</v>
+      </c>
+      <c r="JI7" t="s">
+        <v>62</v>
+      </c>
+      <c r="JJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="JK7" t="n">
+        <v>13</v>
+      </c>
+      <c r="JL7" t="s">
+        <v>71</v>
+      </c>
+      <c r="JM7" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA7" t="s">
+        <v>62</v>
+      </c>
+      <c r="KB7" t="s">
+        <v>67</v>
+      </c>
+      <c r="KC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE7" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG7" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI7" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="KO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR7" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT7" t="s">
+        <v>56</v>
+      </c>
+      <c r="KU7" t="s">
+        <v>58</v>
+      </c>
+      <c r="KV7" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW7" t="n">
+        <v>-8</v>
+      </c>
+      <c r="KX7" t="s">
+        <v>61</v>
+      </c>
+      <c r="KY7" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA7" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB7" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG7" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH7" t="n">
+        <v>2</v>
+      </c>
+      <c r="LI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM7" t="s">
+        <v>56</v>
+      </c>
+      <c r="LN7" t="s">
+        <v>58</v>
+      </c>
+      <c r="LO7" t="n">
+        <v>18</v>
+      </c>
+      <c r="LP7" t="n">
+        <v>3</v>
+      </c>
+      <c r="LQ7" t="s">
+        <v>68</v>
+      </c>
+      <c r="LR7" t="n">
+        <v>3</v>
+      </c>
+      <c r="LS7" t="n">
+        <v>4</v>
+      </c>
+      <c r="LT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU7" t="n">
+        <v>3</v>
+      </c>
+      <c r="LV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="MA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="MB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF7" t="s">
+        <v>62</v>
+      </c>
+      <c r="MG7" t="s">
+        <v>56</v>
+      </c>
+      <c r="MH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="MI7" t="n">
+        <v>3</v>
+      </c>
+      <c r="MJ7" t="s">
+        <v>59</v>
+      </c>
+      <c r="MK7" t="n">
+        <v>3</v>
+      </c>
+      <c r="ML7" t="n">
+        <v>4</v>
+      </c>
+      <c r="MM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="MN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="MO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS7" t="n">
+        <v>3</v>
+      </c>
+      <c r="MT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="MU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY7" t="s">
+        <v>56</v>
+      </c>
+      <c r="MZ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="NA7" t="n">
+        <v>14</v>
+      </c>
+      <c r="NB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC7" t="s">
+        <v>57</v>
+      </c>
+      <c r="ND7" t="n">
+        <v>1</v>
+      </c>
+      <c r="NE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="NF7" t="n">
+        <v>3</v>
+      </c>
+      <c r="NG7" t="n">
+        <v>3</v>
+      </c>
+      <c r="NH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL7" t="n">
+        <v>3</v>
+      </c>
+      <c r="NM7" t="n">
+        <v>3</v>
+      </c>
+      <c r="NN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR7" t="s">
+        <v>56</v>
+      </c>
+      <c r="NS7" t="s">
+        <v>56</v>
+      </c>
+      <c r="NT7" t="n">
+        <v>-9</v>
+      </c>
+      <c r="NU7" t="n">
+        <v>-22</v>
+      </c>
+      <c r="NV7" t="s">
+        <v>70</v>
+      </c>
+      <c r="NW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="NX7" t="n">
+        <v>6</v>
+      </c>
+      <c r="NY7" t="n">
+        <v>3</v>
+      </c>
+      <c r="NZ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="OA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE7" t="n">
+        <v>3</v>
+      </c>
+      <c r="OF7" t="n">
+        <v>3</v>
+      </c>
+      <c r="OG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK7" t="s">
+        <v>58</v>
+      </c>
+      <c r="OL7" t="s">
+        <v>58</v>
+      </c>
+      <c r="OM7" t="n">
+        <v>7</v>
+      </c>
+      <c r="ON7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="OO7" t="s">
+        <v>71</v>
+      </c>
+      <c r="OP7" t="n">
+        <v>3</v>
+      </c>
+      <c r="OQ7" t="n">
+        <v>4</v>
+      </c>
+      <c r="OR7" t="n">
+        <v>2</v>
+      </c>
+      <c r="OS7" t="n">
+        <v>2</v>
+      </c>
+      <c r="OT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX7" t="n">
+        <v>2</v>
+      </c>
+      <c r="OY7" t="n">
+        <v>2</v>
+      </c>
+      <c r="OZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD7" t="s">
+        <v>67</v>
+      </c>
+      <c r="PE7" t="s">
+        <v>67</v>
+      </c>
+      <c r="PF7" t="n">
+        <v>23</v>
+      </c>
+      <c r="PG7" t="n">
+        <v>19</v>
+      </c>
+      <c r="PH7" t="s">
+        <v>64</v>
+      </c>
+      <c r="PI7" t="n">
+        <v>3</v>
+      </c>
+      <c r="PJ7" t="n">
+        <v>4</v>
+      </c>
+      <c r="PK7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO7" t="n">
+        <v>2</v>
+      </c>
+      <c r="PP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU7" t="n">
+        <v>2</v>
+      </c>
+      <c r="PV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW7" t="s">
+        <v>76</v>
+      </c>
+      <c r="PX7" t="s">
+        <v>62</v>
+      </c>
+      <c r="PY7" t="n">
+        <v>17</v>
+      </c>
+      <c r="PZ7" t="n">
+        <v>14</v>
+      </c>
+      <c r="QA7" t="s">
+        <v>71</v>
+      </c>
+      <c r="QB7" t="n">
+        <v>3</v>
+      </c>
+      <c r="QC7" t="n">
+        <v>4</v>
+      </c>
+      <c r="QD7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="QE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="QI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="QK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="QL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP7" t="s">
+        <v>56</v>
+      </c>
+      <c r="QQ7" t="s">
+        <v>58</v>
+      </c>
+      <c r="QR7" t="n">
+        <v>4</v>
+      </c>
+      <c r="QS7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="QT7" t="s">
+        <v>64</v>
+      </c>
+      <c r="QU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV7" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW7" t="n">
+        <v>3</v>
+      </c>
+      <c r="QX7" t="n">
+        <v>3</v>
+      </c>
+      <c r="QY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC7" t="n">
+        <v>2</v>
+      </c>
+      <c r="RD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="RE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI7" t="s">
+        <v>62</v>
+      </c>
+      <c r="RJ7" t="s">
+        <v>62</v>
+      </c>
+      <c r="RK7" t="n">
+        <v>14</v>
+      </c>
+      <c r="RL7" t="n">
+        <v>6</v>
+      </c>
+      <c r="RM7" t="s">
+        <v>71</v>
+      </c>
+      <c r="RN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="RO7" t="n">
+        <v>2</v>
+      </c>
+      <c r="RP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="RQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="RR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="RW7" t="n">
+        <v>1</v>
+      </c>
+      <c r="RX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="SC7" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD7" t="n">
+        <v>3</v>
+      </c>
+      <c r="SE7" t="n">
+        <v>-13</v>
+      </c>
+      <c r="SF7" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH7" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI7" t="n">
+        <v>3</v>
+      </c>
+      <c r="SJ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="SK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO7" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP7" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST7" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU7" t="s">
+        <v>56</v>
+      </c>
+      <c r="SV7" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW7" t="n">
+        <v>12</v>
+      </c>
+      <c r="SX7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="SY7" t="s">
+        <v>59</v>
+      </c>
+      <c r="SZ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="TA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="TB7" t="n">
+        <v>3</v>
+      </c>
+      <c r="TC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="TD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH7" t="n">
+        <v>2</v>
+      </c>
+      <c r="TI7" t="n">
+        <v>2</v>
+      </c>
+      <c r="TJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN7" t="s">
+        <v>62</v>
+      </c>
+      <c r="TO7" t="s">
+        <v>67</v>
+      </c>
+      <c r="TP7" t="n">
+        <v>9</v>
+      </c>
+      <c r="TQ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="TR7" t="s">
+        <v>57</v>
+      </c>
+      <c r="TS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT7" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="TV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="TW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="UF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG7" t="s">
+        <v>56</v>
+      </c>
+      <c r="UH7" t="s">
+        <v>58</v>
+      </c>
+      <c r="UI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="UJ7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="UK7" t="s">
+        <v>64</v>
+      </c>
+      <c r="UL7" t="n">
+        <v>4</v>
+      </c>
+      <c r="UM7" t="n">
+        <v>5</v>
+      </c>
+      <c r="UN7" t="n">
+        <v>3</v>
+      </c>
+      <c r="UO7" t="n">
+        <v>3</v>
+      </c>
+      <c r="UP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="US7" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT7" t="n">
+        <v>2</v>
+      </c>
+      <c r="UU7" t="n">
+        <v>2</v>
+      </c>
+      <c r="UV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ7" t="s">
+        <v>58</v>
+      </c>
+      <c r="VA7" t="s">
+        <v>62</v>
+      </c>
+      <c r="VB7" t="n">
+        <v>14</v>
+      </c>
+      <c r="VC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="VD7" t="s">
+        <v>65</v>
+      </c>
+      <c r="VE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF7" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG7" t="n">
+        <v>2</v>
+      </c>
+      <c r="VH7" t="n">
+        <v>2</v>
+      </c>
+      <c r="VI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="VN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="VO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS7" t="s">
+        <v>56</v>
+      </c>
+      <c r="VT7" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU7" t="n">
+        <v>4</v>
+      </c>
+      <c r="VV7" t="n">
+        <v>-8</v>
+      </c>
+      <c r="VW7" t="s">
+        <v>61</v>
+      </c>
+      <c r="VX7" t="n">
+        <v>1</v>
+      </c>
+      <c r="VY7" t="n">
+        <v>2</v>
+      </c>
+      <c r="VZ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="WA7" t="n">
+        <v>3</v>
+      </c>
+      <c r="WB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF7" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG7" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL7" t="s">
+        <v>56</v>
+      </c>
+      <c r="WM7" t="s">
+        <v>56</v>
+      </c>
+      <c r="WN7" t="n">
+        <v>-17</v>
+      </c>
+      <c r="WO7" t="n">
+        <v>-27</v>
+      </c>
+      <c r="WP7" t="s">
+        <v>70</v>
+      </c>
+      <c r="WQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="WR7" t="n">
+        <v>2</v>
+      </c>
+      <c r="WS7" t="n">
+        <v>3</v>
+      </c>
+      <c r="WT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="WU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY7" t="n">
+        <v>3</v>
+      </c>
+      <c r="WZ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="XA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="XF7" t="s">
+        <v>58</v>
+      </c>
+      <c r="XG7" t="n">
+        <v>13</v>
+      </c>
+      <c r="XH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="XI7" t="s">
+        <v>71</v>
+      </c>
+      <c r="XJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL7" t="n">
+        <v>2</v>
+      </c>
+      <c r="XM7" t="n">
+        <v>2</v>
+      </c>
+      <c r="XN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR7" t="n">
+        <v>2</v>
+      </c>
+      <c r="XS7" t="n">
+        <v>2</v>
+      </c>
+      <c r="XT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX7" t="s">
+        <v>58</v>
+      </c>
+      <c r="XY7" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ7" t="n">
+        <v>18</v>
+      </c>
+      <c r="YA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="YB7" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="YF7" t="n">
+        <v>2</v>
+      </c>
+      <c r="YG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL7" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/weather/weather_2020-02.xlsx
+++ b/data/weather/weather_2020-02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>武汉</t>
   </si>
@@ -249,6 +249,21 @@
   </si>
   <si>
     <t>2020-02-04</t>
+  </si>
+  <si>
+    <t>2020-02-05</t>
+  </si>
+  <si>
+    <t>中雨</t>
+  </si>
+  <si>
+    <t>2020-02-06</t>
+  </si>
+  <si>
+    <t>小到中雨</t>
+  </si>
+  <si>
+    <t>2020-02-07</t>
   </si>
 </sst>
 </file>
@@ -597,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:YP7"/>
+  <dimension ref="A1:YP10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11343,6 +11358,6006 @@
         <v>0</v>
       </c>
       <c r="YP7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:666">
+      <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" t="s">
+        <v>62</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>-7</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>63</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>63</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>-6</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>59</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>58</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>59</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>4</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>67</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>67</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>14</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>64</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>58</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>67</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>16</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>64</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>4</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>67</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>67</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="FB8" t="s">
+        <v>64</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>2</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" t="s">
+        <v>58</v>
+      </c>
+      <c r="FR8" t="s">
+        <v>62</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>12</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>2</v>
+      </c>
+      <c r="FU8" t="s">
+        <v>59</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>2</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>2</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK8" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="GM8" t="n">
+        <v>-12</v>
+      </c>
+      <c r="GN8" t="s">
+        <v>57</v>
+      </c>
+      <c r="GO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP8" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR8" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC8" t="s">
+        <v>58</v>
+      </c>
+      <c r="HD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>-18</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>-29</v>
+      </c>
+      <c r="HG8" t="s">
+        <v>70</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK8" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV8" t="s">
+        <v>63</v>
+      </c>
+      <c r="HW8" t="s">
+        <v>63</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="HZ8" t="s">
+        <v>59</v>
+      </c>
+      <c r="IA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH8" t="n">
+        <v>2</v>
+      </c>
+      <c r="II8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN8" t="n">
+        <v>2</v>
+      </c>
+      <c r="IO8" t="s">
+        <v>58</v>
+      </c>
+      <c r="IP8" t="s">
+        <v>58</v>
+      </c>
+      <c r="IQ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>-8</v>
+      </c>
+      <c r="IS8" t="s">
+        <v>57</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU8" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW8" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB8" t="n">
+        <v>2</v>
+      </c>
+      <c r="JC8" t="n">
+        <v>2</v>
+      </c>
+      <c r="JD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH8" t="s">
+        <v>62</v>
+      </c>
+      <c r="JI8" t="s">
+        <v>62</v>
+      </c>
+      <c r="JJ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="JK8" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL8" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN8" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA8" t="s">
+        <v>67</v>
+      </c>
+      <c r="KB8" t="s">
+        <v>67</v>
+      </c>
+      <c r="KC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE8" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG8" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="KI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL8" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="KO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR8" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT8" t="s">
+        <v>56</v>
+      </c>
+      <c r="KU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="KV8" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="KX8" t="s">
+        <v>61</v>
+      </c>
+      <c r="KY8" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB8" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG8" t="n">
+        <v>3</v>
+      </c>
+      <c r="LH8" t="n">
+        <v>3</v>
+      </c>
+      <c r="LI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM8" t="s">
+        <v>56</v>
+      </c>
+      <c r="LN8" t="s">
+        <v>56</v>
+      </c>
+      <c r="LO8" t="n">
+        <v>18</v>
+      </c>
+      <c r="LP8" t="n">
+        <v>3</v>
+      </c>
+      <c r="LQ8" t="s">
+        <v>68</v>
+      </c>
+      <c r="LR8" t="n">
+        <v>3</v>
+      </c>
+      <c r="LS8" t="n">
+        <v>4</v>
+      </c>
+      <c r="LT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU8" t="n">
+        <v>3</v>
+      </c>
+      <c r="LV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="MA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="MB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME8" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF8" t="s">
+        <v>58</v>
+      </c>
+      <c r="MG8" t="s">
+        <v>62</v>
+      </c>
+      <c r="MH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="MI8" t="n">
+        <v>5</v>
+      </c>
+      <c r="MJ8" t="s">
+        <v>59</v>
+      </c>
+      <c r="MK8" t="n">
+        <v>4</v>
+      </c>
+      <c r="ML8" t="n">
+        <v>5</v>
+      </c>
+      <c r="MM8" t="n">
+        <v>2</v>
+      </c>
+      <c r="MN8" t="n">
+        <v>2</v>
+      </c>
+      <c r="MO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="MT8" t="n">
+        <v>1</v>
+      </c>
+      <c r="MU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY8" t="s">
+        <v>56</v>
+      </c>
+      <c r="MZ8" t="s">
+        <v>67</v>
+      </c>
+      <c r="NA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="NB8" t="n">
+        <v>3</v>
+      </c>
+      <c r="NC8" t="s">
+        <v>59</v>
+      </c>
+      <c r="ND8" t="n">
+        <v>3</v>
+      </c>
+      <c r="NE8" t="n">
+        <v>4</v>
+      </c>
+      <c r="NF8" t="n">
+        <v>3</v>
+      </c>
+      <c r="NG8" t="n">
+        <v>3</v>
+      </c>
+      <c r="NH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="NM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP8" t="n">
+        <v>2</v>
+      </c>
+      <c r="NQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR8" t="s">
+        <v>56</v>
+      </c>
+      <c r="NS8" t="s">
+        <v>56</v>
+      </c>
+      <c r="NT8" t="n">
+        <v>-11</v>
+      </c>
+      <c r="NU8" t="n">
+        <v>-22</v>
+      </c>
+      <c r="NV8" t="s">
+        <v>71</v>
+      </c>
+      <c r="NW8" t="n">
+        <v>3</v>
+      </c>
+      <c r="NX8" t="n">
+        <v>4</v>
+      </c>
+      <c r="NY8" t="n">
+        <v>3</v>
+      </c>
+      <c r="NZ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="OA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE8" t="n">
+        <v>3</v>
+      </c>
+      <c r="OF8" t="n">
+        <v>3</v>
+      </c>
+      <c r="OG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK8" t="s">
+        <v>58</v>
+      </c>
+      <c r="OL8" t="s">
+        <v>63</v>
+      </c>
+      <c r="OM8" t="n">
+        <v>3</v>
+      </c>
+      <c r="ON8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="OO8" t="s">
+        <v>64</v>
+      </c>
+      <c r="OP8" t="n">
+        <v>3</v>
+      </c>
+      <c r="OQ8" t="n">
+        <v>4</v>
+      </c>
+      <c r="OR8" t="n">
+        <v>2</v>
+      </c>
+      <c r="OS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="OT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC8" t="n">
+        <v>2</v>
+      </c>
+      <c r="PD8" t="s">
+        <v>58</v>
+      </c>
+      <c r="PE8" t="s">
+        <v>58</v>
+      </c>
+      <c r="PF8" t="n">
+        <v>23</v>
+      </c>
+      <c r="PG8" t="n">
+        <v>19</v>
+      </c>
+      <c r="PH8" t="s">
+        <v>61</v>
+      </c>
+      <c r="PI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="PJ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="PK8" t="n">
+        <v>2</v>
+      </c>
+      <c r="PL8" t="n">
+        <v>2</v>
+      </c>
+      <c r="PM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR8" t="n">
+        <v>2</v>
+      </c>
+      <c r="PS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW8" t="s">
+        <v>58</v>
+      </c>
+      <c r="PX8" t="s">
+        <v>58</v>
+      </c>
+      <c r="PY8" t="n">
+        <v>18</v>
+      </c>
+      <c r="PZ8" t="n">
+        <v>16</v>
+      </c>
+      <c r="QA8" t="s">
+        <v>59</v>
+      </c>
+      <c r="QB8" t="n">
+        <v>3</v>
+      </c>
+      <c r="QC8" t="n">
+        <v>4</v>
+      </c>
+      <c r="QD8" t="n">
+        <v>2</v>
+      </c>
+      <c r="QE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="QF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="QK8" t="n">
+        <v>2</v>
+      </c>
+      <c r="QL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP8" t="s">
+        <v>58</v>
+      </c>
+      <c r="QQ8" t="s">
+        <v>62</v>
+      </c>
+      <c r="QR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="QS8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="QT8" t="s">
+        <v>57</v>
+      </c>
+      <c r="QU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW8" t="n">
+        <v>2</v>
+      </c>
+      <c r="QX8" t="n">
+        <v>2</v>
+      </c>
+      <c r="QY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="RD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="RE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI8" t="s">
+        <v>58</v>
+      </c>
+      <c r="RJ8" t="s">
+        <v>67</v>
+      </c>
+      <c r="RK8" t="n">
+        <v>15</v>
+      </c>
+      <c r="RL8" t="n">
+        <v>6</v>
+      </c>
+      <c r="RM8" t="s">
+        <v>64</v>
+      </c>
+      <c r="RN8" t="n">
+        <v>3</v>
+      </c>
+      <c r="RO8" t="n">
+        <v>4</v>
+      </c>
+      <c r="RP8" t="n">
+        <v>2</v>
+      </c>
+      <c r="RQ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="RR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="SA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB8" t="s">
+        <v>56</v>
+      </c>
+      <c r="SC8" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD8" t="n">
+        <v>4</v>
+      </c>
+      <c r="SE8" t="n">
+        <v>-11</v>
+      </c>
+      <c r="SF8" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH8" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI8" t="n">
+        <v>3</v>
+      </c>
+      <c r="SJ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="SK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO8" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP8" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST8" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU8" t="s">
+        <v>62</v>
+      </c>
+      <c r="SV8" t="s">
+        <v>67</v>
+      </c>
+      <c r="SW8" t="n">
+        <v>7</v>
+      </c>
+      <c r="SX8" t="n">
+        <v>1</v>
+      </c>
+      <c r="SY8" t="s">
+        <v>64</v>
+      </c>
+      <c r="SZ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="TA8" t="n">
+        <v>4</v>
+      </c>
+      <c r="TB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="TC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="TD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="TI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL8" t="n">
+        <v>2</v>
+      </c>
+      <c r="TM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN8" t="s">
+        <v>62</v>
+      </c>
+      <c r="TO8" t="s">
+        <v>67</v>
+      </c>
+      <c r="TP8" t="n">
+        <v>9</v>
+      </c>
+      <c r="TQ8" t="n">
+        <v>4</v>
+      </c>
+      <c r="TR8" t="s">
+        <v>59</v>
+      </c>
+      <c r="TS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT8" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="TV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="TW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="UF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG8" t="s">
+        <v>63</v>
+      </c>
+      <c r="UH8" t="s">
+        <v>63</v>
+      </c>
+      <c r="UI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="UJ8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UK8" t="s">
+        <v>64</v>
+      </c>
+      <c r="UL8" t="n">
+        <v>3</v>
+      </c>
+      <c r="UM8" t="n">
+        <v>4</v>
+      </c>
+      <c r="UN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="US8" t="n">
+        <v>2</v>
+      </c>
+      <c r="UT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY8" t="n">
+        <v>2</v>
+      </c>
+      <c r="UZ8" t="s">
+        <v>67</v>
+      </c>
+      <c r="VA8" t="s">
+        <v>67</v>
+      </c>
+      <c r="VB8" t="n">
+        <v>11</v>
+      </c>
+      <c r="VC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="VD8" t="s">
+        <v>66</v>
+      </c>
+      <c r="VE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF8" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="VH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="VI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK8" t="n">
+        <v>2</v>
+      </c>
+      <c r="VL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="VN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="VO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="VR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS8" t="s">
+        <v>56</v>
+      </c>
+      <c r="VT8" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU8" t="n">
+        <v>5</v>
+      </c>
+      <c r="VV8" t="n">
+        <v>-6</v>
+      </c>
+      <c r="VW8" t="s">
+        <v>61</v>
+      </c>
+      <c r="VX8" t="n">
+        <v>1</v>
+      </c>
+      <c r="VY8" t="n">
+        <v>2</v>
+      </c>
+      <c r="VZ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="WA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="WB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF8" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG8" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL8" t="s">
+        <v>56</v>
+      </c>
+      <c r="WM8" t="s">
+        <v>56</v>
+      </c>
+      <c r="WN8" t="n">
+        <v>-16</v>
+      </c>
+      <c r="WO8" t="n">
+        <v>-26</v>
+      </c>
+      <c r="WP8" t="s">
+        <v>70</v>
+      </c>
+      <c r="WQ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="WR8" t="n">
+        <v>2</v>
+      </c>
+      <c r="WS8" t="n">
+        <v>3</v>
+      </c>
+      <c r="WT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="WU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY8" t="n">
+        <v>3</v>
+      </c>
+      <c r="WZ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="XA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE8" t="s">
+        <v>58</v>
+      </c>
+      <c r="XF8" t="s">
+        <v>79</v>
+      </c>
+      <c r="XG8" t="n">
+        <v>16</v>
+      </c>
+      <c r="XH8" t="n">
+        <v>7</v>
+      </c>
+      <c r="XI8" t="s">
+        <v>64</v>
+      </c>
+      <c r="XJ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK8" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL8" t="n">
+        <v>2</v>
+      </c>
+      <c r="XM8" t="n">
+        <v>2</v>
+      </c>
+      <c r="XN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="XS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="XT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV8" t="n">
+        <v>4</v>
+      </c>
+      <c r="XW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX8" t="s">
+        <v>58</v>
+      </c>
+      <c r="XY8" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="YA8" t="n">
+        <v>16</v>
+      </c>
+      <c r="YB8" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD8" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="YF8" t="n">
+        <v>2</v>
+      </c>
+      <c r="YG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK8" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL8" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:666">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>67</v>
+      </c>
+      <c r="V9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>-7</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>63</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>58</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>-8</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>65</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>67</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>6</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>59</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>4</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>5</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>3</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>67</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>67</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>19</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>11</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>57</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>79</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>67</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>9</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>6</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>64</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>4</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>4</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" t="s">
+        <v>67</v>
+      </c>
+      <c r="EY9" t="s">
+        <v>67</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>20</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="FB9" t="s">
+        <v>57</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>4</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>5</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>2</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" t="s">
+        <v>67</v>
+      </c>
+      <c r="FR9" t="s">
+        <v>67</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>5</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>2</v>
+      </c>
+      <c r="FU9" t="s">
+        <v>59</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>4</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH9" t="n">
+        <v>2</v>
+      </c>
+      <c r="GI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK9" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM9" t="n">
+        <v>-13</v>
+      </c>
+      <c r="GN9" t="s">
+        <v>66</v>
+      </c>
+      <c r="GO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP9" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR9" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC9" t="s">
+        <v>56</v>
+      </c>
+      <c r="HD9" t="s">
+        <v>58</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>-14</v>
+      </c>
+      <c r="HF9" t="n">
+        <v>-24</v>
+      </c>
+      <c r="HG9" t="s">
+        <v>68</v>
+      </c>
+      <c r="HH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI9" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK9" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP9" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV9" t="s">
+        <v>62</v>
+      </c>
+      <c r="HW9" t="s">
+        <v>56</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="HZ9" t="s">
+        <v>65</v>
+      </c>
+      <c r="IA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="II9" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO9" t="s">
+        <v>58</v>
+      </c>
+      <c r="IP9" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="IR9" t="n">
+        <v>-7</v>
+      </c>
+      <c r="IS9" t="s">
+        <v>68</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU9" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV9" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW9" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB9" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC9" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH9" t="s">
+        <v>67</v>
+      </c>
+      <c r="JI9" t="s">
+        <v>67</v>
+      </c>
+      <c r="JJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="JK9" t="n">
+        <v>13</v>
+      </c>
+      <c r="JL9" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN9" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="JV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY9" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA9" t="s">
+        <v>58</v>
+      </c>
+      <c r="KB9" t="s">
+        <v>62</v>
+      </c>
+      <c r="KC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="KD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE9" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG9" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH9" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI9" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT9" t="s">
+        <v>58</v>
+      </c>
+      <c r="KU9" t="s">
+        <v>58</v>
+      </c>
+      <c r="KV9" t="n">
+        <v>7</v>
+      </c>
+      <c r="KW9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="KX9" t="s">
+        <v>61</v>
+      </c>
+      <c r="KY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA9" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB9" t="n">
+        <v>2</v>
+      </c>
+      <c r="LC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG9" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH9" t="n">
+        <v>2</v>
+      </c>
+      <c r="LI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM9" t="s">
+        <v>56</v>
+      </c>
+      <c r="LN9" t="s">
+        <v>56</v>
+      </c>
+      <c r="LO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="LP9" t="n">
+        <v>3</v>
+      </c>
+      <c r="LQ9" t="s">
+        <v>68</v>
+      </c>
+      <c r="LR9" t="n">
+        <v>3</v>
+      </c>
+      <c r="LS9" t="n">
+        <v>4</v>
+      </c>
+      <c r="LT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU9" t="n">
+        <v>3</v>
+      </c>
+      <c r="LV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="MA9" t="n">
+        <v>3</v>
+      </c>
+      <c r="MB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME9" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF9" t="s">
+        <v>81</v>
+      </c>
+      <c r="MG9" t="s">
+        <v>81</v>
+      </c>
+      <c r="MH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MI9" t="n">
+        <v>5</v>
+      </c>
+      <c r="MJ9" t="s">
+        <v>59</v>
+      </c>
+      <c r="MK9" t="n">
+        <v>5</v>
+      </c>
+      <c r="ML9" t="n">
+        <v>6</v>
+      </c>
+      <c r="MM9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="MN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="MR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="MT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW9" t="n">
+        <v>3</v>
+      </c>
+      <c r="MX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY9" t="s">
+        <v>67</v>
+      </c>
+      <c r="MZ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="NA9" t="n">
+        <v>6</v>
+      </c>
+      <c r="NB9" t="n">
+        <v>4</v>
+      </c>
+      <c r="NC9" t="s">
+        <v>71</v>
+      </c>
+      <c r="ND9" t="n">
+        <v>3</v>
+      </c>
+      <c r="NE9" t="n">
+        <v>4</v>
+      </c>
+      <c r="NF9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="NG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="NK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="NM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="NN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR9" t="s">
+        <v>56</v>
+      </c>
+      <c r="NS9" t="s">
+        <v>58</v>
+      </c>
+      <c r="NT9" t="n">
+        <v>-7</v>
+      </c>
+      <c r="NU9" t="n">
+        <v>-14</v>
+      </c>
+      <c r="NV9" t="s">
+        <v>65</v>
+      </c>
+      <c r="NW9" t="n">
+        <v>1</v>
+      </c>
+      <c r="NX9" t="n">
+        <v>2</v>
+      </c>
+      <c r="NY9" t="n">
+        <v>3</v>
+      </c>
+      <c r="NZ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="OA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="OF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="OG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK9" t="s">
+        <v>63</v>
+      </c>
+      <c r="OL9" t="s">
+        <v>62</v>
+      </c>
+      <c r="OM9" t="n">
+        <v>2</v>
+      </c>
+      <c r="ON9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="OO9" t="s">
+        <v>71</v>
+      </c>
+      <c r="OP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="OQ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="OR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW9" t="n">
+        <v>2</v>
+      </c>
+      <c r="OX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="OY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="OZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD9" t="s">
+        <v>58</v>
+      </c>
+      <c r="PE9" t="s">
+        <v>58</v>
+      </c>
+      <c r="PF9" t="n">
+        <v>24</v>
+      </c>
+      <c r="PG9" t="n">
+        <v>19</v>
+      </c>
+      <c r="PH9" t="s">
+        <v>61</v>
+      </c>
+      <c r="PI9" t="n">
+        <v>1</v>
+      </c>
+      <c r="PJ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="PK9" t="n">
+        <v>2</v>
+      </c>
+      <c r="PL9" t="n">
+        <v>2</v>
+      </c>
+      <c r="PM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR9" t="n">
+        <v>2</v>
+      </c>
+      <c r="PS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW9" t="s">
+        <v>58</v>
+      </c>
+      <c r="PX9" t="s">
+        <v>76</v>
+      </c>
+      <c r="PY9" t="n">
+        <v>19</v>
+      </c>
+      <c r="PZ9" t="n">
+        <v>16</v>
+      </c>
+      <c r="QA9" t="s">
+        <v>59</v>
+      </c>
+      <c r="QB9" t="n">
+        <v>3</v>
+      </c>
+      <c r="QC9" t="n">
+        <v>4</v>
+      </c>
+      <c r="QD9" t="n">
+        <v>2</v>
+      </c>
+      <c r="QE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="QF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="QK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="QO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP9" t="s">
+        <v>62</v>
+      </c>
+      <c r="QQ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="QR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="QS9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="QT9" t="s">
+        <v>57</v>
+      </c>
+      <c r="QU9" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV9" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW9" t="n">
+        <v>1</v>
+      </c>
+      <c r="QX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="QY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC9" t="n">
+        <v>3</v>
+      </c>
+      <c r="RD9" t="n">
+        <v>3</v>
+      </c>
+      <c r="RE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI9" t="s">
+        <v>79</v>
+      </c>
+      <c r="RJ9" t="s">
+        <v>67</v>
+      </c>
+      <c r="RK9" t="n">
+        <v>12</v>
+      </c>
+      <c r="RL9" t="n">
+        <v>6</v>
+      </c>
+      <c r="RM9" t="s">
+        <v>64</v>
+      </c>
+      <c r="RN9" t="n">
+        <v>3</v>
+      </c>
+      <c r="RO9" t="n">
+        <v>4</v>
+      </c>
+      <c r="RP9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="RQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT9" t="n">
+        <v>4</v>
+      </c>
+      <c r="RU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="SA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB9" t="s">
+        <v>56</v>
+      </c>
+      <c r="SC9" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD9" t="n">
+        <v>2</v>
+      </c>
+      <c r="SE9" t="n">
+        <v>-12</v>
+      </c>
+      <c r="SF9" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH9" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI9" t="n">
+        <v>3</v>
+      </c>
+      <c r="SJ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="SK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO9" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP9" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST9" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU9" t="s">
+        <v>67</v>
+      </c>
+      <c r="SV9" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="SX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="SY9" t="s">
+        <v>64</v>
+      </c>
+      <c r="SZ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="TA9" t="n">
+        <v>2</v>
+      </c>
+      <c r="TB9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="TC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="TG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH9" t="n">
+        <v>2</v>
+      </c>
+      <c r="TI9" t="n">
+        <v>2</v>
+      </c>
+      <c r="TJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN9" t="s">
+        <v>67</v>
+      </c>
+      <c r="TO9" t="s">
+        <v>67</v>
+      </c>
+      <c r="TP9" t="n">
+        <v>9</v>
+      </c>
+      <c r="TQ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="TR9" t="s">
+        <v>71</v>
+      </c>
+      <c r="TS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT9" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="TV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY9" t="n">
+        <v>2</v>
+      </c>
+      <c r="TZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="UF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG9" t="s">
+        <v>63</v>
+      </c>
+      <c r="UH9" t="s">
+        <v>62</v>
+      </c>
+      <c r="UI9" t="n">
+        <v>1</v>
+      </c>
+      <c r="UJ9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UK9" t="s">
+        <v>64</v>
+      </c>
+      <c r="UL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="UM9" t="n">
+        <v>2</v>
+      </c>
+      <c r="UN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="US9" t="n">
+        <v>2</v>
+      </c>
+      <c r="UT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="UU9" t="n">
+        <v>1</v>
+      </c>
+      <c r="UV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ9" t="s">
+        <v>67</v>
+      </c>
+      <c r="VA9" t="s">
+        <v>62</v>
+      </c>
+      <c r="VB9" t="n">
+        <v>10</v>
+      </c>
+      <c r="VC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="VD9" t="s">
+        <v>71</v>
+      </c>
+      <c r="VE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="VH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="VI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK9" t="n">
+        <v>2</v>
+      </c>
+      <c r="VL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="VN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="VO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS9" t="s">
+        <v>56</v>
+      </c>
+      <c r="VT9" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU9" t="n">
+        <v>5</v>
+      </c>
+      <c r="VV9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="VW9" t="s">
+        <v>61</v>
+      </c>
+      <c r="VX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="VY9" t="n">
+        <v>2</v>
+      </c>
+      <c r="VZ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="WA9" t="n">
+        <v>3</v>
+      </c>
+      <c r="WB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF9" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG9" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL9" t="s">
+        <v>56</v>
+      </c>
+      <c r="WM9" t="s">
+        <v>58</v>
+      </c>
+      <c r="WN9" t="n">
+        <v>-12</v>
+      </c>
+      <c r="WO9" t="n">
+        <v>-21</v>
+      </c>
+      <c r="WP9" t="s">
+        <v>68</v>
+      </c>
+      <c r="WQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="WR9" t="n">
+        <v>2</v>
+      </c>
+      <c r="WS9" t="n">
+        <v>3</v>
+      </c>
+      <c r="WT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="WU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY9" t="n">
+        <v>2</v>
+      </c>
+      <c r="WZ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="XA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE9" t="s">
+        <v>79</v>
+      </c>
+      <c r="XF9" t="s">
+        <v>62</v>
+      </c>
+      <c r="XG9" t="n">
+        <v>9</v>
+      </c>
+      <c r="XH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="XI9" t="s">
+        <v>71</v>
+      </c>
+      <c r="XJ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK9" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="XM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="XN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP9" t="n">
+        <v>4</v>
+      </c>
+      <c r="XQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="XS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="XT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX9" t="s">
+        <v>58</v>
+      </c>
+      <c r="XY9" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ9" t="n">
+        <v>18</v>
+      </c>
+      <c r="YA9" t="n">
+        <v>16</v>
+      </c>
+      <c r="YB9" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD9" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="YF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="YG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK9" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL9" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:666">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>-7</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>67</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>59</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>4</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>67</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>67</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>14</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>64</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>62</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>58</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>71</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>4</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>2</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" t="s">
+        <v>62</v>
+      </c>
+      <c r="EY10" t="s">
+        <v>67</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>16</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="FB10" t="s">
+        <v>61</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>2</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="FR10" t="s">
+        <v>58</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>6</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="FU10" t="s">
+        <v>64</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK10" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GM10" t="n">
+        <v>-11</v>
+      </c>
+      <c r="GN10" t="s">
+        <v>70</v>
+      </c>
+      <c r="GO10" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP10" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR10" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC10" t="s">
+        <v>56</v>
+      </c>
+      <c r="HD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>-13</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>-26</v>
+      </c>
+      <c r="HG10" t="s">
+        <v>66</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV10" t="s">
+        <v>58</v>
+      </c>
+      <c r="HW10" t="s">
+        <v>56</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="HZ10" t="s">
+        <v>66</v>
+      </c>
+      <c r="IA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC10" t="n">
+        <v>2</v>
+      </c>
+      <c r="ID10" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="II10" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO10" t="s">
+        <v>56</v>
+      </c>
+      <c r="IP10" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ10" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>-9</v>
+      </c>
+      <c r="IS10" t="s">
+        <v>68</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU10" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV10" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC10" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH10" t="s">
+        <v>62</v>
+      </c>
+      <c r="JI10" t="s">
+        <v>58</v>
+      </c>
+      <c r="JJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="JK10" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL10" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA10" t="s">
+        <v>67</v>
+      </c>
+      <c r="KB10" t="s">
+        <v>67</v>
+      </c>
+      <c r="KC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="KD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE10" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG10" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="KI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL10" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="KO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR10" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT10" t="s">
+        <v>56</v>
+      </c>
+      <c r="KU10" t="s">
+        <v>58</v>
+      </c>
+      <c r="KV10" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW10" t="n">
+        <v>-8</v>
+      </c>
+      <c r="KX10" t="s">
+        <v>61</v>
+      </c>
+      <c r="KY10" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA10" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG10" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH10" t="n">
+        <v>2</v>
+      </c>
+      <c r="LI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM10" t="s">
+        <v>56</v>
+      </c>
+      <c r="LN10" t="s">
+        <v>56</v>
+      </c>
+      <c r="LO10" t="n">
+        <v>20</v>
+      </c>
+      <c r="LP10" t="n">
+        <v>2</v>
+      </c>
+      <c r="LQ10" t="s">
+        <v>68</v>
+      </c>
+      <c r="LR10" t="n">
+        <v>3</v>
+      </c>
+      <c r="LS10" t="n">
+        <v>4</v>
+      </c>
+      <c r="LT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU10" t="n">
+        <v>3</v>
+      </c>
+      <c r="LV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="MA10" t="n">
+        <v>3</v>
+      </c>
+      <c r="MB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF10" t="s">
+        <v>67</v>
+      </c>
+      <c r="MG10" t="s">
+        <v>62</v>
+      </c>
+      <c r="MH10" t="n">
+        <v>7</v>
+      </c>
+      <c r="MI10" t="n">
+        <v>4</v>
+      </c>
+      <c r="MJ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="MK10" t="n">
+        <v>3</v>
+      </c>
+      <c r="ML10" t="n">
+        <v>4</v>
+      </c>
+      <c r="MM10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="MN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="MR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="MT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="MU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY10" t="s">
+        <v>62</v>
+      </c>
+      <c r="MZ10" t="s">
+        <v>58</v>
+      </c>
+      <c r="NA10" t="n">
+        <v>7</v>
+      </c>
+      <c r="NB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="NC10" t="s">
+        <v>71</v>
+      </c>
+      <c r="ND10" t="n">
+        <v>3</v>
+      </c>
+      <c r="NE10" t="n">
+        <v>4</v>
+      </c>
+      <c r="NF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="NG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="NH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL10" t="n">
+        <v>2</v>
+      </c>
+      <c r="NM10" t="n">
+        <v>2</v>
+      </c>
+      <c r="NN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR10" t="s">
+        <v>56</v>
+      </c>
+      <c r="NS10" t="s">
+        <v>56</v>
+      </c>
+      <c r="NT10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="NU10" t="n">
+        <v>-16</v>
+      </c>
+      <c r="NV10" t="s">
+        <v>70</v>
+      </c>
+      <c r="NW10" t="n">
+        <v>1</v>
+      </c>
+      <c r="NX10" t="n">
+        <v>2</v>
+      </c>
+      <c r="NY10" t="n">
+        <v>3</v>
+      </c>
+      <c r="NZ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="OA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE10" t="n">
+        <v>3</v>
+      </c>
+      <c r="OF10" t="n">
+        <v>3</v>
+      </c>
+      <c r="OG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK10" t="s">
+        <v>58</v>
+      </c>
+      <c r="OL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="OM10" t="n">
+        <v>8</v>
+      </c>
+      <c r="ON10" t="n">
+        <v>1</v>
+      </c>
+      <c r="OO10" t="s">
+        <v>65</v>
+      </c>
+      <c r="OP10" t="n">
+        <v>3</v>
+      </c>
+      <c r="OQ10" t="n">
+        <v>4</v>
+      </c>
+      <c r="OR10" t="n">
+        <v>2</v>
+      </c>
+      <c r="OS10" t="n">
+        <v>2</v>
+      </c>
+      <c r="OT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX10" t="n">
+        <v>3</v>
+      </c>
+      <c r="OY10" t="n">
+        <v>3</v>
+      </c>
+      <c r="OZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD10" t="s">
+        <v>67</v>
+      </c>
+      <c r="PE10" t="s">
+        <v>67</v>
+      </c>
+      <c r="PF10" t="n">
+        <v>24</v>
+      </c>
+      <c r="PG10" t="n">
+        <v>19</v>
+      </c>
+      <c r="PH10" t="s">
+        <v>64</v>
+      </c>
+      <c r="PI10" t="n">
+        <v>3</v>
+      </c>
+      <c r="PJ10" t="n">
+        <v>4</v>
+      </c>
+      <c r="PK10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO10" t="n">
+        <v>2</v>
+      </c>
+      <c r="PP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU10" t="n">
+        <v>2</v>
+      </c>
+      <c r="PV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW10" t="s">
+        <v>58</v>
+      </c>
+      <c r="PX10" t="s">
+        <v>58</v>
+      </c>
+      <c r="PY10" t="n">
+        <v>20</v>
+      </c>
+      <c r="PZ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="QA10" t="s">
+        <v>71</v>
+      </c>
+      <c r="QB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="QC10" t="n">
+        <v>4</v>
+      </c>
+      <c r="QD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="QE10" t="n">
+        <v>2</v>
+      </c>
+      <c r="QF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="QK10" t="n">
+        <v>2</v>
+      </c>
+      <c r="QL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP10" t="s">
+        <v>56</v>
+      </c>
+      <c r="QQ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="QR10" t="n">
+        <v>5</v>
+      </c>
+      <c r="QS10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="QT10" t="s">
+        <v>71</v>
+      </c>
+      <c r="QU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV10" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW10" t="n">
+        <v>3</v>
+      </c>
+      <c r="QX10" t="n">
+        <v>3</v>
+      </c>
+      <c r="QY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC10" t="n">
+        <v>3</v>
+      </c>
+      <c r="RD10" t="n">
+        <v>3</v>
+      </c>
+      <c r="RE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI10" t="s">
+        <v>62</v>
+      </c>
+      <c r="RJ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="RK10" t="n">
+        <v>10</v>
+      </c>
+      <c r="RL10" t="n">
+        <v>5</v>
+      </c>
+      <c r="RM10" t="s">
+        <v>71</v>
+      </c>
+      <c r="RN10" t="n">
+        <v>3</v>
+      </c>
+      <c r="RO10" t="n">
+        <v>4</v>
+      </c>
+      <c r="RP10" t="n">
+        <v>1</v>
+      </c>
+      <c r="RQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="RR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="RW10" t="n">
+        <v>1</v>
+      </c>
+      <c r="RX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="SC10" t="s">
+        <v>58</v>
+      </c>
+      <c r="SD10" t="n">
+        <v>3</v>
+      </c>
+      <c r="SE10" t="n">
+        <v>-11</v>
+      </c>
+      <c r="SF10" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH10" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI10" t="n">
+        <v>3</v>
+      </c>
+      <c r="SJ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="SK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO10" t="n">
+        <v>2</v>
+      </c>
+      <c r="SP10" t="n">
+        <v>2</v>
+      </c>
+      <c r="SQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST10" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU10" t="s">
+        <v>58</v>
+      </c>
+      <c r="SV10" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW10" t="n">
+        <v>8</v>
+      </c>
+      <c r="SX10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="SY10" t="s">
+        <v>71</v>
+      </c>
+      <c r="SZ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="TA10" t="n">
+        <v>2</v>
+      </c>
+      <c r="TB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="TC10" t="n">
+        <v>2</v>
+      </c>
+      <c r="TD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH10" t="n">
+        <v>2</v>
+      </c>
+      <c r="TI10" t="n">
+        <v>2</v>
+      </c>
+      <c r="TJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN10" t="s">
+        <v>67</v>
+      </c>
+      <c r="TO10" t="s">
+        <v>67</v>
+      </c>
+      <c r="TP10" t="n">
+        <v>7</v>
+      </c>
+      <c r="TQ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="TR10" t="s">
+        <v>64</v>
+      </c>
+      <c r="TS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT10" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="TV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY10" t="n">
+        <v>2</v>
+      </c>
+      <c r="TZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE10" t="n">
+        <v>2</v>
+      </c>
+      <c r="UF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG10" t="s">
+        <v>56</v>
+      </c>
+      <c r="UH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="UI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="UJ10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UK10" t="s">
+        <v>68</v>
+      </c>
+      <c r="UL10" t="n">
+        <v>1</v>
+      </c>
+      <c r="UM10" t="n">
+        <v>2</v>
+      </c>
+      <c r="UN10" t="n">
+        <v>3</v>
+      </c>
+      <c r="UO10" t="n">
+        <v>3</v>
+      </c>
+      <c r="UP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="US10" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="UU10" t="n">
+        <v>3</v>
+      </c>
+      <c r="UV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="VA10" t="s">
+        <v>62</v>
+      </c>
+      <c r="VB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="VC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="VD10" t="s">
+        <v>65</v>
+      </c>
+      <c r="VE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF10" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="VH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="VI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="VN10" t="n">
+        <v>1</v>
+      </c>
+      <c r="VO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS10" t="s">
+        <v>56</v>
+      </c>
+      <c r="VT10" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU10" t="n">
+        <v>6</v>
+      </c>
+      <c r="VV10" t="n">
+        <v>-7</v>
+      </c>
+      <c r="VW10" t="s">
+        <v>61</v>
+      </c>
+      <c r="VX10" t="n">
+        <v>1</v>
+      </c>
+      <c r="VY10" t="n">
+        <v>2</v>
+      </c>
+      <c r="VZ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="WA10" t="n">
+        <v>3</v>
+      </c>
+      <c r="WB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF10" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG10" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="WM10" t="s">
+        <v>58</v>
+      </c>
+      <c r="WN10" t="n">
+        <v>-9</v>
+      </c>
+      <c r="WO10" t="n">
+        <v>-21</v>
+      </c>
+      <c r="WP10" t="s">
+        <v>66</v>
+      </c>
+      <c r="WQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="WR10" t="n">
+        <v>2</v>
+      </c>
+      <c r="WS10" t="n">
+        <v>3</v>
+      </c>
+      <c r="WT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="WU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY10" t="n">
+        <v>2</v>
+      </c>
+      <c r="WZ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="XA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE10" t="s">
+        <v>62</v>
+      </c>
+      <c r="XF10" t="s">
+        <v>67</v>
+      </c>
+      <c r="XG10" t="n">
+        <v>8</v>
+      </c>
+      <c r="XH10" t="n">
+        <v>4</v>
+      </c>
+      <c r="XI10" t="s">
+        <v>71</v>
+      </c>
+      <c r="XJ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK10" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL10" t="n">
+        <v>1</v>
+      </c>
+      <c r="XM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="XN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="XS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="XT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV10" t="n">
+        <v>2</v>
+      </c>
+      <c r="XW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX10" t="s">
+        <v>58</v>
+      </c>
+      <c r="XY10" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="YA10" t="n">
+        <v>16</v>
+      </c>
+      <c r="YB10" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE10" t="n">
+        <v>2</v>
+      </c>
+      <c r="YF10" t="n">
+        <v>2</v>
+      </c>
+      <c r="YG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK10" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL10" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/weather/weather_2020-02.xlsx
+++ b/data/weather/weather_2020-02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>武汉</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>2020-02-07</t>
+  </si>
+  <si>
+    <t>2020-02-08</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:YP10"/>
+  <dimension ref="A1:YP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17358,6 +17361,2006 @@
         <v>0</v>
       </c>
       <c r="YP10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:666">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>-7</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>64</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>58</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>71</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>67</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>67</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>13</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>64</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>58</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>58</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>6</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>71</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>4</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>5</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>2</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX11" t="s">
+        <v>67</v>
+      </c>
+      <c r="EY11" t="s">
+        <v>62</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="FB11" t="s">
+        <v>64</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="FR11" t="s">
+        <v>58</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>8</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU11" t="s">
+        <v>71</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW11" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX11" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY11" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK11" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM11" t="n">
+        <v>-12</v>
+      </c>
+      <c r="GN11" t="s">
+        <v>66</v>
+      </c>
+      <c r="GO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP11" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR11" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC11" t="s">
+        <v>56</v>
+      </c>
+      <c r="HD11" t="s">
+        <v>58</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>-12</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>-23</v>
+      </c>
+      <c r="HG11" t="s">
+        <v>66</v>
+      </c>
+      <c r="HH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV11" t="s">
+        <v>56</v>
+      </c>
+      <c r="HW11" t="s">
+        <v>56</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>8</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="HZ11" t="s">
+        <v>57</v>
+      </c>
+      <c r="IA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC11" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID11" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="II11" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO11" t="s">
+        <v>56</v>
+      </c>
+      <c r="IP11" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ11" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>-9</v>
+      </c>
+      <c r="IS11" t="s">
+        <v>66</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU11" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV11" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC11" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH11" t="s">
+        <v>58</v>
+      </c>
+      <c r="JI11" t="s">
+        <v>58</v>
+      </c>
+      <c r="JJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="JK11" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL11" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO11" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU11" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV11" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA11" t="s">
+        <v>62</v>
+      </c>
+      <c r="KB11" t="s">
+        <v>58</v>
+      </c>
+      <c r="KC11" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE11" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF11" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG11" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI11" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN11" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO11" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT11" t="s">
+        <v>56</v>
+      </c>
+      <c r="KU11" t="s">
+        <v>58</v>
+      </c>
+      <c r="KV11" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="KX11" t="s">
+        <v>61</v>
+      </c>
+      <c r="KY11" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG11" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH11" t="n">
+        <v>2</v>
+      </c>
+      <c r="LI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM11" t="s">
+        <v>58</v>
+      </c>
+      <c r="LN11" t="s">
+        <v>67</v>
+      </c>
+      <c r="LO11" t="n">
+        <v>18</v>
+      </c>
+      <c r="LP11" t="n">
+        <v>5</v>
+      </c>
+      <c r="LQ11" t="s">
+        <v>61</v>
+      </c>
+      <c r="LR11" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS11" t="n">
+        <v>2</v>
+      </c>
+      <c r="LT11" t="n">
+        <v>2</v>
+      </c>
+      <c r="LU11" t="n">
+        <v>2</v>
+      </c>
+      <c r="LV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="MA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="ME11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF11" t="s">
+        <v>62</v>
+      </c>
+      <c r="MG11" t="s">
+        <v>58</v>
+      </c>
+      <c r="MH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MI11" t="n">
+        <v>3</v>
+      </c>
+      <c r="MJ11" t="s">
+        <v>61</v>
+      </c>
+      <c r="MK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="ML11" t="n">
+        <v>2</v>
+      </c>
+      <c r="MM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="MN11" t="n">
+        <v>1</v>
+      </c>
+      <c r="MO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS11" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT11" t="n">
+        <v>2</v>
+      </c>
+      <c r="MU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY11" t="s">
+        <v>58</v>
+      </c>
+      <c r="MZ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="NA11" t="n">
+        <v>10</v>
+      </c>
+      <c r="NB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="NC11" t="s">
+        <v>64</v>
+      </c>
+      <c r="ND11" t="n">
+        <v>1</v>
+      </c>
+      <c r="NE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="NF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="NG11" t="n">
+        <v>2</v>
+      </c>
+      <c r="NH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL11" t="n">
+        <v>3</v>
+      </c>
+      <c r="NM11" t="n">
+        <v>3</v>
+      </c>
+      <c r="NN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR11" t="s">
+        <v>56</v>
+      </c>
+      <c r="NS11" t="s">
+        <v>56</v>
+      </c>
+      <c r="NT11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="NU11" t="n">
+        <v>-13</v>
+      </c>
+      <c r="NV11" t="s">
+        <v>71</v>
+      </c>
+      <c r="NW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="NX11" t="n">
+        <v>2</v>
+      </c>
+      <c r="NY11" t="n">
+        <v>3</v>
+      </c>
+      <c r="NZ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="OA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE11" t="n">
+        <v>3</v>
+      </c>
+      <c r="OF11" t="n">
+        <v>3</v>
+      </c>
+      <c r="OG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK11" t="s">
+        <v>56</v>
+      </c>
+      <c r="OL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="OM11" t="n">
+        <v>10</v>
+      </c>
+      <c r="ON11" t="n">
+        <v>1</v>
+      </c>
+      <c r="OO11" t="s">
+        <v>65</v>
+      </c>
+      <c r="OP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="OQ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="OR11" t="n">
+        <v>3</v>
+      </c>
+      <c r="OS11" t="n">
+        <v>3</v>
+      </c>
+      <c r="OT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX11" t="n">
+        <v>3</v>
+      </c>
+      <c r="OY11" t="n">
+        <v>3</v>
+      </c>
+      <c r="OZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD11" t="s">
+        <v>67</v>
+      </c>
+      <c r="PE11" t="s">
+        <v>58</v>
+      </c>
+      <c r="PF11" t="n">
+        <v>22</v>
+      </c>
+      <c r="PG11" t="n">
+        <v>18</v>
+      </c>
+      <c r="PH11" t="s">
+        <v>64</v>
+      </c>
+      <c r="PI11" t="n">
+        <v>3</v>
+      </c>
+      <c r="PJ11" t="n">
+        <v>4</v>
+      </c>
+      <c r="PK11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO11" t="n">
+        <v>2</v>
+      </c>
+      <c r="PP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR11" t="n">
+        <v>2</v>
+      </c>
+      <c r="PS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW11" t="s">
+        <v>58</v>
+      </c>
+      <c r="PX11" t="s">
+        <v>62</v>
+      </c>
+      <c r="PY11" t="n">
+        <v>19</v>
+      </c>
+      <c r="PZ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="QA11" t="s">
+        <v>61</v>
+      </c>
+      <c r="QB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="QC11" t="n">
+        <v>2</v>
+      </c>
+      <c r="QD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="QE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="QF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="QK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="QL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP11" t="s">
+        <v>56</v>
+      </c>
+      <c r="QQ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="QR11" t="n">
+        <v>8</v>
+      </c>
+      <c r="QS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="QT11" t="s">
+        <v>65</v>
+      </c>
+      <c r="QU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV11" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW11" t="n">
+        <v>3</v>
+      </c>
+      <c r="QX11" t="n">
+        <v>3</v>
+      </c>
+      <c r="QY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC11" t="n">
+        <v>3</v>
+      </c>
+      <c r="RD11" t="n">
+        <v>3</v>
+      </c>
+      <c r="RE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI11" t="s">
+        <v>62</v>
+      </c>
+      <c r="RJ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="RK11" t="n">
+        <v>10</v>
+      </c>
+      <c r="RL11" t="n">
+        <v>5</v>
+      </c>
+      <c r="RM11" t="s">
+        <v>71</v>
+      </c>
+      <c r="RN11" t="n">
+        <v>3</v>
+      </c>
+      <c r="RO11" t="n">
+        <v>4</v>
+      </c>
+      <c r="RP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="RQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="RR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="RW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="RX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB11" t="s">
+        <v>58</v>
+      </c>
+      <c r="SC11" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE11" t="n">
+        <v>-9</v>
+      </c>
+      <c r="SF11" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH11" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="SJ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="SK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO11" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP11" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST11" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU11" t="s">
+        <v>62</v>
+      </c>
+      <c r="SV11" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW11" t="n">
+        <v>11</v>
+      </c>
+      <c r="SX11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="SY11" t="s">
+        <v>66</v>
+      </c>
+      <c r="SZ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="TA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="TB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="TC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="TD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH11" t="n">
+        <v>2</v>
+      </c>
+      <c r="TI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="TJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN11" t="s">
+        <v>62</v>
+      </c>
+      <c r="TO11" t="s">
+        <v>67</v>
+      </c>
+      <c r="TP11" t="n">
+        <v>6</v>
+      </c>
+      <c r="TQ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="TR11" t="s">
+        <v>71</v>
+      </c>
+      <c r="TS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT11" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="TV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="TW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="UF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG11" t="s">
+        <v>58</v>
+      </c>
+      <c r="UH11" t="s">
+        <v>58</v>
+      </c>
+      <c r="UI11" t="n">
+        <v>11</v>
+      </c>
+      <c r="UJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="UK11" t="s">
+        <v>66</v>
+      </c>
+      <c r="UL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="UM11" t="n">
+        <v>2</v>
+      </c>
+      <c r="UN11" t="n">
+        <v>2</v>
+      </c>
+      <c r="UO11" t="n">
+        <v>2</v>
+      </c>
+      <c r="UP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="US11" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT11" t="n">
+        <v>2</v>
+      </c>
+      <c r="UU11" t="n">
+        <v>2</v>
+      </c>
+      <c r="UV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="VA11" t="s">
+        <v>62</v>
+      </c>
+      <c r="VB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="VC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="VD11" t="s">
+        <v>59</v>
+      </c>
+      <c r="VE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="VH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="VI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="VN11" t="n">
+        <v>1</v>
+      </c>
+      <c r="VO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS11" t="s">
+        <v>56</v>
+      </c>
+      <c r="VT11" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU11" t="n">
+        <v>7</v>
+      </c>
+      <c r="VV11" t="n">
+        <v>-7</v>
+      </c>
+      <c r="VW11" t="s">
+        <v>71</v>
+      </c>
+      <c r="VX11" t="n">
+        <v>3</v>
+      </c>
+      <c r="VY11" t="n">
+        <v>4</v>
+      </c>
+      <c r="VZ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="WA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="WB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF11" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG11" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="WM11" t="s">
+        <v>56</v>
+      </c>
+      <c r="WN11" t="n">
+        <v>-10</v>
+      </c>
+      <c r="WO11" t="n">
+        <v>-17</v>
+      </c>
+      <c r="WP11" t="s">
+        <v>68</v>
+      </c>
+      <c r="WQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="WR11" t="n">
+        <v>2</v>
+      </c>
+      <c r="WS11" t="n">
+        <v>3</v>
+      </c>
+      <c r="WT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="WU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY11" t="n">
+        <v>3</v>
+      </c>
+      <c r="WZ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="XA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE11" t="s">
+        <v>62</v>
+      </c>
+      <c r="XF11" t="s">
+        <v>62</v>
+      </c>
+      <c r="XG11" t="n">
+        <v>8</v>
+      </c>
+      <c r="XH11" t="n">
+        <v>5</v>
+      </c>
+      <c r="XI11" t="s">
+        <v>71</v>
+      </c>
+      <c r="XJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK11" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="XM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="XN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR11" t="n">
+        <v>1</v>
+      </c>
+      <c r="XS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="XT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX11" t="s">
+        <v>58</v>
+      </c>
+      <c r="XY11" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ11" t="n">
+        <v>20</v>
+      </c>
+      <c r="YA11" t="n">
+        <v>16</v>
+      </c>
+      <c r="YB11" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="YF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="YG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK11" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL11" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/weather/weather_2020-02.xlsx
+++ b/data/weather/weather_2020-02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>武汉</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>2020-02-08</t>
+  </si>
+  <si>
+    <t>2020-02-09</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:YP11"/>
+  <dimension ref="A1:YP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19361,6 +19364,2006 @@
         <v>0</v>
       </c>
       <c r="YP11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:666">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V12" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>56</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>66</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL12" t="s">
+        <v>62</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>62</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>14</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>64</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>58</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>6</v>
+      </c>
+      <c r="EI12" t="s">
+        <v>64</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>2</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX12" t="s">
+        <v>67</v>
+      </c>
+      <c r="EY12" t="s">
+        <v>58</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="FB12" t="s">
+        <v>64</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>2</v>
+      </c>
+      <c r="FM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ12" t="s">
+        <v>58</v>
+      </c>
+      <c r="FR12" t="s">
+        <v>58</v>
+      </c>
+      <c r="FS12" t="n">
+        <v>12</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>2</v>
+      </c>
+      <c r="FU12" t="s">
+        <v>68</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW12" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX12" t="n">
+        <v>2</v>
+      </c>
+      <c r="FY12" t="n">
+        <v>2</v>
+      </c>
+      <c r="FZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK12" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL12" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM12" t="n">
+        <v>-10</v>
+      </c>
+      <c r="GN12" t="s">
+        <v>66</v>
+      </c>
+      <c r="GO12" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP12" t="n">
+        <v>4</v>
+      </c>
+      <c r="GQ12" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR12" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC12" t="s">
+        <v>73</v>
+      </c>
+      <c r="HD12" t="s">
+        <v>58</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>-7</v>
+      </c>
+      <c r="HF12" t="n">
+        <v>-22</v>
+      </c>
+      <c r="HG12" t="s">
+        <v>65</v>
+      </c>
+      <c r="HH12" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI12" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV12" t="s">
+        <v>60</v>
+      </c>
+      <c r="HW12" t="s">
+        <v>56</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HZ12" t="s">
+        <v>66</v>
+      </c>
+      <c r="IA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB12" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="II12" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ12" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO12" t="s">
+        <v>56</v>
+      </c>
+      <c r="IP12" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ12" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR12" t="n">
+        <v>-10</v>
+      </c>
+      <c r="IS12" t="s">
+        <v>66</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU12" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV12" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW12" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB12" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH12" t="s">
+        <v>58</v>
+      </c>
+      <c r="JI12" t="s">
+        <v>58</v>
+      </c>
+      <c r="JJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="JK12" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL12" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN12" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO12" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU12" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV12" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA12" t="s">
+        <v>58</v>
+      </c>
+      <c r="KB12" t="s">
+        <v>58</v>
+      </c>
+      <c r="KC12" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE12" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF12" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG12" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH12" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN12" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO12" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT12" t="s">
+        <v>58</v>
+      </c>
+      <c r="KU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="KV12" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW12" t="n">
+        <v>-6</v>
+      </c>
+      <c r="KX12" t="s">
+        <v>66</v>
+      </c>
+      <c r="KY12" t="n">
+        <v>3</v>
+      </c>
+      <c r="KZ12" t="n">
+        <v>4</v>
+      </c>
+      <c r="LA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB12" t="n">
+        <v>2</v>
+      </c>
+      <c r="LC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG12" t="n">
+        <v>3</v>
+      </c>
+      <c r="LH12" t="n">
+        <v>3</v>
+      </c>
+      <c r="LI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM12" t="s">
+        <v>67</v>
+      </c>
+      <c r="LN12" t="s">
+        <v>81</v>
+      </c>
+      <c r="LO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="LP12" t="n">
+        <v>6</v>
+      </c>
+      <c r="LQ12" t="s">
+        <v>61</v>
+      </c>
+      <c r="LR12" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS12" t="n">
+        <v>2</v>
+      </c>
+      <c r="LT12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="LU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX12" t="n">
+        <v>2</v>
+      </c>
+      <c r="LY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="MA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD12" t="n">
+        <v>3</v>
+      </c>
+      <c r="ME12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF12" t="s">
+        <v>58</v>
+      </c>
+      <c r="MG12" t="s">
+        <v>56</v>
+      </c>
+      <c r="MH12" t="n">
+        <v>11</v>
+      </c>
+      <c r="MI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="MJ12" t="s">
+        <v>61</v>
+      </c>
+      <c r="MK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="ML12" t="n">
+        <v>2</v>
+      </c>
+      <c r="MM12" t="n">
+        <v>2</v>
+      </c>
+      <c r="MN12" t="n">
+        <v>2</v>
+      </c>
+      <c r="MO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS12" t="n">
+        <v>3</v>
+      </c>
+      <c r="MT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="MU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY12" t="s">
+        <v>56</v>
+      </c>
+      <c r="MZ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="NA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="NB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="NC12" t="s">
+        <v>68</v>
+      </c>
+      <c r="ND12" t="n">
+        <v>1</v>
+      </c>
+      <c r="NE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="NF12" t="n">
+        <v>3</v>
+      </c>
+      <c r="NG12" t="n">
+        <v>3</v>
+      </c>
+      <c r="NH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL12" t="n">
+        <v>3</v>
+      </c>
+      <c r="NM12" t="n">
+        <v>3</v>
+      </c>
+      <c r="NN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR12" t="s">
+        <v>56</v>
+      </c>
+      <c r="NS12" t="s">
+        <v>56</v>
+      </c>
+      <c r="NT12" t="n">
+        <v>4</v>
+      </c>
+      <c r="NU12" t="n">
+        <v>-13</v>
+      </c>
+      <c r="NV12" t="s">
+        <v>68</v>
+      </c>
+      <c r="NW12" t="n">
+        <v>4</v>
+      </c>
+      <c r="NX12" t="n">
+        <v>5</v>
+      </c>
+      <c r="NY12" t="n">
+        <v>3</v>
+      </c>
+      <c r="NZ12" t="n">
+        <v>3</v>
+      </c>
+      <c r="OA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE12" t="n">
+        <v>3</v>
+      </c>
+      <c r="OF12" t="n">
+        <v>3</v>
+      </c>
+      <c r="OG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK12" t="s">
+        <v>56</v>
+      </c>
+      <c r="OL12" t="s">
+        <v>56</v>
+      </c>
+      <c r="OM12" t="n">
+        <v>12</v>
+      </c>
+      <c r="ON12" t="n">
+        <v>3</v>
+      </c>
+      <c r="OO12" t="s">
+        <v>65</v>
+      </c>
+      <c r="OP12" t="n">
+        <v>3</v>
+      </c>
+      <c r="OQ12" t="n">
+        <v>4</v>
+      </c>
+      <c r="OR12" t="n">
+        <v>3</v>
+      </c>
+      <c r="OS12" t="n">
+        <v>3</v>
+      </c>
+      <c r="OT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX12" t="n">
+        <v>3</v>
+      </c>
+      <c r="OY12" t="n">
+        <v>3</v>
+      </c>
+      <c r="OZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD12" t="s">
+        <v>67</v>
+      </c>
+      <c r="PE12" t="s">
+        <v>58</v>
+      </c>
+      <c r="PF12" t="n">
+        <v>21</v>
+      </c>
+      <c r="PG12" t="n">
+        <v>16</v>
+      </c>
+      <c r="PH12" t="s">
+        <v>64</v>
+      </c>
+      <c r="PI12" t="n">
+        <v>3</v>
+      </c>
+      <c r="PJ12" t="n">
+        <v>4</v>
+      </c>
+      <c r="PK12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO12" t="n">
+        <v>2</v>
+      </c>
+      <c r="PP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR12" t="n">
+        <v>2</v>
+      </c>
+      <c r="PS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW12" t="s">
+        <v>58</v>
+      </c>
+      <c r="PX12" t="s">
+        <v>58</v>
+      </c>
+      <c r="PY12" t="n">
+        <v>19</v>
+      </c>
+      <c r="PZ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="QA12" t="s">
+        <v>64</v>
+      </c>
+      <c r="QB12" t="n">
+        <v>3</v>
+      </c>
+      <c r="QC12" t="n">
+        <v>4</v>
+      </c>
+      <c r="QD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="QE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="QF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="QK12" t="n">
+        <v>2</v>
+      </c>
+      <c r="QL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP12" t="s">
+        <v>56</v>
+      </c>
+      <c r="QQ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="QR12" t="n">
+        <v>13</v>
+      </c>
+      <c r="QS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT12" t="s">
+        <v>65</v>
+      </c>
+      <c r="QU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV12" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW12" t="n">
+        <v>3</v>
+      </c>
+      <c r="QX12" t="n">
+        <v>3</v>
+      </c>
+      <c r="QY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="RD12" t="n">
+        <v>3</v>
+      </c>
+      <c r="RE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI12" t="s">
+        <v>58</v>
+      </c>
+      <c r="RJ12" t="s">
+        <v>58</v>
+      </c>
+      <c r="RK12" t="n">
+        <v>13</v>
+      </c>
+      <c r="RL12" t="n">
+        <v>4</v>
+      </c>
+      <c r="RM12" t="s">
+        <v>71</v>
+      </c>
+      <c r="RN12" t="n">
+        <v>1</v>
+      </c>
+      <c r="RO12" t="n">
+        <v>2</v>
+      </c>
+      <c r="RP12" t="n">
+        <v>2</v>
+      </c>
+      <c r="RQ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="RR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV12" t="n">
+        <v>2</v>
+      </c>
+      <c r="RW12" t="n">
+        <v>2</v>
+      </c>
+      <c r="RX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="SC12" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD12" t="n">
+        <v>4</v>
+      </c>
+      <c r="SE12" t="n">
+        <v>-10</v>
+      </c>
+      <c r="SF12" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH12" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI12" t="n">
+        <v>3</v>
+      </c>
+      <c r="SJ12" t="n">
+        <v>3</v>
+      </c>
+      <c r="SK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO12" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP12" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST12" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="SV12" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW12" t="n">
+        <v>12</v>
+      </c>
+      <c r="SX12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="SY12" t="s">
+        <v>59</v>
+      </c>
+      <c r="SZ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="TA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="TB12" t="n">
+        <v>3</v>
+      </c>
+      <c r="TC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="TD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH12" t="n">
+        <v>2</v>
+      </c>
+      <c r="TI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="TJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN12" t="s">
+        <v>62</v>
+      </c>
+      <c r="TO12" t="s">
+        <v>62</v>
+      </c>
+      <c r="TP12" t="n">
+        <v>7</v>
+      </c>
+      <c r="TQ12" t="n">
+        <v>3</v>
+      </c>
+      <c r="TR12" t="s">
+        <v>64</v>
+      </c>
+      <c r="TS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT12" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="TV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="TW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="UB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="UC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="UF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG12" t="s">
+        <v>56</v>
+      </c>
+      <c r="UH12" t="s">
+        <v>58</v>
+      </c>
+      <c r="UI12" t="n">
+        <v>16</v>
+      </c>
+      <c r="UJ12" t="n">
+        <v>3</v>
+      </c>
+      <c r="UK12" t="s">
+        <v>66</v>
+      </c>
+      <c r="UL12" t="n">
+        <v>3</v>
+      </c>
+      <c r="UM12" t="n">
+        <v>4</v>
+      </c>
+      <c r="UN12" t="n">
+        <v>3</v>
+      </c>
+      <c r="UO12" t="n">
+        <v>3</v>
+      </c>
+      <c r="UP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="US12" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT12" t="n">
+        <v>2</v>
+      </c>
+      <c r="UU12" t="n">
+        <v>2</v>
+      </c>
+      <c r="UV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="VA12" t="s">
+        <v>67</v>
+      </c>
+      <c r="VB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="VC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="VD12" t="s">
+        <v>70</v>
+      </c>
+      <c r="VE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF12" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="VH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="VI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="VN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="VO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="VR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS12" t="s">
+        <v>56</v>
+      </c>
+      <c r="VT12" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="VV12" t="n">
+        <v>-6</v>
+      </c>
+      <c r="VW12" t="s">
+        <v>61</v>
+      </c>
+      <c r="VX12" t="n">
+        <v>1</v>
+      </c>
+      <c r="VY12" t="n">
+        <v>2</v>
+      </c>
+      <c r="VZ12" t="n">
+        <v>3</v>
+      </c>
+      <c r="WA12" t="n">
+        <v>3</v>
+      </c>
+      <c r="WB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF12" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG12" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL12" t="s">
+        <v>58</v>
+      </c>
+      <c r="WM12" t="s">
+        <v>58</v>
+      </c>
+      <c r="WN12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="WO12" t="n">
+        <v>-18</v>
+      </c>
+      <c r="WP12" t="s">
+        <v>68</v>
+      </c>
+      <c r="WQ12" t="n">
+        <v>4</v>
+      </c>
+      <c r="WR12" t="n">
+        <v>5</v>
+      </c>
+      <c r="WS12" t="n">
+        <v>2</v>
+      </c>
+      <c r="WT12" t="n">
+        <v>2</v>
+      </c>
+      <c r="WU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY12" t="n">
+        <v>2</v>
+      </c>
+      <c r="WZ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="XA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE12" t="s">
+        <v>58</v>
+      </c>
+      <c r="XF12" t="s">
+        <v>58</v>
+      </c>
+      <c r="XG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="XH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="XI12" t="s">
+        <v>70</v>
+      </c>
+      <c r="XJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK12" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL12" t="n">
+        <v>2</v>
+      </c>
+      <c r="XM12" t="n">
+        <v>2</v>
+      </c>
+      <c r="XN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR12" t="n">
+        <v>2</v>
+      </c>
+      <c r="XS12" t="n">
+        <v>2</v>
+      </c>
+      <c r="XT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX12" t="s">
+        <v>58</v>
+      </c>
+      <c r="XY12" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ12" t="n">
+        <v>18</v>
+      </c>
+      <c r="YA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="YB12" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="YF12" t="n">
+        <v>2</v>
+      </c>
+      <c r="YG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK12" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL12" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/weather/weather_2020-02.xlsx
+++ b/data/weather/weather_2020-02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>武汉</t>
   </si>
@@ -270,6 +270,33 @@
   </si>
   <si>
     <t>2020-02-09</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>2020-02-11</t>
+  </si>
+  <si>
+    <t>霾</t>
+  </si>
+  <si>
+    <t>2020-02-12</t>
+  </si>
+  <si>
+    <t>2020-02-13</t>
+  </si>
+  <si>
+    <t>中雪</t>
+  </si>
+  <si>
+    <t>大到暴雨</t>
+  </si>
+  <si>
+    <t>雷阵雨</t>
+  </si>
+  <si>
+    <t>大雨</t>
   </si>
 </sst>
 </file>
@@ -618,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:YP12"/>
+  <dimension ref="A1:YP16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21364,6 +21391,8006 @@
         <v>0</v>
       </c>
       <c r="YP12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:666">
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W13" t="n">
+        <v>14</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>65</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>58</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>67</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>15</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>8</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>57</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>62</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>62</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>17</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="DP13" t="s">
+        <v>57</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>67</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>67</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>9</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>64</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX13" t="s">
+        <v>58</v>
+      </c>
+      <c r="EY13" t="s">
+        <v>62</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>19</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>14</v>
+      </c>
+      <c r="FB13" t="s">
+        <v>57</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>4</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>5</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ13" t="s">
+        <v>58</v>
+      </c>
+      <c r="FR13" t="s">
+        <v>67</v>
+      </c>
+      <c r="FS13" t="n">
+        <v>15</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="FU13" t="s">
+        <v>65</v>
+      </c>
+      <c r="FV13" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW13" t="n">
+        <v>4</v>
+      </c>
+      <c r="FX13" t="n">
+        <v>2</v>
+      </c>
+      <c r="FY13" t="n">
+        <v>2</v>
+      </c>
+      <c r="FZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="GE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH13" t="n">
+        <v>2</v>
+      </c>
+      <c r="GI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK13" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL13" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM13" t="n">
+        <v>-9</v>
+      </c>
+      <c r="GN13" t="s">
+        <v>68</v>
+      </c>
+      <c r="GO13" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP13" t="n">
+        <v>4</v>
+      </c>
+      <c r="GQ13" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR13" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX13" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC13" t="s">
+        <v>58</v>
+      </c>
+      <c r="HD13" t="s">
+        <v>56</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>-6</v>
+      </c>
+      <c r="HF13" t="n">
+        <v>-15</v>
+      </c>
+      <c r="HG13" t="s">
+        <v>65</v>
+      </c>
+      <c r="HH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI13" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK13" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP13" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ13" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV13" t="s">
+        <v>56</v>
+      </c>
+      <c r="HW13" t="s">
+        <v>58</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>12</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HZ13" t="s">
+        <v>57</v>
+      </c>
+      <c r="IA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB13" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID13" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="II13" t="n">
+        <v>2</v>
+      </c>
+      <c r="IJ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO13" t="s">
+        <v>56</v>
+      </c>
+      <c r="IP13" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>-7</v>
+      </c>
+      <c r="IS13" t="s">
+        <v>66</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU13" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV13" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW13" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB13" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH13" t="s">
+        <v>58</v>
+      </c>
+      <c r="JI13" t="s">
+        <v>67</v>
+      </c>
+      <c r="JJ13" t="n">
+        <v>20</v>
+      </c>
+      <c r="JK13" t="n">
+        <v>15</v>
+      </c>
+      <c r="JL13" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN13" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO13" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP13" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="JV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY13" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA13" t="s">
+        <v>58</v>
+      </c>
+      <c r="KB13" t="s">
+        <v>62</v>
+      </c>
+      <c r="KC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="KD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE13" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF13" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG13" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH13" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI13" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO13" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT13" t="s">
+        <v>56</v>
+      </c>
+      <c r="KU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="KV13" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="KX13" t="s">
+        <v>61</v>
+      </c>
+      <c r="KY13" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA13" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB13" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG13" t="n">
+        <v>3</v>
+      </c>
+      <c r="LH13" t="n">
+        <v>3</v>
+      </c>
+      <c r="LI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM13" t="s">
+        <v>67</v>
+      </c>
+      <c r="LN13" t="s">
+        <v>67</v>
+      </c>
+      <c r="LO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="LP13" t="n">
+        <v>8</v>
+      </c>
+      <c r="LQ13" t="s">
+        <v>68</v>
+      </c>
+      <c r="LR13" t="n">
+        <v>3</v>
+      </c>
+      <c r="LS13" t="n">
+        <v>4</v>
+      </c>
+      <c r="LT13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="LU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX13" t="n">
+        <v>2</v>
+      </c>
+      <c r="LY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="MA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="ME13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF13" t="s">
+        <v>58</v>
+      </c>
+      <c r="MG13" t="s">
+        <v>81</v>
+      </c>
+      <c r="MH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="MI13" t="n">
+        <v>6</v>
+      </c>
+      <c r="MJ13" t="s">
+        <v>57</v>
+      </c>
+      <c r="MK13" t="n">
+        <v>3</v>
+      </c>
+      <c r="ML13" t="n">
+        <v>4</v>
+      </c>
+      <c r="MM13" t="n">
+        <v>2</v>
+      </c>
+      <c r="MN13" t="n">
+        <v>2</v>
+      </c>
+      <c r="MO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="MT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW13" t="n">
+        <v>3</v>
+      </c>
+      <c r="MX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY13" t="s">
+        <v>67</v>
+      </c>
+      <c r="MZ13" t="s">
+        <v>67</v>
+      </c>
+      <c r="NA13" t="n">
+        <v>10</v>
+      </c>
+      <c r="NB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="NC13" t="s">
+        <v>65</v>
+      </c>
+      <c r="ND13" t="n">
+        <v>1</v>
+      </c>
+      <c r="NE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="NF13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="NG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="NK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="NM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP13" t="n">
+        <v>2</v>
+      </c>
+      <c r="NQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR13" t="s">
+        <v>69</v>
+      </c>
+      <c r="NS13" t="s">
+        <v>69</v>
+      </c>
+      <c r="NT13" t="n">
+        <v>7</v>
+      </c>
+      <c r="NU13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="NV13" t="s">
+        <v>57</v>
+      </c>
+      <c r="NW13" t="n">
+        <v>1</v>
+      </c>
+      <c r="NX13" t="n">
+        <v>2</v>
+      </c>
+      <c r="NY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB13" t="n">
+        <v>2</v>
+      </c>
+      <c r="OC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH13" t="n">
+        <v>2</v>
+      </c>
+      <c r="OI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK13" t="s">
+        <v>56</v>
+      </c>
+      <c r="OL13" t="s">
+        <v>58</v>
+      </c>
+      <c r="OM13" t="n">
+        <v>16</v>
+      </c>
+      <c r="ON13" t="n">
+        <v>8</v>
+      </c>
+      <c r="OO13" t="s">
+        <v>65</v>
+      </c>
+      <c r="OP13" t="n">
+        <v>3</v>
+      </c>
+      <c r="OQ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="OR13" t="n">
+        <v>3</v>
+      </c>
+      <c r="OS13" t="n">
+        <v>3</v>
+      </c>
+      <c r="OT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX13" t="n">
+        <v>2</v>
+      </c>
+      <c r="OY13" t="n">
+        <v>2</v>
+      </c>
+      <c r="OZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD13" t="s">
+        <v>67</v>
+      </c>
+      <c r="PE13" t="s">
+        <v>67</v>
+      </c>
+      <c r="PF13" t="n">
+        <v>20</v>
+      </c>
+      <c r="PG13" t="n">
+        <v>18</v>
+      </c>
+      <c r="PH13" t="s">
+        <v>61</v>
+      </c>
+      <c r="PI13" t="n">
+        <v>1</v>
+      </c>
+      <c r="PJ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="PK13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO13" t="n">
+        <v>2</v>
+      </c>
+      <c r="PP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU13" t="n">
+        <v>2</v>
+      </c>
+      <c r="PV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW13" t="s">
+        <v>76</v>
+      </c>
+      <c r="PX13" t="s">
+        <v>76</v>
+      </c>
+      <c r="PY13" t="n">
+        <v>19</v>
+      </c>
+      <c r="PZ13" t="n">
+        <v>16</v>
+      </c>
+      <c r="QA13" t="s">
+        <v>61</v>
+      </c>
+      <c r="QB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="QC13" t="n">
+        <v>2</v>
+      </c>
+      <c r="QD13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="QE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="QI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="QK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="QO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP13" t="s">
+        <v>56</v>
+      </c>
+      <c r="QQ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="QR13" t="n">
+        <v>16</v>
+      </c>
+      <c r="QS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="QT13" t="s">
+        <v>65</v>
+      </c>
+      <c r="QU13" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV13" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW13" t="n">
+        <v>3</v>
+      </c>
+      <c r="QX13" t="n">
+        <v>3</v>
+      </c>
+      <c r="QY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="RD13" t="n">
+        <v>3</v>
+      </c>
+      <c r="RE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI13" t="s">
+        <v>58</v>
+      </c>
+      <c r="RJ13" t="s">
+        <v>67</v>
+      </c>
+      <c r="RK13" t="n">
+        <v>13</v>
+      </c>
+      <c r="RL13" t="n">
+        <v>6</v>
+      </c>
+      <c r="RM13" t="s">
+        <v>71</v>
+      </c>
+      <c r="RN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="RO13" t="n">
+        <v>2</v>
+      </c>
+      <c r="RP13" t="n">
+        <v>2</v>
+      </c>
+      <c r="RQ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="RR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="SA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB13" t="s">
+        <v>56</v>
+      </c>
+      <c r="SC13" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="SE13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="SF13" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH13" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI13" t="n">
+        <v>3</v>
+      </c>
+      <c r="SJ13" t="n">
+        <v>3</v>
+      </c>
+      <c r="SK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO13" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP13" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST13" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU13" t="s">
+        <v>58</v>
+      </c>
+      <c r="SV13" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW13" t="n">
+        <v>13</v>
+      </c>
+      <c r="SX13" t="n">
+        <v>1</v>
+      </c>
+      <c r="SY13" t="s">
+        <v>64</v>
+      </c>
+      <c r="SZ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="TA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="TB13" t="n">
+        <v>2</v>
+      </c>
+      <c r="TC13" t="n">
+        <v>2</v>
+      </c>
+      <c r="TD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH13" t="n">
+        <v>2</v>
+      </c>
+      <c r="TI13" t="n">
+        <v>2</v>
+      </c>
+      <c r="TJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN13" t="s">
+        <v>62</v>
+      </c>
+      <c r="TO13" t="s">
+        <v>67</v>
+      </c>
+      <c r="TP13" t="n">
+        <v>11</v>
+      </c>
+      <c r="TQ13" t="n">
+        <v>5</v>
+      </c>
+      <c r="TR13" t="s">
+        <v>65</v>
+      </c>
+      <c r="TS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT13" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU13" t="n">
+        <v>1</v>
+      </c>
+      <c r="TV13" t="n">
+        <v>1</v>
+      </c>
+      <c r="TW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="UF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG13" t="s">
+        <v>58</v>
+      </c>
+      <c r="UH13" t="s">
+        <v>58</v>
+      </c>
+      <c r="UI13" t="n">
+        <v>18</v>
+      </c>
+      <c r="UJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="UK13" t="s">
+        <v>65</v>
+      </c>
+      <c r="UL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="UM13" t="n">
+        <v>2</v>
+      </c>
+      <c r="UN13" t="n">
+        <v>2</v>
+      </c>
+      <c r="UO13" t="n">
+        <v>2</v>
+      </c>
+      <c r="UP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="US13" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT13" t="n">
+        <v>2</v>
+      </c>
+      <c r="UU13" t="n">
+        <v>2</v>
+      </c>
+      <c r="UV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="VA13" t="s">
+        <v>67</v>
+      </c>
+      <c r="VB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="VC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="VD13" t="s">
+        <v>59</v>
+      </c>
+      <c r="VE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF13" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="VH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="VI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="VN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="VO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="VR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS13" t="s">
+        <v>56</v>
+      </c>
+      <c r="VT13" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU13" t="n">
+        <v>11</v>
+      </c>
+      <c r="VV13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="VW13" t="s">
+        <v>61</v>
+      </c>
+      <c r="VX13" t="n">
+        <v>1</v>
+      </c>
+      <c r="VY13" t="n">
+        <v>2</v>
+      </c>
+      <c r="VZ13" t="n">
+        <v>3</v>
+      </c>
+      <c r="WA13" t="n">
+        <v>3</v>
+      </c>
+      <c r="WB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF13" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG13" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL13" t="s">
+        <v>56</v>
+      </c>
+      <c r="WM13" t="s">
+        <v>56</v>
+      </c>
+      <c r="WN13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="WO13" t="n">
+        <v>-13</v>
+      </c>
+      <c r="WP13" t="s">
+        <v>57</v>
+      </c>
+      <c r="WQ13" t="n">
+        <v>3</v>
+      </c>
+      <c r="WR13" t="n">
+        <v>4</v>
+      </c>
+      <c r="WS13" t="n">
+        <v>3</v>
+      </c>
+      <c r="WT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="WU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY13" t="n">
+        <v>3</v>
+      </c>
+      <c r="WZ13" t="n">
+        <v>3</v>
+      </c>
+      <c r="XA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE13" t="s">
+        <v>67</v>
+      </c>
+      <c r="XF13" t="s">
+        <v>79</v>
+      </c>
+      <c r="XG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="XH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="XI13" t="s">
+        <v>57</v>
+      </c>
+      <c r="XJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK13" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="XM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="XN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP13" t="n">
+        <v>2</v>
+      </c>
+      <c r="XQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="XS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="XT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV13" t="n">
+        <v>4</v>
+      </c>
+      <c r="XW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX13" t="s">
+        <v>58</v>
+      </c>
+      <c r="XY13" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ13" t="n">
+        <v>19</v>
+      </c>
+      <c r="YA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="YB13" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="YF13" t="n">
+        <v>2</v>
+      </c>
+      <c r="YG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK13" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL13" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:666">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>67</v>
+      </c>
+      <c r="V14" t="s">
+        <v>67</v>
+      </c>
+      <c r="W14" t="n">
+        <v>11</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>65</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>67</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>8</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>65</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>62</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>62</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>21</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>14</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>57</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>67</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>67</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>9</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>68</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX14" t="s">
+        <v>62</v>
+      </c>
+      <c r="EY14" t="s">
+        <v>58</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>16</v>
+      </c>
+      <c r="FB14" t="s">
+        <v>61</v>
+      </c>
+      <c r="FC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD14" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK14" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL14" t="n">
+        <v>2</v>
+      </c>
+      <c r="FM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="FR14" t="s">
+        <v>62</v>
+      </c>
+      <c r="FS14" t="n">
+        <v>13</v>
+      </c>
+      <c r="FT14" t="n">
+        <v>5</v>
+      </c>
+      <c r="FU14" t="s">
+        <v>65</v>
+      </c>
+      <c r="FV14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW14" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK14" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL14" t="n">
+        <v>5</v>
+      </c>
+      <c r="GM14" t="n">
+        <v>-7</v>
+      </c>
+      <c r="GN14" t="s">
+        <v>68</v>
+      </c>
+      <c r="GO14" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW14" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX14" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC14" t="s">
+        <v>56</v>
+      </c>
+      <c r="HD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="HE14" t="n">
+        <v>5</v>
+      </c>
+      <c r="HF14" t="n">
+        <v>-6</v>
+      </c>
+      <c r="HG14" t="s">
+        <v>65</v>
+      </c>
+      <c r="HH14" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI14" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK14" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP14" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV14" t="s">
+        <v>87</v>
+      </c>
+      <c r="HW14" t="s">
+        <v>58</v>
+      </c>
+      <c r="HX14" t="n">
+        <v>14</v>
+      </c>
+      <c r="HY14" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ14" t="s">
+        <v>68</v>
+      </c>
+      <c r="IA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB14" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="II14" t="n">
+        <v>2</v>
+      </c>
+      <c r="IJ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO14" t="s">
+        <v>56</v>
+      </c>
+      <c r="IP14" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="IR14" t="n">
+        <v>-8</v>
+      </c>
+      <c r="IS14" t="s">
+        <v>68</v>
+      </c>
+      <c r="IT14" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU14" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV14" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW14" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB14" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC14" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH14" t="s">
+        <v>62</v>
+      </c>
+      <c r="JI14" t="s">
+        <v>62</v>
+      </c>
+      <c r="JJ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="JK14" t="n">
+        <v>15</v>
+      </c>
+      <c r="JL14" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM14" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO14" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP14" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU14" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV14" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA14" t="s">
+        <v>58</v>
+      </c>
+      <c r="KB14" t="s">
+        <v>58</v>
+      </c>
+      <c r="KC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE14" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT14" t="s">
+        <v>56</v>
+      </c>
+      <c r="KU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="KV14" t="n">
+        <v>10</v>
+      </c>
+      <c r="KW14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="KX14" t="s">
+        <v>70</v>
+      </c>
+      <c r="KY14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KZ14" t="n">
+        <v>4</v>
+      </c>
+      <c r="LA14" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB14" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG14" t="n">
+        <v>3</v>
+      </c>
+      <c r="LH14" t="n">
+        <v>3</v>
+      </c>
+      <c r="LI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM14" t="s">
+        <v>58</v>
+      </c>
+      <c r="LN14" t="s">
+        <v>56</v>
+      </c>
+      <c r="LO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="LP14" t="n">
+        <v>5</v>
+      </c>
+      <c r="LQ14" t="s">
+        <v>68</v>
+      </c>
+      <c r="LR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="LS14" t="n">
+        <v>4</v>
+      </c>
+      <c r="LT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="LU14" t="n">
+        <v>2</v>
+      </c>
+      <c r="LV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="MA14" t="n">
+        <v>3</v>
+      </c>
+      <c r="MB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME14" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF14" t="s">
+        <v>81</v>
+      </c>
+      <c r="MG14" t="s">
+        <v>67</v>
+      </c>
+      <c r="MH14" t="n">
+        <v>11</v>
+      </c>
+      <c r="MI14" t="n">
+        <v>8</v>
+      </c>
+      <c r="MJ14" t="s">
+        <v>61</v>
+      </c>
+      <c r="MK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="ML14" t="n">
+        <v>2</v>
+      </c>
+      <c r="MM14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="MN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="MR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="MT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW14" t="n">
+        <v>2</v>
+      </c>
+      <c r="MX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY14" t="s">
+        <v>62</v>
+      </c>
+      <c r="MZ14" t="s">
+        <v>58</v>
+      </c>
+      <c r="NA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="NB14" t="n">
+        <v>5</v>
+      </c>
+      <c r="NC14" t="s">
+        <v>65</v>
+      </c>
+      <c r="ND14" t="n">
+        <v>1</v>
+      </c>
+      <c r="NE14" t="n">
+        <v>2</v>
+      </c>
+      <c r="NF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="NG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="NH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL14" t="n">
+        <v>2</v>
+      </c>
+      <c r="NM14" t="n">
+        <v>2</v>
+      </c>
+      <c r="NN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR14" t="s">
+        <v>56</v>
+      </c>
+      <c r="NS14" t="s">
+        <v>69</v>
+      </c>
+      <c r="NT14" t="n">
+        <v>12</v>
+      </c>
+      <c r="NU14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="NV14" t="s">
+        <v>65</v>
+      </c>
+      <c r="NW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="NX14" t="n">
+        <v>6</v>
+      </c>
+      <c r="NY14" t="n">
+        <v>3</v>
+      </c>
+      <c r="NZ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="OA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH14" t="n">
+        <v>2</v>
+      </c>
+      <c r="OI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK14" t="s">
+        <v>56</v>
+      </c>
+      <c r="OL14" t="s">
+        <v>58</v>
+      </c>
+      <c r="OM14" t="n">
+        <v>16</v>
+      </c>
+      <c r="ON14" t="n">
+        <v>7</v>
+      </c>
+      <c r="OO14" t="s">
+        <v>65</v>
+      </c>
+      <c r="OP14" t="n">
+        <v>3</v>
+      </c>
+      <c r="OQ14" t="n">
+        <v>4</v>
+      </c>
+      <c r="OR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="OS14" t="n">
+        <v>3</v>
+      </c>
+      <c r="OT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX14" t="n">
+        <v>2</v>
+      </c>
+      <c r="OY14" t="n">
+        <v>2</v>
+      </c>
+      <c r="OZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD14" t="s">
+        <v>67</v>
+      </c>
+      <c r="PE14" t="s">
+        <v>58</v>
+      </c>
+      <c r="PF14" t="n">
+        <v>23</v>
+      </c>
+      <c r="PG14" t="n">
+        <v>19</v>
+      </c>
+      <c r="PH14" t="s">
+        <v>61</v>
+      </c>
+      <c r="PI14" t="n">
+        <v>1</v>
+      </c>
+      <c r="PJ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="PK14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO14" t="n">
+        <v>2</v>
+      </c>
+      <c r="PP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR14" t="n">
+        <v>2</v>
+      </c>
+      <c r="PS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW14" t="s">
+        <v>76</v>
+      </c>
+      <c r="PX14" t="s">
+        <v>58</v>
+      </c>
+      <c r="PY14" t="n">
+        <v>20</v>
+      </c>
+      <c r="PZ14" t="n">
+        <v>17</v>
+      </c>
+      <c r="QA14" t="s">
+        <v>61</v>
+      </c>
+      <c r="QB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="QC14" t="n">
+        <v>2</v>
+      </c>
+      <c r="QD14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="QE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="QI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="QK14" t="n">
+        <v>2</v>
+      </c>
+      <c r="QL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP14" t="s">
+        <v>58</v>
+      </c>
+      <c r="QQ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="QR14" t="n">
+        <v>14</v>
+      </c>
+      <c r="QS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="QT14" t="s">
+        <v>65</v>
+      </c>
+      <c r="QU14" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV14" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW14" t="n">
+        <v>2</v>
+      </c>
+      <c r="QX14" t="n">
+        <v>2</v>
+      </c>
+      <c r="QY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC14" t="n">
+        <v>3</v>
+      </c>
+      <c r="RD14" t="n">
+        <v>3</v>
+      </c>
+      <c r="RE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI14" t="s">
+        <v>67</v>
+      </c>
+      <c r="RJ14" t="s">
+        <v>67</v>
+      </c>
+      <c r="RK14" t="n">
+        <v>14</v>
+      </c>
+      <c r="RL14" t="n">
+        <v>9</v>
+      </c>
+      <c r="RM14" t="s">
+        <v>64</v>
+      </c>
+      <c r="RN14" t="n">
+        <v>1</v>
+      </c>
+      <c r="RO14" t="n">
+        <v>2</v>
+      </c>
+      <c r="RP14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="RU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="SA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="SC14" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="SE14" t="n">
+        <v>-10</v>
+      </c>
+      <c r="SF14" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH14" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI14" t="n">
+        <v>3</v>
+      </c>
+      <c r="SJ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="SK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO14" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP14" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST14" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU14" t="s">
+        <v>58</v>
+      </c>
+      <c r="SV14" t="s">
+        <v>56</v>
+      </c>
+      <c r="SW14" t="n">
+        <v>14</v>
+      </c>
+      <c r="SX14" t="n">
+        <v>1</v>
+      </c>
+      <c r="SY14" t="s">
+        <v>64</v>
+      </c>
+      <c r="SZ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="TA14" t="n">
+        <v>2</v>
+      </c>
+      <c r="TB14" t="n">
+        <v>2</v>
+      </c>
+      <c r="TC14" t="n">
+        <v>2</v>
+      </c>
+      <c r="TD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH14" t="n">
+        <v>3</v>
+      </c>
+      <c r="TI14" t="n">
+        <v>3</v>
+      </c>
+      <c r="TJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN14" t="s">
+        <v>67</v>
+      </c>
+      <c r="TO14" t="s">
+        <v>67</v>
+      </c>
+      <c r="TP14" t="n">
+        <v>13</v>
+      </c>
+      <c r="TQ14" t="n">
+        <v>7</v>
+      </c>
+      <c r="TR14" t="s">
+        <v>71</v>
+      </c>
+      <c r="TS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="TV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY14" t="n">
+        <v>2</v>
+      </c>
+      <c r="TZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE14" t="n">
+        <v>2</v>
+      </c>
+      <c r="UF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG14" t="s">
+        <v>56</v>
+      </c>
+      <c r="UH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="UI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="UJ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="UK14" t="s">
+        <v>65</v>
+      </c>
+      <c r="UL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="UM14" t="n">
+        <v>2</v>
+      </c>
+      <c r="UN14" t="n">
+        <v>3</v>
+      </c>
+      <c r="UO14" t="n">
+        <v>3</v>
+      </c>
+      <c r="UP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="US14" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="UU14" t="n">
+        <v>3</v>
+      </c>
+      <c r="UV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="VA14" t="s">
+        <v>58</v>
+      </c>
+      <c r="VB14" t="n">
+        <v>15</v>
+      </c>
+      <c r="VC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="VD14" t="s">
+        <v>59</v>
+      </c>
+      <c r="VE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF14" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="VH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="VI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM14" t="n">
+        <v>2</v>
+      </c>
+      <c r="VN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="VO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS14" t="s">
+        <v>56</v>
+      </c>
+      <c r="VT14" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU14" t="n">
+        <v>12</v>
+      </c>
+      <c r="VV14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="VW14" t="s">
+        <v>61</v>
+      </c>
+      <c r="VX14" t="n">
+        <v>1</v>
+      </c>
+      <c r="VY14" t="n">
+        <v>2</v>
+      </c>
+      <c r="VZ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="WA14" t="n">
+        <v>3</v>
+      </c>
+      <c r="WB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF14" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG14" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL14" t="s">
+        <v>56</v>
+      </c>
+      <c r="WM14" t="s">
+        <v>56</v>
+      </c>
+      <c r="WN14" t="n">
+        <v>7</v>
+      </c>
+      <c r="WO14" t="n">
+        <v>1</v>
+      </c>
+      <c r="WP14" t="s">
+        <v>68</v>
+      </c>
+      <c r="WQ14" t="n">
+        <v>4</v>
+      </c>
+      <c r="WR14" t="n">
+        <v>5</v>
+      </c>
+      <c r="WS14" t="n">
+        <v>3</v>
+      </c>
+      <c r="WT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="WU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY14" t="n">
+        <v>3</v>
+      </c>
+      <c r="WZ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="XA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE14" t="s">
+        <v>67</v>
+      </c>
+      <c r="XF14" t="s">
+        <v>67</v>
+      </c>
+      <c r="XG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="XH14" t="n">
+        <v>8</v>
+      </c>
+      <c r="XI14" t="s">
+        <v>65</v>
+      </c>
+      <c r="XJ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK14" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="XM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="XN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="XQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="XS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="XT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV14" t="n">
+        <v>2</v>
+      </c>
+      <c r="XW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX14" t="s">
+        <v>67</v>
+      </c>
+      <c r="XY14" t="s">
+        <v>67</v>
+      </c>
+      <c r="XZ14" t="n">
+        <v>20</v>
+      </c>
+      <c r="YA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="YB14" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD14" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="YF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="YG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI14" t="n">
+        <v>2</v>
+      </c>
+      <c r="YJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="YL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="YM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO14" t="n">
+        <v>2</v>
+      </c>
+      <c r="YP14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:666">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>56</v>
+      </c>
+      <c r="V15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" t="n">
+        <v>16</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-13</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>65</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>58</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>16</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>7</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>68</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>67</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>79</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>23</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>16</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>57</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>-4</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>4</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>58</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>67</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>17</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>68</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX15" t="s">
+        <v>58</v>
+      </c>
+      <c r="EY15" t="s">
+        <v>56</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>20</v>
+      </c>
+      <c r="FA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="FB15" t="s">
+        <v>61</v>
+      </c>
+      <c r="FC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK15" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL15" t="n">
+        <v>3</v>
+      </c>
+      <c r="FM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="FR15" t="s">
+        <v>56</v>
+      </c>
+      <c r="FS15" t="n">
+        <v>16</v>
+      </c>
+      <c r="FT15" t="n">
+        <v>4</v>
+      </c>
+      <c r="FU15" t="s">
+        <v>68</v>
+      </c>
+      <c r="FV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW15" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX15" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY15" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD15" t="n">
+        <v>3</v>
+      </c>
+      <c r="GE15" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK15" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL15" t="n">
+        <v>7</v>
+      </c>
+      <c r="GM15" t="n">
+        <v>-6</v>
+      </c>
+      <c r="GN15" t="s">
+        <v>68</v>
+      </c>
+      <c r="GO15" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP15" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR15" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW15" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX15" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC15" t="s">
+        <v>58</v>
+      </c>
+      <c r="HD15" t="s">
+        <v>63</v>
+      </c>
+      <c r="HE15" t="n">
+        <v>5</v>
+      </c>
+      <c r="HF15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="HG15" t="s">
+        <v>68</v>
+      </c>
+      <c r="HH15" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI15" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK15" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU15" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV15" t="s">
+        <v>58</v>
+      </c>
+      <c r="HW15" t="s">
+        <v>58</v>
+      </c>
+      <c r="HX15" t="n">
+        <v>14</v>
+      </c>
+      <c r="HY15" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ15" t="s">
+        <v>68</v>
+      </c>
+      <c r="IA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB15" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC15" t="n">
+        <v>2</v>
+      </c>
+      <c r="ID15" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="II15" t="n">
+        <v>2</v>
+      </c>
+      <c r="IJ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO15" t="s">
+        <v>56</v>
+      </c>
+      <c r="IP15" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="IR15" t="n">
+        <v>-7</v>
+      </c>
+      <c r="IS15" t="s">
+        <v>68</v>
+      </c>
+      <c r="IT15" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU15" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV15" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW15" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC15" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH15" t="s">
+        <v>67</v>
+      </c>
+      <c r="JI15" t="s">
+        <v>81</v>
+      </c>
+      <c r="JJ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="JK15" t="n">
+        <v>17</v>
+      </c>
+      <c r="JL15" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM15" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN15" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="JP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS15" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="JV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY15" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA15" t="s">
+        <v>62</v>
+      </c>
+      <c r="KB15" t="s">
+        <v>58</v>
+      </c>
+      <c r="KC15" t="n">
+        <v>16</v>
+      </c>
+      <c r="KD15" t="n">
+        <v>9</v>
+      </c>
+      <c r="KE15" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF15" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH15" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI15" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT15" t="s">
+        <v>56</v>
+      </c>
+      <c r="KU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="KV15" t="n">
+        <v>10</v>
+      </c>
+      <c r="KW15" t="n">
+        <v>-4</v>
+      </c>
+      <c r="KX15" t="s">
+        <v>71</v>
+      </c>
+      <c r="KY15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KZ15" t="n">
+        <v>4</v>
+      </c>
+      <c r="LA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG15" t="n">
+        <v>3</v>
+      </c>
+      <c r="LH15" t="n">
+        <v>3</v>
+      </c>
+      <c r="LI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM15" t="s">
+        <v>56</v>
+      </c>
+      <c r="LN15" t="s">
+        <v>56</v>
+      </c>
+      <c r="LO15" t="n">
+        <v>19</v>
+      </c>
+      <c r="LP15" t="n">
+        <v>3</v>
+      </c>
+      <c r="LQ15" t="s">
+        <v>68</v>
+      </c>
+      <c r="LR15" t="n">
+        <v>4</v>
+      </c>
+      <c r="LS15" t="n">
+        <v>5</v>
+      </c>
+      <c r="LT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU15" t="n">
+        <v>3</v>
+      </c>
+      <c r="LV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="MA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="MB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME15" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF15" t="s">
+        <v>62</v>
+      </c>
+      <c r="MG15" t="s">
+        <v>58</v>
+      </c>
+      <c r="MH15" t="n">
+        <v>16</v>
+      </c>
+      <c r="MI15" t="n">
+        <v>9</v>
+      </c>
+      <c r="MJ15" t="s">
+        <v>61</v>
+      </c>
+      <c r="MK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="ML15" t="n">
+        <v>2</v>
+      </c>
+      <c r="MM15" t="n">
+        <v>1</v>
+      </c>
+      <c r="MN15" t="n">
+        <v>1</v>
+      </c>
+      <c r="MO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS15" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT15" t="n">
+        <v>2</v>
+      </c>
+      <c r="MU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY15" t="s">
+        <v>58</v>
+      </c>
+      <c r="MZ15" t="s">
+        <v>58</v>
+      </c>
+      <c r="NA15" t="n">
+        <v>14</v>
+      </c>
+      <c r="NB15" t="n">
+        <v>8</v>
+      </c>
+      <c r="NC15" t="s">
+        <v>57</v>
+      </c>
+      <c r="ND15" t="n">
+        <v>1</v>
+      </c>
+      <c r="NE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="NF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="NG15" t="n">
+        <v>2</v>
+      </c>
+      <c r="NH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="NM15" t="n">
+        <v>2</v>
+      </c>
+      <c r="NN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR15" t="s">
+        <v>58</v>
+      </c>
+      <c r="NS15" t="s">
+        <v>58</v>
+      </c>
+      <c r="NT15" t="n">
+        <v>13</v>
+      </c>
+      <c r="NU15" t="n">
+        <v>2</v>
+      </c>
+      <c r="NV15" t="s">
+        <v>68</v>
+      </c>
+      <c r="NW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="NX15" t="n">
+        <v>5</v>
+      </c>
+      <c r="NY15" t="n">
+        <v>2</v>
+      </c>
+      <c r="NZ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="OA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="OF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="OG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK15" t="s">
+        <v>56</v>
+      </c>
+      <c r="OL15" t="s">
+        <v>56</v>
+      </c>
+      <c r="OM15" t="n">
+        <v>16</v>
+      </c>
+      <c r="ON15" t="n">
+        <v>7</v>
+      </c>
+      <c r="OO15" t="s">
+        <v>65</v>
+      </c>
+      <c r="OP15" t="n">
+        <v>3</v>
+      </c>
+      <c r="OQ15" t="n">
+        <v>4</v>
+      </c>
+      <c r="OR15" t="n">
+        <v>3</v>
+      </c>
+      <c r="OS15" t="n">
+        <v>3</v>
+      </c>
+      <c r="OT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX15" t="n">
+        <v>3</v>
+      </c>
+      <c r="OY15" t="n">
+        <v>3</v>
+      </c>
+      <c r="OZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD15" t="s">
+        <v>58</v>
+      </c>
+      <c r="PE15" t="s">
+        <v>58</v>
+      </c>
+      <c r="PF15" t="n">
+        <v>27</v>
+      </c>
+      <c r="PG15" t="n">
+        <v>19</v>
+      </c>
+      <c r="PH15" t="s">
+        <v>57</v>
+      </c>
+      <c r="PI15" t="n">
+        <v>3</v>
+      </c>
+      <c r="PJ15" t="n">
+        <v>4</v>
+      </c>
+      <c r="PK15" t="n">
+        <v>2</v>
+      </c>
+      <c r="PL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="PM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR15" t="n">
+        <v>2</v>
+      </c>
+      <c r="PS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW15" t="s">
+        <v>58</v>
+      </c>
+      <c r="PX15" t="s">
+        <v>76</v>
+      </c>
+      <c r="PY15" t="n">
+        <v>23</v>
+      </c>
+      <c r="PZ15" t="n">
+        <v>18</v>
+      </c>
+      <c r="QA15" t="s">
+        <v>61</v>
+      </c>
+      <c r="QB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="QC15" t="n">
+        <v>2</v>
+      </c>
+      <c r="QD15" t="n">
+        <v>2</v>
+      </c>
+      <c r="QE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="QF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="QK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN15" t="n">
+        <v>1</v>
+      </c>
+      <c r="QO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP15" t="s">
+        <v>56</v>
+      </c>
+      <c r="QQ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="QR15" t="n">
+        <v>15</v>
+      </c>
+      <c r="QS15" t="n">
+        <v>2</v>
+      </c>
+      <c r="QT15" t="s">
+        <v>65</v>
+      </c>
+      <c r="QU15" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV15" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW15" t="n">
+        <v>3</v>
+      </c>
+      <c r="QX15" t="n">
+        <v>3</v>
+      </c>
+      <c r="QY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC15" t="n">
+        <v>3</v>
+      </c>
+      <c r="RD15" t="n">
+        <v>3</v>
+      </c>
+      <c r="RE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI15" t="s">
+        <v>62</v>
+      </c>
+      <c r="RJ15" t="s">
+        <v>67</v>
+      </c>
+      <c r="RK15" t="n">
+        <v>18</v>
+      </c>
+      <c r="RL15" t="n">
+        <v>10</v>
+      </c>
+      <c r="RM15" t="s">
+        <v>64</v>
+      </c>
+      <c r="RN15" t="n">
+        <v>1</v>
+      </c>
+      <c r="RO15" t="n">
+        <v>2</v>
+      </c>
+      <c r="RP15" t="n">
+        <v>1</v>
+      </c>
+      <c r="RQ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="RR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="SA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="SC15" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="SE15" t="n">
+        <v>-8</v>
+      </c>
+      <c r="SF15" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG15" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH15" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI15" t="n">
+        <v>3</v>
+      </c>
+      <c r="SJ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="SK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO15" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP15" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST15" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="SV15" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW15" t="n">
+        <v>16</v>
+      </c>
+      <c r="SX15" t="n">
+        <v>1</v>
+      </c>
+      <c r="SY15" t="s">
+        <v>59</v>
+      </c>
+      <c r="SZ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="TA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="TB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="TC15" t="n">
+        <v>3</v>
+      </c>
+      <c r="TD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH15" t="n">
+        <v>2</v>
+      </c>
+      <c r="TI15" t="n">
+        <v>2</v>
+      </c>
+      <c r="TJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN15" t="s">
+        <v>58</v>
+      </c>
+      <c r="TO15" t="s">
+        <v>62</v>
+      </c>
+      <c r="TP15" t="n">
+        <v>18</v>
+      </c>
+      <c r="TQ15" t="n">
+        <v>8</v>
+      </c>
+      <c r="TR15" t="s">
+        <v>65</v>
+      </c>
+      <c r="TS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT15" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU15" t="n">
+        <v>2</v>
+      </c>
+      <c r="TV15" t="n">
+        <v>2</v>
+      </c>
+      <c r="TW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="UB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="UC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="UF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG15" t="s">
+        <v>56</v>
+      </c>
+      <c r="UH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="UI15" t="n">
+        <v>19</v>
+      </c>
+      <c r="UJ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="UK15" t="s">
+        <v>68</v>
+      </c>
+      <c r="UL15" t="n">
+        <v>1</v>
+      </c>
+      <c r="UM15" t="n">
+        <v>2</v>
+      </c>
+      <c r="UN15" t="n">
+        <v>3</v>
+      </c>
+      <c r="UO15" t="n">
+        <v>3</v>
+      </c>
+      <c r="UP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="US15" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="UU15" t="n">
+        <v>3</v>
+      </c>
+      <c r="UV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ15" t="s">
+        <v>58</v>
+      </c>
+      <c r="VA15" t="s">
+        <v>58</v>
+      </c>
+      <c r="VB15" t="n">
+        <v>18</v>
+      </c>
+      <c r="VC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="VD15" t="s">
+        <v>64</v>
+      </c>
+      <c r="VE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG15" t="n">
+        <v>2</v>
+      </c>
+      <c r="VH15" t="n">
+        <v>2</v>
+      </c>
+      <c r="VI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM15" t="n">
+        <v>2</v>
+      </c>
+      <c r="VN15" t="n">
+        <v>2</v>
+      </c>
+      <c r="VO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS15" t="s">
+        <v>56</v>
+      </c>
+      <c r="VT15" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU15" t="n">
+        <v>13</v>
+      </c>
+      <c r="VV15" t="n">
+        <v>-7</v>
+      </c>
+      <c r="VW15" t="s">
+        <v>61</v>
+      </c>
+      <c r="VX15" t="n">
+        <v>1</v>
+      </c>
+      <c r="VY15" t="n">
+        <v>2</v>
+      </c>
+      <c r="VZ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="WA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="WB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF15" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG15" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL15" t="s">
+        <v>58</v>
+      </c>
+      <c r="WM15" t="s">
+        <v>58</v>
+      </c>
+      <c r="WN15" t="n">
+        <v>6</v>
+      </c>
+      <c r="WO15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="WP15" t="s">
+        <v>68</v>
+      </c>
+      <c r="WQ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="WR15" t="n">
+        <v>4</v>
+      </c>
+      <c r="WS15" t="n">
+        <v>2</v>
+      </c>
+      <c r="WT15" t="n">
+        <v>2</v>
+      </c>
+      <c r="WU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY15" t="n">
+        <v>2</v>
+      </c>
+      <c r="WZ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="XA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE15" t="s">
+        <v>58</v>
+      </c>
+      <c r="XF15" t="s">
+        <v>67</v>
+      </c>
+      <c r="XG15" t="n">
+        <v>18</v>
+      </c>
+      <c r="XH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="XI15" t="s">
+        <v>57</v>
+      </c>
+      <c r="XJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK15" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="XM15" t="n">
+        <v>2</v>
+      </c>
+      <c r="XN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="XS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="XT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV15" t="n">
+        <v>2</v>
+      </c>
+      <c r="XW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX15" t="s">
+        <v>58</v>
+      </c>
+      <c r="XY15" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="YA15" t="n">
+        <v>18</v>
+      </c>
+      <c r="YB15" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD15" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="YF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="YG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK15" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:666">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>67</v>
+      </c>
+      <c r="V16" t="s">
+        <v>67</v>
+      </c>
+      <c r="W16" t="n">
+        <v>16</v>
+      </c>
+      <c r="X16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>-13</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>-10</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>64</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>67</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>67</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>18</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>11</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>57</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL16" t="s">
+        <v>67</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>67</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>23</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>18</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>57</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>67</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>62</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>17</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>12</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>68</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX16" t="s">
+        <v>67</v>
+      </c>
+      <c r="EY16" t="s">
+        <v>67</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>18</v>
+      </c>
+      <c r="FB16" t="s">
+        <v>61</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI16" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO16" t="n">
+        <v>2</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ16" t="s">
+        <v>67</v>
+      </c>
+      <c r="FR16" t="s">
+        <v>58</v>
+      </c>
+      <c r="FS16" t="n">
+        <v>18</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>7</v>
+      </c>
+      <c r="FU16" t="s">
+        <v>57</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW16" t="n">
+        <v>4</v>
+      </c>
+      <c r="FX16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD16" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE16" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ16" t="s">
+        <v>58</v>
+      </c>
+      <c r="GK16" t="s">
+        <v>58</v>
+      </c>
+      <c r="GL16" t="n">
+        <v>7</v>
+      </c>
+      <c r="GM16" t="n">
+        <v>-9</v>
+      </c>
+      <c r="GN16" t="s">
+        <v>64</v>
+      </c>
+      <c r="GO16" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP16" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="GR16" t="n">
+        <v>2</v>
+      </c>
+      <c r="GS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW16" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX16" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC16" t="s">
+        <v>90</v>
+      </c>
+      <c r="HD16" t="s">
+        <v>73</v>
+      </c>
+      <c r="HE16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HF16" t="n">
+        <v>-17</v>
+      </c>
+      <c r="HG16" t="s">
+        <v>64</v>
+      </c>
+      <c r="HH16" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI16" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO16" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU16" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV16" t="s">
+        <v>58</v>
+      </c>
+      <c r="HW16" t="s">
+        <v>67</v>
+      </c>
+      <c r="HX16" t="n">
+        <v>12</v>
+      </c>
+      <c r="HY16" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ16" t="s">
+        <v>57</v>
+      </c>
+      <c r="IA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC16" t="n">
+        <v>2</v>
+      </c>
+      <c r="ID16" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="II16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="IJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM16" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO16" t="s">
+        <v>56</v>
+      </c>
+      <c r="IP16" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="IR16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="IS16" t="s">
+        <v>66</v>
+      </c>
+      <c r="IT16" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU16" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV16" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW16" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC16" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH16" t="s">
+        <v>91</v>
+      </c>
+      <c r="JI16" t="s">
+        <v>79</v>
+      </c>
+      <c r="JJ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="JK16" t="n">
+        <v>16</v>
+      </c>
+      <c r="JL16" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM16" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN16" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO16" t="n">
+        <v>-7</v>
+      </c>
+      <c r="JP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS16" t="n">
+        <v>7</v>
+      </c>
+      <c r="JT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="JV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY16" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA16" t="s">
+        <v>58</v>
+      </c>
+      <c r="KB16" t="s">
+        <v>67</v>
+      </c>
+      <c r="KC16" t="n">
+        <v>17</v>
+      </c>
+      <c r="KD16" t="n">
+        <v>10</v>
+      </c>
+      <c r="KE16" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="KO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT16" t="s">
+        <v>56</v>
+      </c>
+      <c r="KU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="KV16" t="n">
+        <v>14</v>
+      </c>
+      <c r="KW16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="KX16" t="s">
+        <v>70</v>
+      </c>
+      <c r="KY16" t="n">
+        <v>4</v>
+      </c>
+      <c r="KZ16" t="n">
+        <v>5</v>
+      </c>
+      <c r="LA16" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG16" t="n">
+        <v>3</v>
+      </c>
+      <c r="LH16" t="n">
+        <v>3</v>
+      </c>
+      <c r="LI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM16" t="s">
+        <v>56</v>
+      </c>
+      <c r="LN16" t="s">
+        <v>56</v>
+      </c>
+      <c r="LO16" t="n">
+        <v>19</v>
+      </c>
+      <c r="LP16" t="n">
+        <v>4</v>
+      </c>
+      <c r="LQ16" t="s">
+        <v>68</v>
+      </c>
+      <c r="LR16" t="n">
+        <v>3</v>
+      </c>
+      <c r="LS16" t="n">
+        <v>4</v>
+      </c>
+      <c r="LT16" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU16" t="n">
+        <v>3</v>
+      </c>
+      <c r="LV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="MA16" t="n">
+        <v>3</v>
+      </c>
+      <c r="MB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME16" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF16" t="s">
+        <v>81</v>
+      </c>
+      <c r="MG16" t="s">
+        <v>67</v>
+      </c>
+      <c r="MH16" t="n">
+        <v>18</v>
+      </c>
+      <c r="MI16" t="n">
+        <v>10</v>
+      </c>
+      <c r="MJ16" t="s">
+        <v>61</v>
+      </c>
+      <c r="MK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="ML16" t="n">
+        <v>2</v>
+      </c>
+      <c r="MM16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="MN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="MR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="MT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW16" t="n">
+        <v>2</v>
+      </c>
+      <c r="MX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY16" t="s">
+        <v>58</v>
+      </c>
+      <c r="MZ16" t="s">
+        <v>67</v>
+      </c>
+      <c r="NA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="NB16" t="n">
+        <v>9</v>
+      </c>
+      <c r="NC16" t="s">
+        <v>57</v>
+      </c>
+      <c r="ND16" t="n">
+        <v>3</v>
+      </c>
+      <c r="NE16" t="n">
+        <v>4</v>
+      </c>
+      <c r="NF16" t="n">
+        <v>2</v>
+      </c>
+      <c r="NG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="NH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="NM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP16" t="n">
+        <v>2</v>
+      </c>
+      <c r="NQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR16" t="s">
+        <v>76</v>
+      </c>
+      <c r="NS16" t="s">
+        <v>62</v>
+      </c>
+      <c r="NT16" t="n">
+        <v>12</v>
+      </c>
+      <c r="NU16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="NV16" t="s">
+        <v>68</v>
+      </c>
+      <c r="NW16" t="n">
+        <v>4</v>
+      </c>
+      <c r="NX16" t="n">
+        <v>5</v>
+      </c>
+      <c r="NY16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="NZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="OD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="OF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="OG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK16" t="s">
+        <v>56</v>
+      </c>
+      <c r="OL16" t="s">
+        <v>62</v>
+      </c>
+      <c r="OM16" t="n">
+        <v>20</v>
+      </c>
+      <c r="ON16" t="n">
+        <v>11</v>
+      </c>
+      <c r="OO16" t="s">
+        <v>65</v>
+      </c>
+      <c r="OP16" t="n">
+        <v>3</v>
+      </c>
+      <c r="OQ16" t="n">
+        <v>4</v>
+      </c>
+      <c r="OR16" t="n">
+        <v>3</v>
+      </c>
+      <c r="OS16" t="n">
+        <v>3</v>
+      </c>
+      <c r="OT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX16" t="n">
+        <v>1</v>
+      </c>
+      <c r="OY16" t="n">
+        <v>1</v>
+      </c>
+      <c r="OZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD16" t="s">
+        <v>92</v>
+      </c>
+      <c r="PE16" t="s">
+        <v>67</v>
+      </c>
+      <c r="PF16" t="n">
+        <v>25</v>
+      </c>
+      <c r="PG16" t="n">
+        <v>22</v>
+      </c>
+      <c r="PH16" t="s">
+        <v>65</v>
+      </c>
+      <c r="PI16" t="n">
+        <v>4</v>
+      </c>
+      <c r="PJ16" t="n">
+        <v>5</v>
+      </c>
+      <c r="PK16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO16" t="n">
+        <v>3</v>
+      </c>
+      <c r="PP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU16" t="n">
+        <v>2</v>
+      </c>
+      <c r="PV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW16" t="s">
+        <v>79</v>
+      </c>
+      <c r="PX16" t="s">
+        <v>79</v>
+      </c>
+      <c r="PY16" t="n">
+        <v>22</v>
+      </c>
+      <c r="PZ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="QA16" t="s">
+        <v>61</v>
+      </c>
+      <c r="QB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="QC16" t="n">
+        <v>2</v>
+      </c>
+      <c r="QD16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="QE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH16" t="n">
+        <v>4</v>
+      </c>
+      <c r="QI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="QK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="QO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP16" t="s">
+        <v>58</v>
+      </c>
+      <c r="QQ16" t="s">
+        <v>67</v>
+      </c>
+      <c r="QR16" t="n">
+        <v>14</v>
+      </c>
+      <c r="QS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT16" t="s">
+        <v>65</v>
+      </c>
+      <c r="QU16" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV16" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW16" t="n">
+        <v>2</v>
+      </c>
+      <c r="QX16" t="n">
+        <v>2</v>
+      </c>
+      <c r="QY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="RH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI16" t="s">
+        <v>67</v>
+      </c>
+      <c r="RJ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="RK16" t="n">
+        <v>19</v>
+      </c>
+      <c r="RL16" t="n">
+        <v>11</v>
+      </c>
+      <c r="RM16" t="s">
+        <v>68</v>
+      </c>
+      <c r="RN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="RO16" t="n">
+        <v>2</v>
+      </c>
+      <c r="RP16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT16" t="n">
+        <v>2</v>
+      </c>
+      <c r="RU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="RW16" t="n">
+        <v>1</v>
+      </c>
+      <c r="RX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB16" t="s">
+        <v>58</v>
+      </c>
+      <c r="SC16" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD16" t="n">
+        <v>9</v>
+      </c>
+      <c r="SE16" t="n">
+        <v>-10</v>
+      </c>
+      <c r="SF16" t="s">
+        <v>66</v>
+      </c>
+      <c r="SG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH16" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI16" t="n">
+        <v>2</v>
+      </c>
+      <c r="SJ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="SK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO16" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP16" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST16" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU16" t="s">
+        <v>58</v>
+      </c>
+      <c r="SV16" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW16" t="n">
+        <v>17</v>
+      </c>
+      <c r="SX16" t="n">
+        <v>2</v>
+      </c>
+      <c r="SY16" t="s">
+        <v>66</v>
+      </c>
+      <c r="SZ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="TA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="TB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="TC16" t="n">
+        <v>2</v>
+      </c>
+      <c r="TD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH16" t="n">
+        <v>2</v>
+      </c>
+      <c r="TI16" t="n">
+        <v>2</v>
+      </c>
+      <c r="TJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN16" t="s">
+        <v>58</v>
+      </c>
+      <c r="TO16" t="s">
+        <v>62</v>
+      </c>
+      <c r="TP16" t="n">
+        <v>20</v>
+      </c>
+      <c r="TQ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="TR16" t="s">
+        <v>65</v>
+      </c>
+      <c r="TS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT16" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU16" t="n">
+        <v>2</v>
+      </c>
+      <c r="TV16" t="n">
+        <v>2</v>
+      </c>
+      <c r="TW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="UB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="UC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="UF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG16" t="s">
+        <v>58</v>
+      </c>
+      <c r="UH16" t="s">
+        <v>58</v>
+      </c>
+      <c r="UI16" t="n">
+        <v>16</v>
+      </c>
+      <c r="UJ16" t="n">
+        <v>5</v>
+      </c>
+      <c r="UK16" t="s">
+        <v>65</v>
+      </c>
+      <c r="UL16" t="n">
+        <v>3</v>
+      </c>
+      <c r="UM16" t="n">
+        <v>4</v>
+      </c>
+      <c r="UN16" t="n">
+        <v>2</v>
+      </c>
+      <c r="UO16" t="n">
+        <v>2</v>
+      </c>
+      <c r="UP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="US16" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT16" t="n">
+        <v>2</v>
+      </c>
+      <c r="UU16" t="n">
+        <v>2</v>
+      </c>
+      <c r="UV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ16" t="s">
+        <v>58</v>
+      </c>
+      <c r="VA16" t="s">
+        <v>62</v>
+      </c>
+      <c r="VB16" t="n">
+        <v>19</v>
+      </c>
+      <c r="VC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="VD16" t="s">
+        <v>70</v>
+      </c>
+      <c r="VE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF16" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="VH16" t="n">
+        <v>2</v>
+      </c>
+      <c r="VI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM16" t="n">
+        <v>1</v>
+      </c>
+      <c r="VN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="VO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS16" t="s">
+        <v>58</v>
+      </c>
+      <c r="VT16" t="s">
+        <v>58</v>
+      </c>
+      <c r="VU16" t="n">
+        <v>7</v>
+      </c>
+      <c r="VV16" t="n">
+        <v>-9</v>
+      </c>
+      <c r="VW16" t="s">
+        <v>71</v>
+      </c>
+      <c r="VX16" t="n">
+        <v>4</v>
+      </c>
+      <c r="VY16" t="n">
+        <v>5</v>
+      </c>
+      <c r="VZ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="WA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="WB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF16" t="n">
+        <v>2</v>
+      </c>
+      <c r="WG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="WH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL16" t="s">
+        <v>74</v>
+      </c>
+      <c r="WM16" t="s">
+        <v>73</v>
+      </c>
+      <c r="WN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="WO16" t="n">
+        <v>-12</v>
+      </c>
+      <c r="WP16" t="s">
+        <v>71</v>
+      </c>
+      <c r="WQ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="WR16" t="n">
+        <v>4</v>
+      </c>
+      <c r="WS16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="WT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="WU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW16" t="n">
+        <v>3</v>
+      </c>
+      <c r="WX16" t="n">
+        <v>3</v>
+      </c>
+      <c r="WY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="WZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="XA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD16" t="n">
+        <v>1</v>
+      </c>
+      <c r="XE16" t="s">
+        <v>67</v>
+      </c>
+      <c r="XF16" t="s">
+        <v>67</v>
+      </c>
+      <c r="XG16" t="n">
+        <v>17</v>
+      </c>
+      <c r="XH16" t="n">
+        <v>13</v>
+      </c>
+      <c r="XI16" t="s">
+        <v>65</v>
+      </c>
+      <c r="XJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK16" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="XM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="XN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP16" t="n">
+        <v>2</v>
+      </c>
+      <c r="XQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="XS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="XT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV16" t="n">
+        <v>2</v>
+      </c>
+      <c r="XW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX16" t="s">
+        <v>93</v>
+      </c>
+      <c r="XY16" t="s">
+        <v>67</v>
+      </c>
+      <c r="XZ16" t="n">
+        <v>22</v>
+      </c>
+      <c r="YA16" t="n">
+        <v>19</v>
+      </c>
+      <c r="YB16" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD16" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE16" t="n">
+        <v>-6</v>
+      </c>
+      <c r="YF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="YG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI16" t="n">
+        <v>6</v>
+      </c>
+      <c r="YJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="YL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="YM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO16" t="n">
+        <v>2</v>
+      </c>
+      <c r="YP16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/weather/weather_2020-02.xlsx
+++ b/data/weather/weather_2020-02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>武汉</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>大雨</t>
+  </si>
+  <si>
+    <t>2020-02-14</t>
+  </si>
+  <si>
+    <t>大雪</t>
+  </si>
+  <si>
+    <t>中到大雨</t>
+  </si>
+  <si>
+    <t>中到大雪</t>
   </si>
 </sst>
 </file>
@@ -645,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:YP16"/>
+  <dimension ref="A1:YP17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29391,6 +29403,2006 @@
         <v>2</v>
       </c>
       <c r="YP16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:666">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>67</v>
+      </c>
+      <c r="V17" t="s">
+        <v>67</v>
+      </c>
+      <c r="W17" t="n">
+        <v>17</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>-11</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>-12</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>63</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>-6</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>64</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>4</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>76</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>67</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>16</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>64</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL17" t="s">
+        <v>62</v>
+      </c>
+      <c r="DM17" t="s">
+        <v>67</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>25</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>18</v>
+      </c>
+      <c r="DP17" t="s">
+        <v>57</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE17" t="s">
+        <v>67</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>67</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>17</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI17" t="s">
+        <v>57</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX17" t="s">
+        <v>58</v>
+      </c>
+      <c r="EY17" t="s">
+        <v>67</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>18</v>
+      </c>
+      <c r="FB17" t="s">
+        <v>64</v>
+      </c>
+      <c r="FC17" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD17" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>2</v>
+      </c>
+      <c r="FF17" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO17" t="n">
+        <v>2</v>
+      </c>
+      <c r="FP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ17" t="s">
+        <v>67</v>
+      </c>
+      <c r="FR17" t="s">
+        <v>67</v>
+      </c>
+      <c r="FS17" t="n">
+        <v>16</v>
+      </c>
+      <c r="FT17" t="n">
+        <v>2</v>
+      </c>
+      <c r="FU17" t="s">
+        <v>57</v>
+      </c>
+      <c r="FV17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW17" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB17" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="GE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="GI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ17" t="s">
+        <v>58</v>
+      </c>
+      <c r="GK17" t="s">
+        <v>58</v>
+      </c>
+      <c r="GL17" t="n">
+        <v>-9</v>
+      </c>
+      <c r="GM17" t="n">
+        <v>-18</v>
+      </c>
+      <c r="GN17" t="s">
+        <v>71</v>
+      </c>
+      <c r="GO17" t="n">
+        <v>4</v>
+      </c>
+      <c r="GP17" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="GR17" t="n">
+        <v>2</v>
+      </c>
+      <c r="GS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW17" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX17" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC17" t="s">
+        <v>56</v>
+      </c>
+      <c r="HD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="HE17" t="n">
+        <v>-10</v>
+      </c>
+      <c r="HF17" t="n">
+        <v>-19</v>
+      </c>
+      <c r="HG17" t="s">
+        <v>71</v>
+      </c>
+      <c r="HH17" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI17" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK17" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV17" t="s">
+        <v>95</v>
+      </c>
+      <c r="HW17" t="s">
+        <v>62</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="HZ17" t="s">
+        <v>64</v>
+      </c>
+      <c r="IA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="IB17" t="n">
+        <v>6</v>
+      </c>
+      <c r="IC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH17" t="n">
+        <v>6</v>
+      </c>
+      <c r="II17" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO17" t="s">
+        <v>58</v>
+      </c>
+      <c r="IP17" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ17" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>-9</v>
+      </c>
+      <c r="IS17" t="s">
+        <v>70</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU17" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV17" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW17" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC17" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH17" t="s">
+        <v>79</v>
+      </c>
+      <c r="JI17" t="s">
+        <v>96</v>
+      </c>
+      <c r="JJ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="JK17" t="n">
+        <v>16</v>
+      </c>
+      <c r="JL17" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="JP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS17" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="JV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY17" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA17" t="s">
+        <v>62</v>
+      </c>
+      <c r="KB17" t="s">
+        <v>67</v>
+      </c>
+      <c r="KC17" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD17" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE17" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF17" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI17" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="KO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT17" t="s">
+        <v>56</v>
+      </c>
+      <c r="KU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="KV17" t="n">
+        <v>15</v>
+      </c>
+      <c r="KW17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="KX17" t="s">
+        <v>70</v>
+      </c>
+      <c r="KY17" t="n">
+        <v>4</v>
+      </c>
+      <c r="KZ17" t="n">
+        <v>5</v>
+      </c>
+      <c r="LA17" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="LH17" t="n">
+        <v>3</v>
+      </c>
+      <c r="LI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM17" t="s">
+        <v>56</v>
+      </c>
+      <c r="LN17" t="s">
+        <v>56</v>
+      </c>
+      <c r="LO17" t="n">
+        <v>20</v>
+      </c>
+      <c r="LP17" t="n">
+        <v>4</v>
+      </c>
+      <c r="LQ17" t="s">
+        <v>68</v>
+      </c>
+      <c r="LR17" t="n">
+        <v>3</v>
+      </c>
+      <c r="LS17" t="n">
+        <v>4</v>
+      </c>
+      <c r="LT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="LV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="MA17" t="n">
+        <v>3</v>
+      </c>
+      <c r="MB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME17" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF17" t="s">
+        <v>67</v>
+      </c>
+      <c r="MG17" t="s">
+        <v>67</v>
+      </c>
+      <c r="MH17" t="n">
+        <v>17</v>
+      </c>
+      <c r="MI17" t="n">
+        <v>12</v>
+      </c>
+      <c r="MJ17" t="s">
+        <v>59</v>
+      </c>
+      <c r="MK17" t="n">
+        <v>3</v>
+      </c>
+      <c r="ML17" t="n">
+        <v>4</v>
+      </c>
+      <c r="MM17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="MN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="MR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="MT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW17" t="n">
+        <v>2</v>
+      </c>
+      <c r="MX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY17" t="s">
+        <v>67</v>
+      </c>
+      <c r="MZ17" t="s">
+        <v>67</v>
+      </c>
+      <c r="NA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="NB17" t="n">
+        <v>5</v>
+      </c>
+      <c r="NC17" t="s">
+        <v>71</v>
+      </c>
+      <c r="ND17" t="n">
+        <v>4</v>
+      </c>
+      <c r="NE17" t="n">
+        <v>5</v>
+      </c>
+      <c r="NF17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="NG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="NK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="NM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP17" t="n">
+        <v>2</v>
+      </c>
+      <c r="NQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR17" t="s">
+        <v>63</v>
+      </c>
+      <c r="NS17" t="s">
+        <v>97</v>
+      </c>
+      <c r="NT17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="NU17" t="n">
+        <v>-7</v>
+      </c>
+      <c r="NV17" t="s">
+        <v>71</v>
+      </c>
+      <c r="NW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="NX17" t="n">
+        <v>6</v>
+      </c>
+      <c r="NY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="OE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ17" t="n">
+        <v>5</v>
+      </c>
+      <c r="OK17" t="s">
+        <v>79</v>
+      </c>
+      <c r="OL17" t="s">
+        <v>90</v>
+      </c>
+      <c r="OM17" t="n">
+        <v>12</v>
+      </c>
+      <c r="ON17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="OO17" t="s">
+        <v>64</v>
+      </c>
+      <c r="OP17" t="n">
+        <v>4</v>
+      </c>
+      <c r="OQ17" t="n">
+        <v>5</v>
+      </c>
+      <c r="OR17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="OS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV17" t="n">
+        <v>4</v>
+      </c>
+      <c r="OW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC17" t="n">
+        <v>4</v>
+      </c>
+      <c r="PD17" t="s">
+        <v>67</v>
+      </c>
+      <c r="PE17" t="s">
+        <v>58</v>
+      </c>
+      <c r="PF17" t="n">
+        <v>29</v>
+      </c>
+      <c r="PG17" t="n">
+        <v>22</v>
+      </c>
+      <c r="PH17" t="s">
+        <v>65</v>
+      </c>
+      <c r="PI17" t="n">
+        <v>3</v>
+      </c>
+      <c r="PJ17" t="n">
+        <v>4</v>
+      </c>
+      <c r="PK17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO17" t="n">
+        <v>2</v>
+      </c>
+      <c r="PP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR17" t="n">
+        <v>2</v>
+      </c>
+      <c r="PS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW17" t="s">
+        <v>76</v>
+      </c>
+      <c r="PX17" t="s">
+        <v>79</v>
+      </c>
+      <c r="PY17" t="n">
+        <v>22</v>
+      </c>
+      <c r="PZ17" t="n">
+        <v>19</v>
+      </c>
+      <c r="QA17" t="s">
+        <v>61</v>
+      </c>
+      <c r="QB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="QC17" t="n">
+        <v>2</v>
+      </c>
+      <c r="QD17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="QE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="QI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="QK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="QO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP17" t="s">
+        <v>67</v>
+      </c>
+      <c r="QQ17" t="s">
+        <v>62</v>
+      </c>
+      <c r="QR17" t="n">
+        <v>4</v>
+      </c>
+      <c r="QS17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="QT17" t="s">
+        <v>71</v>
+      </c>
+      <c r="QU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="QV17" t="n">
+        <v>4</v>
+      </c>
+      <c r="QW17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="QX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="QY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA17" t="n">
+        <v>2</v>
+      </c>
+      <c r="RB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="RD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="RE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI17" t="s">
+        <v>67</v>
+      </c>
+      <c r="RJ17" t="s">
+        <v>67</v>
+      </c>
+      <c r="RK17" t="n">
+        <v>18</v>
+      </c>
+      <c r="RL17" t="n">
+        <v>12</v>
+      </c>
+      <c r="RM17" t="s">
+        <v>57</v>
+      </c>
+      <c r="RN17" t="n">
+        <v>3</v>
+      </c>
+      <c r="RO17" t="n">
+        <v>4</v>
+      </c>
+      <c r="RP17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT17" t="n">
+        <v>2</v>
+      </c>
+      <c r="RU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="SA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="SC17" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="SE17" t="n">
+        <v>-13</v>
+      </c>
+      <c r="SF17" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI17" t="n">
+        <v>3</v>
+      </c>
+      <c r="SJ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="SK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO17" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP17" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST17" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU17" t="s">
+        <v>62</v>
+      </c>
+      <c r="SV17" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW17" t="n">
+        <v>8</v>
+      </c>
+      <c r="SX17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="SY17" t="s">
+        <v>71</v>
+      </c>
+      <c r="SZ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="TA17" t="n">
+        <v>4</v>
+      </c>
+      <c r="TB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="TC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="TD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="TI17" t="n">
+        <v>2</v>
+      </c>
+      <c r="TJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN17" t="s">
+        <v>58</v>
+      </c>
+      <c r="TO17" t="s">
+        <v>79</v>
+      </c>
+      <c r="TP17" t="n">
+        <v>20</v>
+      </c>
+      <c r="TQ17" t="n">
+        <v>4</v>
+      </c>
+      <c r="TR17" t="s">
+        <v>65</v>
+      </c>
+      <c r="TS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT17" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU17" t="n">
+        <v>2</v>
+      </c>
+      <c r="TV17" t="n">
+        <v>2</v>
+      </c>
+      <c r="TW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="UB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE17" t="n">
+        <v>4</v>
+      </c>
+      <c r="UF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG17" t="s">
+        <v>62</v>
+      </c>
+      <c r="UH17" t="s">
+        <v>67</v>
+      </c>
+      <c r="UI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="UJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="UK17" t="s">
+        <v>64</v>
+      </c>
+      <c r="UL17" t="n">
+        <v>4</v>
+      </c>
+      <c r="UM17" t="n">
+        <v>5</v>
+      </c>
+      <c r="UN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="UO17" t="n">
+        <v>1</v>
+      </c>
+      <c r="UP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="US17" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="UV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX17" t="n">
+        <v>2</v>
+      </c>
+      <c r="UY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ17" t="s">
+        <v>67</v>
+      </c>
+      <c r="VA17" t="s">
+        <v>79</v>
+      </c>
+      <c r="VB17" t="n">
+        <v>14</v>
+      </c>
+      <c r="VC17" t="n">
+        <v>4</v>
+      </c>
+      <c r="VD17" t="s">
+        <v>64</v>
+      </c>
+      <c r="VE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF17" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="VH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="VI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK17" t="n">
+        <v>2</v>
+      </c>
+      <c r="VL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="VN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="VO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ17" t="n">
+        <v>4</v>
+      </c>
+      <c r="VR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS17" t="s">
+        <v>58</v>
+      </c>
+      <c r="VT17" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="VV17" t="n">
+        <v>-15</v>
+      </c>
+      <c r="VW17" t="s">
+        <v>70</v>
+      </c>
+      <c r="VX17" t="n">
+        <v>4</v>
+      </c>
+      <c r="VY17" t="n">
+        <v>5</v>
+      </c>
+      <c r="VZ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="WA17" t="n">
+        <v>2</v>
+      </c>
+      <c r="WB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF17" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL17" t="s">
+        <v>58</v>
+      </c>
+      <c r="WM17" t="s">
+        <v>58</v>
+      </c>
+      <c r="WN17" t="n">
+        <v>-7</v>
+      </c>
+      <c r="WO17" t="n">
+        <v>-13</v>
+      </c>
+      <c r="WP17" t="s">
+        <v>71</v>
+      </c>
+      <c r="WQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="WR17" t="n">
+        <v>4</v>
+      </c>
+      <c r="WS17" t="n">
+        <v>2</v>
+      </c>
+      <c r="WT17" t="n">
+        <v>2</v>
+      </c>
+      <c r="WU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY17" t="n">
+        <v>2</v>
+      </c>
+      <c r="WZ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="XA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE17" t="s">
+        <v>67</v>
+      </c>
+      <c r="XF17" t="s">
+        <v>67</v>
+      </c>
+      <c r="XG17" t="n">
+        <v>21</v>
+      </c>
+      <c r="XH17" t="n">
+        <v>7</v>
+      </c>
+      <c r="XI17" t="s">
+        <v>57</v>
+      </c>
+      <c r="XJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK17" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="XM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="XN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP17" t="n">
+        <v>2</v>
+      </c>
+      <c r="XQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="XS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="XT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV17" t="n">
+        <v>2</v>
+      </c>
+      <c r="XW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX17" t="s">
+        <v>79</v>
+      </c>
+      <c r="XY17" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="YA17" t="n">
+        <v>18</v>
+      </c>
+      <c r="YB17" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="YF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="YG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI17" t="n">
+        <v>4</v>
+      </c>
+      <c r="YJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK17" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL17" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/weather/weather_2020-02.xlsx
+++ b/data/weather/weather_2020-02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>武汉</t>
   </si>
@@ -327,6 +327,18 @@
   </si>
   <si>
     <t>浮尘</t>
+  </si>
+  <si>
+    <t>2020-02-20</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>2020-02-22</t>
+  </si>
+  <si>
+    <t>2020-02-23</t>
   </si>
 </sst>
 </file>
@@ -675,7 +687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:YP22"/>
+  <dimension ref="A1:YP26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41421,6 +41433,8006 @@
         <v>0</v>
       </c>
       <c r="YP22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:666">
+      <c r="A23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="n">
+        <v>17</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>56</v>
+      </c>
+      <c r="V23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" t="n">
+        <v>15</v>
+      </c>
+      <c r="X23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>-7</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>62</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>57</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS23" t="s">
+        <v>56</v>
+      </c>
+      <c r="CT23" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>16</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>5</v>
+      </c>
+      <c r="CW23" t="s">
+        <v>57</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL23" t="s">
+        <v>67</v>
+      </c>
+      <c r="DM23" t="s">
+        <v>67</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>17</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>14</v>
+      </c>
+      <c r="DP23" t="s">
+        <v>59</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW23" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC23" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE23" t="s">
+        <v>56</v>
+      </c>
+      <c r="EF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="EG23" t="n">
+        <v>17</v>
+      </c>
+      <c r="EH23" t="n">
+        <v>6</v>
+      </c>
+      <c r="EI23" t="s">
+        <v>64</v>
+      </c>
+      <c r="EJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK23" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM23" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER23" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES23" t="n">
+        <v>3</v>
+      </c>
+      <c r="ET23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX23" t="s">
+        <v>67</v>
+      </c>
+      <c r="EY23" t="s">
+        <v>56</v>
+      </c>
+      <c r="EZ23" t="n">
+        <v>20</v>
+      </c>
+      <c r="FA23" t="n">
+        <v>16</v>
+      </c>
+      <c r="FB23" t="s">
+        <v>59</v>
+      </c>
+      <c r="FC23" t="n">
+        <v>4</v>
+      </c>
+      <c r="FD23" t="n">
+        <v>5</v>
+      </c>
+      <c r="FE23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI23" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK23" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL23" t="n">
+        <v>3</v>
+      </c>
+      <c r="FM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ23" t="s">
+        <v>56</v>
+      </c>
+      <c r="FR23" t="s">
+        <v>58</v>
+      </c>
+      <c r="FS23" t="n">
+        <v>15</v>
+      </c>
+      <c r="FT23" t="n">
+        <v>2</v>
+      </c>
+      <c r="FU23" t="s">
+        <v>59</v>
+      </c>
+      <c r="FV23" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW23" t="n">
+        <v>4</v>
+      </c>
+      <c r="FX23" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY23" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD23" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE23" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ23" t="s">
+        <v>58</v>
+      </c>
+      <c r="GK23" t="s">
+        <v>58</v>
+      </c>
+      <c r="GL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM23" t="n">
+        <v>-10</v>
+      </c>
+      <c r="GN23" t="s">
+        <v>68</v>
+      </c>
+      <c r="GO23" t="n">
+        <v>4</v>
+      </c>
+      <c r="GP23" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="GR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="GS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW23" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX23" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC23" t="s">
+        <v>56</v>
+      </c>
+      <c r="HD23" t="s">
+        <v>73</v>
+      </c>
+      <c r="HE23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="HF23" t="n">
+        <v>-12</v>
+      </c>
+      <c r="HG23" t="s">
+        <v>68</v>
+      </c>
+      <c r="HH23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI23" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV23" t="s">
+        <v>62</v>
+      </c>
+      <c r="HW23" t="s">
+        <v>67</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ23" t="s">
+        <v>57</v>
+      </c>
+      <c r="IA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID23" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="II23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="IJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO23" t="s">
+        <v>58</v>
+      </c>
+      <c r="IP23" t="s">
+        <v>58</v>
+      </c>
+      <c r="IQ23" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR23" t="n">
+        <v>-6</v>
+      </c>
+      <c r="IS23" t="s">
+        <v>66</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB23" t="n">
+        <v>2</v>
+      </c>
+      <c r="JC23" t="n">
+        <v>2</v>
+      </c>
+      <c r="JD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH23" t="s">
+        <v>58</v>
+      </c>
+      <c r="JI23" t="s">
+        <v>58</v>
+      </c>
+      <c r="JJ23" t="n">
+        <v>22</v>
+      </c>
+      <c r="JK23" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL23" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN23" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO23" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP23" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU23" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV23" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA23" t="s">
+        <v>62</v>
+      </c>
+      <c r="KB23" t="s">
+        <v>58</v>
+      </c>
+      <c r="KC23" t="n">
+        <v>13</v>
+      </c>
+      <c r="KD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE23" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG23" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN23" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO23" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT23" t="s">
+        <v>62</v>
+      </c>
+      <c r="KU23" t="s">
+        <v>62</v>
+      </c>
+      <c r="KV23" t="n">
+        <v>11</v>
+      </c>
+      <c r="KW23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="KX23" t="s">
+        <v>61</v>
+      </c>
+      <c r="KY23" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="LI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM23" t="s">
+        <v>56</v>
+      </c>
+      <c r="LN23" t="s">
+        <v>56</v>
+      </c>
+      <c r="LO23" t="n">
+        <v>20</v>
+      </c>
+      <c r="LP23" t="n">
+        <v>4</v>
+      </c>
+      <c r="LQ23" t="s">
+        <v>68</v>
+      </c>
+      <c r="LR23" t="n">
+        <v>3</v>
+      </c>
+      <c r="LS23" t="n">
+        <v>4</v>
+      </c>
+      <c r="LT23" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU23" t="n">
+        <v>3</v>
+      </c>
+      <c r="LV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="MA23" t="n">
+        <v>3</v>
+      </c>
+      <c r="MB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME23" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="MG23" t="s">
+        <v>56</v>
+      </c>
+      <c r="MH23" t="n">
+        <v>15</v>
+      </c>
+      <c r="MI23" t="n">
+        <v>5</v>
+      </c>
+      <c r="MJ23" t="s">
+        <v>59</v>
+      </c>
+      <c r="MK23" t="n">
+        <v>4</v>
+      </c>
+      <c r="ML23" t="n">
+        <v>5</v>
+      </c>
+      <c r="MM23" t="n">
+        <v>3</v>
+      </c>
+      <c r="MN23" t="n">
+        <v>3</v>
+      </c>
+      <c r="MO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS23" t="n">
+        <v>3</v>
+      </c>
+      <c r="MT23" t="n">
+        <v>3</v>
+      </c>
+      <c r="MU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY23" t="s">
+        <v>56</v>
+      </c>
+      <c r="MZ23" t="s">
+        <v>67</v>
+      </c>
+      <c r="NA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="NB23" t="n">
+        <v>3</v>
+      </c>
+      <c r="NC23" t="s">
+        <v>59</v>
+      </c>
+      <c r="ND23" t="n">
+        <v>3</v>
+      </c>
+      <c r="NE23" t="n">
+        <v>4</v>
+      </c>
+      <c r="NF23" t="n">
+        <v>3</v>
+      </c>
+      <c r="NG23" t="n">
+        <v>3</v>
+      </c>
+      <c r="NH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="NM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP23" t="n">
+        <v>2</v>
+      </c>
+      <c r="NQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR23" t="s">
+        <v>58</v>
+      </c>
+      <c r="NS23" t="s">
+        <v>74</v>
+      </c>
+      <c r="NT23" t="n">
+        <v>7</v>
+      </c>
+      <c r="NU23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="NV23" t="s">
+        <v>65</v>
+      </c>
+      <c r="NW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="NX23" t="n">
+        <v>2</v>
+      </c>
+      <c r="NY23" t="n">
+        <v>2</v>
+      </c>
+      <c r="NZ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="OA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="OF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI23" t="n">
+        <v>3</v>
+      </c>
+      <c r="OJ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="OK23" t="s">
+        <v>58</v>
+      </c>
+      <c r="OL23" t="s">
+        <v>62</v>
+      </c>
+      <c r="OM23" t="n">
+        <v>14</v>
+      </c>
+      <c r="ON23" t="n">
+        <v>4</v>
+      </c>
+      <c r="OO23" t="s">
+        <v>65</v>
+      </c>
+      <c r="OP23" t="n">
+        <v>3</v>
+      </c>
+      <c r="OQ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="OR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="OS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="OT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX23" t="n">
+        <v>1</v>
+      </c>
+      <c r="OY23" t="n">
+        <v>1</v>
+      </c>
+      <c r="OZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD23" t="s">
+        <v>67</v>
+      </c>
+      <c r="PE23" t="s">
+        <v>67</v>
+      </c>
+      <c r="PF23" t="n">
+        <v>23</v>
+      </c>
+      <c r="PG23" t="n">
+        <v>18</v>
+      </c>
+      <c r="PH23" t="s">
+        <v>59</v>
+      </c>
+      <c r="PI23" t="n">
+        <v>3</v>
+      </c>
+      <c r="PJ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="PK23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO23" t="n">
+        <v>2</v>
+      </c>
+      <c r="PP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="PR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU23" t="n">
+        <v>2</v>
+      </c>
+      <c r="PV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW23" t="s">
+        <v>58</v>
+      </c>
+      <c r="PX23" t="s">
+        <v>58</v>
+      </c>
+      <c r="PY23" t="n">
+        <v>19</v>
+      </c>
+      <c r="PZ23" t="n">
+        <v>16</v>
+      </c>
+      <c r="QA23" t="s">
+        <v>61</v>
+      </c>
+      <c r="QB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="QC23" t="n">
+        <v>2</v>
+      </c>
+      <c r="QD23" t="n">
+        <v>2</v>
+      </c>
+      <c r="QE23" t="n">
+        <v>2</v>
+      </c>
+      <c r="QF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="QK23" t="n">
+        <v>2</v>
+      </c>
+      <c r="QL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP23" t="s">
+        <v>58</v>
+      </c>
+      <c r="QQ23" t="s">
+        <v>62</v>
+      </c>
+      <c r="QR23" t="n">
+        <v>7</v>
+      </c>
+      <c r="QS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="QT23" t="s">
+        <v>71</v>
+      </c>
+      <c r="QU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV23" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW23" t="n">
+        <v>2</v>
+      </c>
+      <c r="QX23" t="n">
+        <v>2</v>
+      </c>
+      <c r="QY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="RD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="RE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI23" t="s">
+        <v>56</v>
+      </c>
+      <c r="RJ23" t="s">
+        <v>56</v>
+      </c>
+      <c r="RK23" t="n">
+        <v>19</v>
+      </c>
+      <c r="RL23" t="n">
+        <v>5</v>
+      </c>
+      <c r="RM23" t="s">
+        <v>64</v>
+      </c>
+      <c r="RN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="RO23" t="n">
+        <v>2</v>
+      </c>
+      <c r="RP23" t="n">
+        <v>3</v>
+      </c>
+      <c r="RQ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="RR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV23" t="n">
+        <v>3</v>
+      </c>
+      <c r="RW23" t="n">
+        <v>3</v>
+      </c>
+      <c r="RX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB23" t="s">
+        <v>58</v>
+      </c>
+      <c r="SC23" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="SE23" t="n">
+        <v>-15</v>
+      </c>
+      <c r="SF23" t="s">
+        <v>57</v>
+      </c>
+      <c r="SG23" t="n">
+        <v>4</v>
+      </c>
+      <c r="SH23" t="n">
+        <v>5</v>
+      </c>
+      <c r="SI23" t="n">
+        <v>2</v>
+      </c>
+      <c r="SJ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="SK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO23" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP23" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST23" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU23" t="s">
+        <v>62</v>
+      </c>
+      <c r="SV23" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW23" t="n">
+        <v>10</v>
+      </c>
+      <c r="SX23" t="n">
+        <v>1</v>
+      </c>
+      <c r="SY23" t="s">
+        <v>71</v>
+      </c>
+      <c r="SZ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="TA23" t="n">
+        <v>5</v>
+      </c>
+      <c r="TB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="TC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="TD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH23" t="n">
+        <v>2</v>
+      </c>
+      <c r="TI23" t="n">
+        <v>2</v>
+      </c>
+      <c r="TJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN23" t="s">
+        <v>76</v>
+      </c>
+      <c r="TO23" t="s">
+        <v>76</v>
+      </c>
+      <c r="TP23" t="n">
+        <v>14</v>
+      </c>
+      <c r="TQ23" t="n">
+        <v>5</v>
+      </c>
+      <c r="TR23" t="s">
+        <v>65</v>
+      </c>
+      <c r="TS23" t="n">
+        <v>3</v>
+      </c>
+      <c r="TT23" t="n">
+        <v>4</v>
+      </c>
+      <c r="TU23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="TV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY23" t="n">
+        <v>1</v>
+      </c>
+      <c r="TZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="UB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="UF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG23" t="s">
+        <v>62</v>
+      </c>
+      <c r="UH23" t="s">
+        <v>62</v>
+      </c>
+      <c r="UI23" t="n">
+        <v>12</v>
+      </c>
+      <c r="UJ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="UK23" t="s">
+        <v>64</v>
+      </c>
+      <c r="UL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="UM23" t="n">
+        <v>2</v>
+      </c>
+      <c r="UN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="UO23" t="n">
+        <v>1</v>
+      </c>
+      <c r="UP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="US23" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="UU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="UV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ23" t="s">
+        <v>67</v>
+      </c>
+      <c r="VA23" t="s">
+        <v>67</v>
+      </c>
+      <c r="VB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="VC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="VD23" t="s">
+        <v>64</v>
+      </c>
+      <c r="VE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="VH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="VI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK23" t="n">
+        <v>2</v>
+      </c>
+      <c r="VL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="VN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="VO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="VR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS23" t="s">
+        <v>58</v>
+      </c>
+      <c r="VT23" t="s">
+        <v>58</v>
+      </c>
+      <c r="VU23" t="n">
+        <v>6</v>
+      </c>
+      <c r="VV23" t="n">
+        <v>-5</v>
+      </c>
+      <c r="VW23" t="s">
+        <v>70</v>
+      </c>
+      <c r="VX23" t="n">
+        <v>4</v>
+      </c>
+      <c r="VY23" t="n">
+        <v>5</v>
+      </c>
+      <c r="VZ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="WA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="WB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="WG23" t="n">
+        <v>2</v>
+      </c>
+      <c r="WH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL23" t="s">
+        <v>58</v>
+      </c>
+      <c r="WM23" t="s">
+        <v>63</v>
+      </c>
+      <c r="WN23" t="n">
+        <v>2</v>
+      </c>
+      <c r="WO23" t="n">
+        <v>-4</v>
+      </c>
+      <c r="WP23" t="s">
+        <v>68</v>
+      </c>
+      <c r="WQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="WR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="WS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="WT23" t="n">
+        <v>2</v>
+      </c>
+      <c r="WU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="WZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="XA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD23" t="n">
+        <v>2</v>
+      </c>
+      <c r="XE23" t="s">
+        <v>58</v>
+      </c>
+      <c r="XF23" t="s">
+        <v>58</v>
+      </c>
+      <c r="XG23" t="n">
+        <v>18</v>
+      </c>
+      <c r="XH23" t="n">
+        <v>5</v>
+      </c>
+      <c r="XI23" t="s">
+        <v>57</v>
+      </c>
+      <c r="XJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK23" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL23" t="n">
+        <v>2</v>
+      </c>
+      <c r="XM23" t="n">
+        <v>2</v>
+      </c>
+      <c r="XN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="XS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="XT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX23" t="s">
+        <v>58</v>
+      </c>
+      <c r="XY23" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ23" t="n">
+        <v>20</v>
+      </c>
+      <c r="YA23" t="n">
+        <v>15</v>
+      </c>
+      <c r="YB23" t="s">
+        <v>59</v>
+      </c>
+      <c r="YC23" t="n">
+        <v>3</v>
+      </c>
+      <c r="YD23" t="n">
+        <v>4</v>
+      </c>
+      <c r="YE23" t="n">
+        <v>2</v>
+      </c>
+      <c r="YF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="YG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK23" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL23" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:666">
+      <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
+        <v>58</v>
+      </c>
+      <c r="V24" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" t="n">
+        <v>18</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>56</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>11</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>70</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS24" t="s">
+        <v>58</v>
+      </c>
+      <c r="CT24" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>14</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW24" t="s">
+        <v>66</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL24" t="s">
+        <v>58</v>
+      </c>
+      <c r="DM24" t="s">
+        <v>58</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>23</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>16</v>
+      </c>
+      <c r="DP24" t="s">
+        <v>64</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>2</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>2</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE24" t="s">
+        <v>67</v>
+      </c>
+      <c r="EF24" t="s">
+        <v>62</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>16</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI24" t="s">
+        <v>71</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>4</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>-2</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP24" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX24" t="s">
+        <v>56</v>
+      </c>
+      <c r="EY24" t="s">
+        <v>56</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>16</v>
+      </c>
+      <c r="FB24" t="s">
+        <v>57</v>
+      </c>
+      <c r="FC24" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD24" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK24" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL24" t="n">
+        <v>3</v>
+      </c>
+      <c r="FM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ24" t="s">
+        <v>58</v>
+      </c>
+      <c r="FR24" t="s">
+        <v>56</v>
+      </c>
+      <c r="FS24" t="n">
+        <v>15</v>
+      </c>
+      <c r="FT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="FU24" t="s">
+        <v>70</v>
+      </c>
+      <c r="FV24" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW24" t="n">
+        <v>4</v>
+      </c>
+      <c r="FX24" t="n">
+        <v>2</v>
+      </c>
+      <c r="FY24" t="n">
+        <v>2</v>
+      </c>
+      <c r="FZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD24" t="n">
+        <v>3</v>
+      </c>
+      <c r="GE24" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ24" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK24" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM24" t="n">
+        <v>-12</v>
+      </c>
+      <c r="GN24" t="s">
+        <v>70</v>
+      </c>
+      <c r="GO24" t="n">
+        <v>4</v>
+      </c>
+      <c r="GP24" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR24" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW24" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX24" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC24" t="s">
+        <v>90</v>
+      </c>
+      <c r="HD24" t="s">
+        <v>90</v>
+      </c>
+      <c r="HE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF24" t="n">
+        <v>-9</v>
+      </c>
+      <c r="HG24" t="s">
+        <v>57</v>
+      </c>
+      <c r="HH24" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI24" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU24" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV24" t="s">
+        <v>58</v>
+      </c>
+      <c r="HW24" t="s">
+        <v>58</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>10</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ24" t="s">
+        <v>70</v>
+      </c>
+      <c r="IA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="ID24" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="II24" t="n">
+        <v>2</v>
+      </c>
+      <c r="IJ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="IK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO24" t="s">
+        <v>56</v>
+      </c>
+      <c r="IP24" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ24" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>-9</v>
+      </c>
+      <c r="IS24" t="s">
+        <v>70</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>4</v>
+      </c>
+      <c r="IU24" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV24" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW24" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB24" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC24" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH24" t="s">
+        <v>58</v>
+      </c>
+      <c r="JI24" t="s">
+        <v>58</v>
+      </c>
+      <c r="JJ24" t="n">
+        <v>25</v>
+      </c>
+      <c r="JK24" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL24" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN24" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO24" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP24" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU24" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV24" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA24" t="s">
+        <v>58</v>
+      </c>
+      <c r="KB24" t="s">
+        <v>58</v>
+      </c>
+      <c r="KC24" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD24" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE24" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF24" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG24" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH24" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI24" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN24" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO24" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT24" t="s">
+        <v>58</v>
+      </c>
+      <c r="KU24" t="s">
+        <v>62</v>
+      </c>
+      <c r="KV24" t="n">
+        <v>11</v>
+      </c>
+      <c r="KW24" t="n">
+        <v>-4</v>
+      </c>
+      <c r="KX24" t="s">
+        <v>61</v>
+      </c>
+      <c r="KY24" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB24" t="n">
+        <v>2</v>
+      </c>
+      <c r="LC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH24" t="n">
+        <v>1</v>
+      </c>
+      <c r="LI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM24" t="s">
+        <v>56</v>
+      </c>
+      <c r="LN24" t="s">
+        <v>56</v>
+      </c>
+      <c r="LO24" t="n">
+        <v>21</v>
+      </c>
+      <c r="LP24" t="n">
+        <v>5</v>
+      </c>
+      <c r="LQ24" t="s">
+        <v>61</v>
+      </c>
+      <c r="LR24" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS24" t="n">
+        <v>2</v>
+      </c>
+      <c r="LT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU24" t="n">
+        <v>3</v>
+      </c>
+      <c r="LV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="MA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="MB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME24" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF24" t="s">
+        <v>58</v>
+      </c>
+      <c r="MG24" t="s">
+        <v>58</v>
+      </c>
+      <c r="MH24" t="n">
+        <v>17</v>
+      </c>
+      <c r="MI24" t="n">
+        <v>7</v>
+      </c>
+      <c r="MJ24" t="s">
+        <v>70</v>
+      </c>
+      <c r="MK24" t="n">
+        <v>4</v>
+      </c>
+      <c r="ML24" t="n">
+        <v>5</v>
+      </c>
+      <c r="MM24" t="n">
+        <v>2</v>
+      </c>
+      <c r="MN24" t="n">
+        <v>2</v>
+      </c>
+      <c r="MO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS24" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT24" t="n">
+        <v>2</v>
+      </c>
+      <c r="MU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY24" t="s">
+        <v>67</v>
+      </c>
+      <c r="MZ24" t="s">
+        <v>56</v>
+      </c>
+      <c r="NA24" t="n">
+        <v>15</v>
+      </c>
+      <c r="NB24" t="n">
+        <v>3</v>
+      </c>
+      <c r="NC24" t="s">
+        <v>71</v>
+      </c>
+      <c r="ND24" t="n">
+        <v>1</v>
+      </c>
+      <c r="NE24" t="n">
+        <v>2</v>
+      </c>
+      <c r="NF24" t="n">
+        <v>-2</v>
+      </c>
+      <c r="NG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="NK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL24" t="n">
+        <v>3</v>
+      </c>
+      <c r="NM24" t="n">
+        <v>3</v>
+      </c>
+      <c r="NN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR24" t="s">
+        <v>97</v>
+      </c>
+      <c r="NS24" t="s">
+        <v>58</v>
+      </c>
+      <c r="NT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="NU24" t="n">
+        <v>-8</v>
+      </c>
+      <c r="NV24" t="s">
+        <v>68</v>
+      </c>
+      <c r="NW24" t="n">
+        <v>3</v>
+      </c>
+      <c r="NX24" t="n">
+        <v>4</v>
+      </c>
+      <c r="NY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD24" t="n">
+        <v>5</v>
+      </c>
+      <c r="OE24" t="n">
+        <v>2</v>
+      </c>
+      <c r="OF24" t="n">
+        <v>2</v>
+      </c>
+      <c r="OG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK24" t="s">
+        <v>58</v>
+      </c>
+      <c r="OL24" t="s">
+        <v>56</v>
+      </c>
+      <c r="OM24" t="n">
+        <v>13</v>
+      </c>
+      <c r="ON24" t="n">
+        <v>1</v>
+      </c>
+      <c r="OO24" t="s">
+        <v>71</v>
+      </c>
+      <c r="OP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="OQ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="OR24" t="n">
+        <v>2</v>
+      </c>
+      <c r="OS24" t="n">
+        <v>2</v>
+      </c>
+      <c r="OT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX24" t="n">
+        <v>3</v>
+      </c>
+      <c r="OY24" t="n">
+        <v>3</v>
+      </c>
+      <c r="OZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD24" t="s">
+        <v>58</v>
+      </c>
+      <c r="PE24" t="s">
+        <v>58</v>
+      </c>
+      <c r="PF24" t="n">
+        <v>25</v>
+      </c>
+      <c r="PG24" t="n">
+        <v>18</v>
+      </c>
+      <c r="PH24" t="s">
+        <v>64</v>
+      </c>
+      <c r="PI24" t="n">
+        <v>3</v>
+      </c>
+      <c r="PJ24" t="n">
+        <v>4</v>
+      </c>
+      <c r="PK24" t="n">
+        <v>2</v>
+      </c>
+      <c r="PL24" t="n">
+        <v>2</v>
+      </c>
+      <c r="PM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR24" t="n">
+        <v>2</v>
+      </c>
+      <c r="PS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW24" t="s">
+        <v>58</v>
+      </c>
+      <c r="PX24" t="s">
+        <v>58</v>
+      </c>
+      <c r="PY24" t="n">
+        <v>21</v>
+      </c>
+      <c r="PZ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="QA24" t="s">
+        <v>61</v>
+      </c>
+      <c r="QB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="QC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="QD24" t="n">
+        <v>2</v>
+      </c>
+      <c r="QE24" t="n">
+        <v>2</v>
+      </c>
+      <c r="QF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="QK24" t="n">
+        <v>2</v>
+      </c>
+      <c r="QL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP24" t="s">
+        <v>58</v>
+      </c>
+      <c r="QQ24" t="s">
+        <v>56</v>
+      </c>
+      <c r="QR24" t="n">
+        <v>13</v>
+      </c>
+      <c r="QS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT24" t="s">
+        <v>70</v>
+      </c>
+      <c r="QU24" t="n">
+        <v>3</v>
+      </c>
+      <c r="QV24" t="n">
+        <v>4</v>
+      </c>
+      <c r="QW24" t="n">
+        <v>2</v>
+      </c>
+      <c r="QX24" t="n">
+        <v>2</v>
+      </c>
+      <c r="QY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC24" t="n">
+        <v>3</v>
+      </c>
+      <c r="RD24" t="n">
+        <v>3</v>
+      </c>
+      <c r="RE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI24" t="s">
+        <v>58</v>
+      </c>
+      <c r="RJ24" t="s">
+        <v>67</v>
+      </c>
+      <c r="RK24" t="n">
+        <v>18</v>
+      </c>
+      <c r="RL24" t="n">
+        <v>9</v>
+      </c>
+      <c r="RM24" t="s">
+        <v>70</v>
+      </c>
+      <c r="RN24" t="n">
+        <v>1</v>
+      </c>
+      <c r="RO24" t="n">
+        <v>2</v>
+      </c>
+      <c r="RP24" t="n">
+        <v>2</v>
+      </c>
+      <c r="RQ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="RR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV24" t="n">
+        <v>-2</v>
+      </c>
+      <c r="RW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="SA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB24" t="s">
+        <v>56</v>
+      </c>
+      <c r="SC24" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="SE24" t="n">
+        <v>-11</v>
+      </c>
+      <c r="SF24" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH24" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI24" t="n">
+        <v>3</v>
+      </c>
+      <c r="SJ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="SK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO24" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP24" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST24" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="SV24" t="s">
+        <v>56</v>
+      </c>
+      <c r="SW24" t="n">
+        <v>14</v>
+      </c>
+      <c r="SX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="SY24" t="s">
+        <v>66</v>
+      </c>
+      <c r="SZ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="TA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="TB24" t="n">
+        <v>3</v>
+      </c>
+      <c r="TC24" t="n">
+        <v>3</v>
+      </c>
+      <c r="TD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH24" t="n">
+        <v>3</v>
+      </c>
+      <c r="TI24" t="n">
+        <v>3</v>
+      </c>
+      <c r="TJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN24" t="s">
+        <v>62</v>
+      </c>
+      <c r="TO24" t="s">
+        <v>67</v>
+      </c>
+      <c r="TP24" t="n">
+        <v>8</v>
+      </c>
+      <c r="TQ24" t="n">
+        <v>5</v>
+      </c>
+      <c r="TR24" t="s">
+        <v>64</v>
+      </c>
+      <c r="TS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT24" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU24" t="n">
+        <v>1</v>
+      </c>
+      <c r="TV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="TW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA24" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE24" t="n">
+        <v>2</v>
+      </c>
+      <c r="UF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG24" t="s">
+        <v>56</v>
+      </c>
+      <c r="UH24" t="s">
+        <v>56</v>
+      </c>
+      <c r="UI24" t="n">
+        <v>16</v>
+      </c>
+      <c r="UJ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="UK24" t="s">
+        <v>66</v>
+      </c>
+      <c r="UL24" t="n">
+        <v>4</v>
+      </c>
+      <c r="UM24" t="n">
+        <v>5</v>
+      </c>
+      <c r="UN24" t="n">
+        <v>3</v>
+      </c>
+      <c r="UO24" t="n">
+        <v>3</v>
+      </c>
+      <c r="UP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="US24" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="UU24" t="n">
+        <v>3</v>
+      </c>
+      <c r="UV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ24" t="s">
+        <v>62</v>
+      </c>
+      <c r="VA24" t="s">
+        <v>62</v>
+      </c>
+      <c r="VB24" t="n">
+        <v>14</v>
+      </c>
+      <c r="VC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="VD24" t="s">
+        <v>71</v>
+      </c>
+      <c r="VE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF24" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="VH24" t="n">
+        <v>1</v>
+      </c>
+      <c r="VI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="VN24" t="n">
+        <v>1</v>
+      </c>
+      <c r="VO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS24" t="s">
+        <v>58</v>
+      </c>
+      <c r="VT24" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU24" t="n">
+        <v>6</v>
+      </c>
+      <c r="VV24" t="n">
+        <v>-6</v>
+      </c>
+      <c r="VW24" t="s">
+        <v>66</v>
+      </c>
+      <c r="VX24" t="n">
+        <v>4</v>
+      </c>
+      <c r="VY24" t="n">
+        <v>5</v>
+      </c>
+      <c r="VZ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="WA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="WB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF24" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG24" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL24" t="s">
+        <v>90</v>
+      </c>
+      <c r="WM24" t="s">
+        <v>73</v>
+      </c>
+      <c r="WN24" t="n">
+        <v>2</v>
+      </c>
+      <c r="WO24" t="n">
+        <v>-7</v>
+      </c>
+      <c r="WP24" t="s">
+        <v>68</v>
+      </c>
+      <c r="WQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="WR24" t="n">
+        <v>4</v>
+      </c>
+      <c r="WS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX24" t="n">
+        <v>4</v>
+      </c>
+      <c r="WY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="WZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="XA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="XE24" t="s">
+        <v>67</v>
+      </c>
+      <c r="XF24" t="s">
+        <v>62</v>
+      </c>
+      <c r="XG24" t="n">
+        <v>12</v>
+      </c>
+      <c r="XH24" t="n">
+        <v>10</v>
+      </c>
+      <c r="XI24" t="s">
+        <v>71</v>
+      </c>
+      <c r="XJ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK24" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL24" t="n">
+        <v>-2</v>
+      </c>
+      <c r="XM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="XN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP24" t="n">
+        <v>2</v>
+      </c>
+      <c r="XQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR24" t="n">
+        <v>1</v>
+      </c>
+      <c r="XS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="XT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX24" t="s">
+        <v>56</v>
+      </c>
+      <c r="XY24" t="s">
+        <v>56</v>
+      </c>
+      <c r="XZ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="YA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="YB24" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD24" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE24" t="n">
+        <v>3</v>
+      </c>
+      <c r="YF24" t="n">
+        <v>3</v>
+      </c>
+      <c r="YG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK24" t="n">
+        <v>3</v>
+      </c>
+      <c r="YL24" t="n">
+        <v>3</v>
+      </c>
+      <c r="YM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:666">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="n">
+        <v>17</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>56</v>
+      </c>
+      <c r="V25" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" t="n">
+        <v>17</v>
+      </c>
+      <c r="X25" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>56</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS25" t="s">
+        <v>56</v>
+      </c>
+      <c r="CT25" t="s">
+        <v>56</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>16</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW25" t="s">
+        <v>70</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>3</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL25" t="s">
+        <v>58</v>
+      </c>
+      <c r="DM25" t="s">
+        <v>58</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>25</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>15</v>
+      </c>
+      <c r="DP25" t="s">
+        <v>59</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>2</v>
+      </c>
+      <c r="DT25" t="n">
+        <v>2</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE25" t="s">
+        <v>56</v>
+      </c>
+      <c r="EF25" t="s">
+        <v>58</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>18</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>8</v>
+      </c>
+      <c r="EI25" t="s">
+        <v>64</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>4</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER25" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES25" t="n">
+        <v>2</v>
+      </c>
+      <c r="ET25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX25" t="s">
+        <v>67</v>
+      </c>
+      <c r="EY25" t="s">
+        <v>67</v>
+      </c>
+      <c r="EZ25" t="n">
+        <v>21</v>
+      </c>
+      <c r="FA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="FB25" t="s">
+        <v>64</v>
+      </c>
+      <c r="FC25" t="n">
+        <v>4</v>
+      </c>
+      <c r="FD25" t="n">
+        <v>5</v>
+      </c>
+      <c r="FE25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI25" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO25" t="n">
+        <v>2</v>
+      </c>
+      <c r="FP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ25" t="s">
+        <v>56</v>
+      </c>
+      <c r="FR25" t="s">
+        <v>56</v>
+      </c>
+      <c r="FS25" t="n">
+        <v>16</v>
+      </c>
+      <c r="FT25" t="n">
+        <v>3</v>
+      </c>
+      <c r="FU25" t="s">
+        <v>64</v>
+      </c>
+      <c r="FV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW25" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX25" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY25" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD25" t="n">
+        <v>3</v>
+      </c>
+      <c r="GE25" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ25" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK25" t="s">
+        <v>58</v>
+      </c>
+      <c r="GL25" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM25" t="n">
+        <v>-8</v>
+      </c>
+      <c r="GN25" t="s">
+        <v>68</v>
+      </c>
+      <c r="GO25" t="n">
+        <v>4</v>
+      </c>
+      <c r="GP25" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR25" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW25" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX25" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC25" t="s">
+        <v>90</v>
+      </c>
+      <c r="HD25" t="s">
+        <v>58</v>
+      </c>
+      <c r="HE25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="HF25" t="n">
+        <v>-14</v>
+      </c>
+      <c r="HG25" t="s">
+        <v>70</v>
+      </c>
+      <c r="HH25" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI25" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO25" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP25" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV25" t="s">
+        <v>56</v>
+      </c>
+      <c r="HW25" t="s">
+        <v>56</v>
+      </c>
+      <c r="HX25" t="n">
+        <v>10</v>
+      </c>
+      <c r="HY25" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ25" t="s">
+        <v>66</v>
+      </c>
+      <c r="IA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB25" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID25" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="II25" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO25" t="s">
+        <v>56</v>
+      </c>
+      <c r="IP25" t="s">
+        <v>56</v>
+      </c>
+      <c r="IQ25" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR25" t="n">
+        <v>-6</v>
+      </c>
+      <c r="IS25" t="s">
+        <v>66</v>
+      </c>
+      <c r="IT25" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU25" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV25" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW25" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB25" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="JI25" t="s">
+        <v>58</v>
+      </c>
+      <c r="JJ25" t="n">
+        <v>26</v>
+      </c>
+      <c r="JK25" t="n">
+        <v>15</v>
+      </c>
+      <c r="JL25" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN25" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO25" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP25" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU25" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV25" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA25" t="s">
+        <v>58</v>
+      </c>
+      <c r="KB25" t="s">
+        <v>62</v>
+      </c>
+      <c r="KC25" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD25" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE25" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF25" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG25" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH25" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI25" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN25" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO25" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT25" t="s">
+        <v>58</v>
+      </c>
+      <c r="KU25" t="s">
+        <v>58</v>
+      </c>
+      <c r="KV25" t="n">
+        <v>10</v>
+      </c>
+      <c r="KW25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="KX25" t="s">
+        <v>61</v>
+      </c>
+      <c r="KY25" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA25" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB25" t="n">
+        <v>2</v>
+      </c>
+      <c r="LC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG25" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH25" t="n">
+        <v>2</v>
+      </c>
+      <c r="LI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM25" t="s">
+        <v>56</v>
+      </c>
+      <c r="LN25" t="s">
+        <v>56</v>
+      </c>
+      <c r="LO25" t="n">
+        <v>21</v>
+      </c>
+      <c r="LP25" t="n">
+        <v>6</v>
+      </c>
+      <c r="LQ25" t="s">
+        <v>61</v>
+      </c>
+      <c r="LR25" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS25" t="n">
+        <v>2</v>
+      </c>
+      <c r="LT25" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU25" t="n">
+        <v>3</v>
+      </c>
+      <c r="LV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="MA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="MB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME25" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="MG25" t="s">
+        <v>56</v>
+      </c>
+      <c r="MH25" t="n">
+        <v>16</v>
+      </c>
+      <c r="MI25" t="n">
+        <v>6</v>
+      </c>
+      <c r="MJ25" t="s">
+        <v>64</v>
+      </c>
+      <c r="MK25" t="n">
+        <v>3</v>
+      </c>
+      <c r="ML25" t="n">
+        <v>4</v>
+      </c>
+      <c r="MM25" t="n">
+        <v>3</v>
+      </c>
+      <c r="MN25" t="n">
+        <v>3</v>
+      </c>
+      <c r="MO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS25" t="n">
+        <v>3</v>
+      </c>
+      <c r="MT25" t="n">
+        <v>3</v>
+      </c>
+      <c r="MU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY25" t="s">
+        <v>58</v>
+      </c>
+      <c r="MZ25" t="s">
+        <v>56</v>
+      </c>
+      <c r="NA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="NB25" t="n">
+        <v>4</v>
+      </c>
+      <c r="NC25" t="s">
+        <v>59</v>
+      </c>
+      <c r="ND25" t="n">
+        <v>1</v>
+      </c>
+      <c r="NE25" t="n">
+        <v>2</v>
+      </c>
+      <c r="NF25" t="n">
+        <v>2</v>
+      </c>
+      <c r="NG25" t="n">
+        <v>2</v>
+      </c>
+      <c r="NH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL25" t="n">
+        <v>3</v>
+      </c>
+      <c r="NM25" t="n">
+        <v>3</v>
+      </c>
+      <c r="NN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR25" t="s">
+        <v>58</v>
+      </c>
+      <c r="NS25" t="s">
+        <v>56</v>
+      </c>
+      <c r="NT25" t="n">
+        <v>2</v>
+      </c>
+      <c r="NU25" t="n">
+        <v>-10</v>
+      </c>
+      <c r="NV25" t="s">
+        <v>70</v>
+      </c>
+      <c r="NW25" t="n">
+        <v>4</v>
+      </c>
+      <c r="NX25" t="n">
+        <v>5</v>
+      </c>
+      <c r="NY25" t="n">
+        <v>2</v>
+      </c>
+      <c r="NZ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="OA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE25" t="n">
+        <v>3</v>
+      </c>
+      <c r="OF25" t="n">
+        <v>3</v>
+      </c>
+      <c r="OG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK25" t="s">
+        <v>56</v>
+      </c>
+      <c r="OL25" t="s">
+        <v>56</v>
+      </c>
+      <c r="OM25" t="n">
+        <v>10</v>
+      </c>
+      <c r="ON25" t="n">
+        <v>3</v>
+      </c>
+      <c r="OO25" t="s">
+        <v>71</v>
+      </c>
+      <c r="OP25" t="n">
+        <v>3</v>
+      </c>
+      <c r="OQ25" t="n">
+        <v>4</v>
+      </c>
+      <c r="OR25" t="n">
+        <v>3</v>
+      </c>
+      <c r="OS25" t="n">
+        <v>3</v>
+      </c>
+      <c r="OT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX25" t="n">
+        <v>3</v>
+      </c>
+      <c r="OY25" t="n">
+        <v>3</v>
+      </c>
+      <c r="OZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD25" t="s">
+        <v>58</v>
+      </c>
+      <c r="PE25" t="s">
+        <v>58</v>
+      </c>
+      <c r="PF25" t="n">
+        <v>23</v>
+      </c>
+      <c r="PG25" t="n">
+        <v>18</v>
+      </c>
+      <c r="PH25" t="s">
+        <v>64</v>
+      </c>
+      <c r="PI25" t="n">
+        <v>3</v>
+      </c>
+      <c r="PJ25" t="n">
+        <v>4</v>
+      </c>
+      <c r="PK25" t="n">
+        <v>2</v>
+      </c>
+      <c r="PL25" t="n">
+        <v>2</v>
+      </c>
+      <c r="PM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR25" t="n">
+        <v>2</v>
+      </c>
+      <c r="PS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW25" t="s">
+        <v>58</v>
+      </c>
+      <c r="PX25" t="s">
+        <v>58</v>
+      </c>
+      <c r="PY25" t="n">
+        <v>21</v>
+      </c>
+      <c r="PZ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="QA25" t="s">
+        <v>61</v>
+      </c>
+      <c r="QB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="QC25" t="n">
+        <v>2</v>
+      </c>
+      <c r="QD25" t="n">
+        <v>2</v>
+      </c>
+      <c r="QE25" t="n">
+        <v>2</v>
+      </c>
+      <c r="QF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="QK25" t="n">
+        <v>2</v>
+      </c>
+      <c r="QL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP25" t="s">
+        <v>56</v>
+      </c>
+      <c r="QQ25" t="s">
+        <v>56</v>
+      </c>
+      <c r="QR25" t="n">
+        <v>13</v>
+      </c>
+      <c r="QS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT25" t="s">
+        <v>70</v>
+      </c>
+      <c r="QU25" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV25" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW25" t="n">
+        <v>3</v>
+      </c>
+      <c r="QX25" t="n">
+        <v>3</v>
+      </c>
+      <c r="QY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="RD25" t="n">
+        <v>3</v>
+      </c>
+      <c r="RE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI25" t="s">
+        <v>58</v>
+      </c>
+      <c r="RJ25" t="s">
+        <v>58</v>
+      </c>
+      <c r="RK25" t="n">
+        <v>17</v>
+      </c>
+      <c r="RL25" t="n">
+        <v>8</v>
+      </c>
+      <c r="RM25" t="s">
+        <v>64</v>
+      </c>
+      <c r="RN25" t="n">
+        <v>1</v>
+      </c>
+      <c r="RO25" t="n">
+        <v>2</v>
+      </c>
+      <c r="RP25" t="n">
+        <v>2</v>
+      </c>
+      <c r="RQ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="RR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV25" t="n">
+        <v>2</v>
+      </c>
+      <c r="RW25" t="n">
+        <v>2</v>
+      </c>
+      <c r="RX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB25" t="s">
+        <v>56</v>
+      </c>
+      <c r="SC25" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD25" t="n">
+        <v>11</v>
+      </c>
+      <c r="SE25" t="n">
+        <v>-9</v>
+      </c>
+      <c r="SF25" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH25" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI25" t="n">
+        <v>3</v>
+      </c>
+      <c r="SJ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="SK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO25" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP25" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST25" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU25" t="s">
+        <v>56</v>
+      </c>
+      <c r="SV25" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW25" t="n">
+        <v>14</v>
+      </c>
+      <c r="SX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="SY25" t="s">
+        <v>64</v>
+      </c>
+      <c r="SZ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="TA25" t="n">
+        <v>4</v>
+      </c>
+      <c r="TB25" t="n">
+        <v>3</v>
+      </c>
+      <c r="TC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="TD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH25" t="n">
+        <v>2</v>
+      </c>
+      <c r="TI25" t="n">
+        <v>2</v>
+      </c>
+      <c r="TJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN25" t="s">
+        <v>62</v>
+      </c>
+      <c r="TO25" t="s">
+        <v>67</v>
+      </c>
+      <c r="TP25" t="n">
+        <v>12</v>
+      </c>
+      <c r="TQ25" t="n">
+        <v>6</v>
+      </c>
+      <c r="TR25" t="s">
+        <v>65</v>
+      </c>
+      <c r="TS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="TT25" t="n">
+        <v>2</v>
+      </c>
+      <c r="TU25" t="n">
+        <v>1</v>
+      </c>
+      <c r="TV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="TW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE25" t="n">
+        <v>2</v>
+      </c>
+      <c r="UF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG25" t="s">
+        <v>56</v>
+      </c>
+      <c r="UH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="UI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="UJ25" t="n">
+        <v>4</v>
+      </c>
+      <c r="UK25" t="s">
+        <v>65</v>
+      </c>
+      <c r="UL25" t="n">
+        <v>3</v>
+      </c>
+      <c r="UM25" t="n">
+        <v>4</v>
+      </c>
+      <c r="UN25" t="n">
+        <v>3</v>
+      </c>
+      <c r="UO25" t="n">
+        <v>3</v>
+      </c>
+      <c r="UP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="US25" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT25" t="n">
+        <v>3</v>
+      </c>
+      <c r="UU25" t="n">
+        <v>3</v>
+      </c>
+      <c r="UV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ25" t="s">
+        <v>62</v>
+      </c>
+      <c r="VA25" t="s">
+        <v>62</v>
+      </c>
+      <c r="VB25" t="n">
+        <v>13</v>
+      </c>
+      <c r="VC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="VD25" t="s">
+        <v>59</v>
+      </c>
+      <c r="VE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF25" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="VH25" t="n">
+        <v>1</v>
+      </c>
+      <c r="VI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="VN25" t="n">
+        <v>1</v>
+      </c>
+      <c r="VO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS25" t="s">
+        <v>56</v>
+      </c>
+      <c r="VT25" t="s">
+        <v>56</v>
+      </c>
+      <c r="VU25" t="n">
+        <v>9</v>
+      </c>
+      <c r="VV25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="VW25" t="s">
+        <v>65</v>
+      </c>
+      <c r="VX25" t="n">
+        <v>3</v>
+      </c>
+      <c r="VY25" t="n">
+        <v>4</v>
+      </c>
+      <c r="VZ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="WA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="WB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF25" t="n">
+        <v>3</v>
+      </c>
+      <c r="WG25" t="n">
+        <v>3</v>
+      </c>
+      <c r="WH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL25" t="s">
+        <v>73</v>
+      </c>
+      <c r="WM25" t="s">
+        <v>56</v>
+      </c>
+      <c r="WN25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="WO25" t="n">
+        <v>-9</v>
+      </c>
+      <c r="WP25" t="s">
+        <v>70</v>
+      </c>
+      <c r="WQ25" t="n">
+        <v>4</v>
+      </c>
+      <c r="WR25" t="n">
+        <v>5</v>
+      </c>
+      <c r="WS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX25" t="n">
+        <v>1</v>
+      </c>
+      <c r="WY25" t="n">
+        <v>3</v>
+      </c>
+      <c r="WZ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="XA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE25" t="s">
+        <v>58</v>
+      </c>
+      <c r="XF25" t="s">
+        <v>58</v>
+      </c>
+      <c r="XG25" t="n">
+        <v>18</v>
+      </c>
+      <c r="XH25" t="n">
+        <v>7</v>
+      </c>
+      <c r="XI25" t="s">
+        <v>57</v>
+      </c>
+      <c r="XJ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK25" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL25" t="n">
+        <v>2</v>
+      </c>
+      <c r="XM25" t="n">
+        <v>2</v>
+      </c>
+      <c r="XN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR25" t="n">
+        <v>2</v>
+      </c>
+      <c r="XS25" t="n">
+        <v>2</v>
+      </c>
+      <c r="XT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX25" t="s">
+        <v>58</v>
+      </c>
+      <c r="XY25" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ25" t="n">
+        <v>24</v>
+      </c>
+      <c r="YA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="YB25" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC25" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD25" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE25" t="n">
+        <v>2</v>
+      </c>
+      <c r="YF25" t="n">
+        <v>2</v>
+      </c>
+      <c r="YG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK25" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL25" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:666">
+      <c r="A26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="n">
+        <v>18</v>
+      </c>
+      <c r="E26" t="n">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="s">
+        <v>56</v>
+      </c>
+      <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="n">
+        <v>15</v>
+      </c>
+      <c r="X26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>56</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>58</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>11</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>71</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS26" t="s">
+        <v>56</v>
+      </c>
+      <c r="CT26" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>16</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>7</v>
+      </c>
+      <c r="CW26" t="s">
+        <v>57</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>4</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL26" t="s">
+        <v>58</v>
+      </c>
+      <c r="DM26" t="s">
+        <v>58</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>26</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>15</v>
+      </c>
+      <c r="DP26" t="s">
+        <v>59</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>2</v>
+      </c>
+      <c r="DT26" t="n">
+        <v>2</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY26" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE26" t="s">
+        <v>58</v>
+      </c>
+      <c r="EF26" t="s">
+        <v>58</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>19</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI26" t="s">
+        <v>68</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM26" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER26" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES26" t="n">
+        <v>2</v>
+      </c>
+      <c r="ET26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX26" t="s">
+        <v>67</v>
+      </c>
+      <c r="EY26" t="s">
+        <v>58</v>
+      </c>
+      <c r="EZ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="FA26" t="n">
+        <v>17</v>
+      </c>
+      <c r="FB26" t="s">
+        <v>59</v>
+      </c>
+      <c r="FC26" t="n">
+        <v>4</v>
+      </c>
+      <c r="FD26" t="n">
+        <v>5</v>
+      </c>
+      <c r="FE26" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI26" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK26" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="FM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ26" t="s">
+        <v>56</v>
+      </c>
+      <c r="FR26" t="s">
+        <v>58</v>
+      </c>
+      <c r="FS26" t="n">
+        <v>18</v>
+      </c>
+      <c r="FT26" t="n">
+        <v>7</v>
+      </c>
+      <c r="FU26" t="s">
+        <v>57</v>
+      </c>
+      <c r="FV26" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW26" t="n">
+        <v>4</v>
+      </c>
+      <c r="FX26" t="n">
+        <v>3</v>
+      </c>
+      <c r="FY26" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD26" t="n">
+        <v>2</v>
+      </c>
+      <c r="GE26" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ26" t="s">
+        <v>56</v>
+      </c>
+      <c r="GK26" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL26" t="n">
+        <v>7</v>
+      </c>
+      <c r="GM26" t="n">
+        <v>-7</v>
+      </c>
+      <c r="GN26" t="s">
+        <v>68</v>
+      </c>
+      <c r="GO26" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP26" t="n">
+        <v>4</v>
+      </c>
+      <c r="GQ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR26" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW26" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX26" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC26" t="s">
+        <v>73</v>
+      </c>
+      <c r="HD26" t="s">
+        <v>58</v>
+      </c>
+      <c r="HE26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HF26" t="n">
+        <v>-13</v>
+      </c>
+      <c r="HG26" t="s">
+        <v>68</v>
+      </c>
+      <c r="HH26" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI26" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO26" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP26" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV26" t="s">
+        <v>56</v>
+      </c>
+      <c r="HW26" t="s">
+        <v>56</v>
+      </c>
+      <c r="HX26" t="n">
+        <v>14</v>
+      </c>
+      <c r="HY26" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ26" t="s">
+        <v>68</v>
+      </c>
+      <c r="IA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB26" t="n">
+        <v>4</v>
+      </c>
+      <c r="IC26" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID26" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="II26" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO26" t="s">
+        <v>56</v>
+      </c>
+      <c r="IP26" t="s">
+        <v>58</v>
+      </c>
+      <c r="IQ26" t="n">
+        <v>16</v>
+      </c>
+      <c r="IR26" t="n">
+        <v>-8</v>
+      </c>
+      <c r="IS26" t="s">
+        <v>68</v>
+      </c>
+      <c r="IT26" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU26" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV26" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW26" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB26" t="n">
+        <v>2</v>
+      </c>
+      <c r="JC26" t="n">
+        <v>2</v>
+      </c>
+      <c r="JD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH26" t="s">
+        <v>56</v>
+      </c>
+      <c r="JI26" t="s">
+        <v>58</v>
+      </c>
+      <c r="JJ26" t="n">
+        <v>26</v>
+      </c>
+      <c r="JK26" t="n">
+        <v>16</v>
+      </c>
+      <c r="JL26" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN26" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO26" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP26" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU26" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV26" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA26" t="s">
+        <v>58</v>
+      </c>
+      <c r="KB26" t="s">
+        <v>58</v>
+      </c>
+      <c r="KC26" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD26" t="n">
+        <v>9</v>
+      </c>
+      <c r="KE26" t="s">
+        <v>61</v>
+      </c>
+      <c r="KF26" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH26" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI26" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN26" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO26" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT26" t="s">
+        <v>62</v>
+      </c>
+      <c r="KU26" t="s">
+        <v>58</v>
+      </c>
+      <c r="KV26" t="n">
+        <v>10</v>
+      </c>
+      <c r="KW26" t="n">
+        <v>-2</v>
+      </c>
+      <c r="KX26" t="s">
+        <v>61</v>
+      </c>
+      <c r="KY26" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH26" t="n">
+        <v>2</v>
+      </c>
+      <c r="LI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM26" t="s">
+        <v>58</v>
+      </c>
+      <c r="LN26" t="s">
+        <v>58</v>
+      </c>
+      <c r="LO26" t="n">
+        <v>21</v>
+      </c>
+      <c r="LP26" t="n">
+        <v>8</v>
+      </c>
+      <c r="LQ26" t="s">
+        <v>68</v>
+      </c>
+      <c r="LR26" t="n">
+        <v>3</v>
+      </c>
+      <c r="LS26" t="n">
+        <v>4</v>
+      </c>
+      <c r="LT26" t="n">
+        <v>2</v>
+      </c>
+      <c r="LU26" t="n">
+        <v>2</v>
+      </c>
+      <c r="LV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="MA26" t="n">
+        <v>2</v>
+      </c>
+      <c r="MB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME26" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF26" t="s">
+        <v>56</v>
+      </c>
+      <c r="MG26" t="s">
+        <v>58</v>
+      </c>
+      <c r="MH26" t="n">
+        <v>18</v>
+      </c>
+      <c r="MI26" t="n">
+        <v>9</v>
+      </c>
+      <c r="MJ26" t="s">
+        <v>59</v>
+      </c>
+      <c r="MK26" t="n">
+        <v>3</v>
+      </c>
+      <c r="ML26" t="n">
+        <v>4</v>
+      </c>
+      <c r="MM26" t="n">
+        <v>3</v>
+      </c>
+      <c r="MN26" t="n">
+        <v>3</v>
+      </c>
+      <c r="MO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS26" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT26" t="n">
+        <v>2</v>
+      </c>
+      <c r="MU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY26" t="s">
+        <v>58</v>
+      </c>
+      <c r="MZ26" t="s">
+        <v>58</v>
+      </c>
+      <c r="NA26" t="n">
+        <v>18</v>
+      </c>
+      <c r="NB26" t="n">
+        <v>11</v>
+      </c>
+      <c r="NC26" t="s">
+        <v>65</v>
+      </c>
+      <c r="ND26" t="n">
+        <v>1</v>
+      </c>
+      <c r="NE26" t="n">
+        <v>2</v>
+      </c>
+      <c r="NF26" t="n">
+        <v>2</v>
+      </c>
+      <c r="NG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="NH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="NM26" t="n">
+        <v>2</v>
+      </c>
+      <c r="NN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR26" t="s">
+        <v>58</v>
+      </c>
+      <c r="NS26" t="s">
+        <v>56</v>
+      </c>
+      <c r="NT26" t="n">
+        <v>8</v>
+      </c>
+      <c r="NU26" t="n">
+        <v>-5</v>
+      </c>
+      <c r="NV26" t="s">
+        <v>68</v>
+      </c>
+      <c r="NW26" t="n">
+        <v>5</v>
+      </c>
+      <c r="NX26" t="n">
+        <v>6</v>
+      </c>
+      <c r="NY26" t="n">
+        <v>2</v>
+      </c>
+      <c r="NZ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="OA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE26" t="n">
+        <v>3</v>
+      </c>
+      <c r="OF26" t="n">
+        <v>3</v>
+      </c>
+      <c r="OG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK26" t="s">
+        <v>56</v>
+      </c>
+      <c r="OL26" t="s">
+        <v>62</v>
+      </c>
+      <c r="OM26" t="n">
+        <v>17</v>
+      </c>
+      <c r="ON26" t="n">
+        <v>9</v>
+      </c>
+      <c r="OO26" t="s">
+        <v>65</v>
+      </c>
+      <c r="OP26" t="n">
+        <v>4</v>
+      </c>
+      <c r="OQ26" t="n">
+        <v>5</v>
+      </c>
+      <c r="OR26" t="n">
+        <v>3</v>
+      </c>
+      <c r="OS26" t="n">
+        <v>3</v>
+      </c>
+      <c r="OT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX26" t="n">
+        <v>1</v>
+      </c>
+      <c r="OY26" t="n">
+        <v>1</v>
+      </c>
+      <c r="OZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD26" t="s">
+        <v>58</v>
+      </c>
+      <c r="PE26" t="s">
+        <v>58</v>
+      </c>
+      <c r="PF26" t="n">
+        <v>22</v>
+      </c>
+      <c r="PG26" t="n">
+        <v>16</v>
+      </c>
+      <c r="PH26" t="s">
+        <v>64</v>
+      </c>
+      <c r="PI26" t="n">
+        <v>3</v>
+      </c>
+      <c r="PJ26" t="n">
+        <v>4</v>
+      </c>
+      <c r="PK26" t="n">
+        <v>2</v>
+      </c>
+      <c r="PL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="PM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="PR26" t="n">
+        <v>2</v>
+      </c>
+      <c r="PS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW26" t="s">
+        <v>58</v>
+      </c>
+      <c r="PX26" t="s">
+        <v>58</v>
+      </c>
+      <c r="PY26" t="n">
+        <v>21</v>
+      </c>
+      <c r="PZ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="QA26" t="s">
+        <v>61</v>
+      </c>
+      <c r="QB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="QC26" t="n">
+        <v>2</v>
+      </c>
+      <c r="QD26" t="n">
+        <v>2</v>
+      </c>
+      <c r="QE26" t="n">
+        <v>2</v>
+      </c>
+      <c r="QF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="QK26" t="n">
+        <v>2</v>
+      </c>
+      <c r="QL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP26" t="s">
+        <v>56</v>
+      </c>
+      <c r="QQ26" t="s">
+        <v>58</v>
+      </c>
+      <c r="QR26" t="n">
+        <v>14</v>
+      </c>
+      <c r="QS26" t="n">
+        <v>2</v>
+      </c>
+      <c r="QT26" t="s">
+        <v>65</v>
+      </c>
+      <c r="QU26" t="n">
+        <v>1</v>
+      </c>
+      <c r="QV26" t="n">
+        <v>2</v>
+      </c>
+      <c r="QW26" t="n">
+        <v>3</v>
+      </c>
+      <c r="QX26" t="n">
+        <v>3</v>
+      </c>
+      <c r="QY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC26" t="n">
+        <v>2</v>
+      </c>
+      <c r="RD26" t="n">
+        <v>2</v>
+      </c>
+      <c r="RE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI26" t="s">
+        <v>56</v>
+      </c>
+      <c r="RJ26" t="s">
+        <v>56</v>
+      </c>
+      <c r="RK26" t="n">
+        <v>23</v>
+      </c>
+      <c r="RL26" t="n">
+        <v>9</v>
+      </c>
+      <c r="RM26" t="s">
+        <v>64</v>
+      </c>
+      <c r="RN26" t="n">
+        <v>1</v>
+      </c>
+      <c r="RO26" t="n">
+        <v>2</v>
+      </c>
+      <c r="RP26" t="n">
+        <v>3</v>
+      </c>
+      <c r="RQ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="RR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV26" t="n">
+        <v>3</v>
+      </c>
+      <c r="RW26" t="n">
+        <v>3</v>
+      </c>
+      <c r="RX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB26" t="s">
+        <v>58</v>
+      </c>
+      <c r="SC26" t="s">
+        <v>56</v>
+      </c>
+      <c r="SD26" t="n">
+        <v>12</v>
+      </c>
+      <c r="SE26" t="n">
+        <v>-8</v>
+      </c>
+      <c r="SF26" t="s">
+        <v>61</v>
+      </c>
+      <c r="SG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="SH26" t="n">
+        <v>2</v>
+      </c>
+      <c r="SI26" t="n">
+        <v>2</v>
+      </c>
+      <c r="SJ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="SK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO26" t="n">
+        <v>3</v>
+      </c>
+      <c r="SP26" t="n">
+        <v>3</v>
+      </c>
+      <c r="SQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST26" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU26" t="s">
+        <v>58</v>
+      </c>
+      <c r="SV26" t="s">
+        <v>58</v>
+      </c>
+      <c r="SW26" t="n">
+        <v>17</v>
+      </c>
+      <c r="SX26" t="n">
+        <v>4</v>
+      </c>
+      <c r="SY26" t="s">
+        <v>65</v>
+      </c>
+      <c r="SZ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="TA26" t="n">
+        <v>4</v>
+      </c>
+      <c r="TB26" t="n">
+        <v>2</v>
+      </c>
+      <c r="TC26" t="n">
+        <v>2</v>
+      </c>
+      <c r="TD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH26" t="n">
+        <v>2</v>
+      </c>
+      <c r="TI26" t="n">
+        <v>2</v>
+      </c>
+      <c r="TJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN26" t="s">
+        <v>58</v>
+      </c>
+      <c r="TO26" t="s">
+        <v>62</v>
+      </c>
+      <c r="TP26" t="n">
+        <v>17</v>
+      </c>
+      <c r="TQ26" t="n">
+        <v>10</v>
+      </c>
+      <c r="TR26" t="s">
+        <v>65</v>
+      </c>
+      <c r="TS26" t="n">
+        <v>3</v>
+      </c>
+      <c r="TT26" t="n">
+        <v>4</v>
+      </c>
+      <c r="TU26" t="n">
+        <v>2</v>
+      </c>
+      <c r="TV26" t="n">
+        <v>2</v>
+      </c>
+      <c r="TW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="UB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="UC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="UF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG26" t="s">
+        <v>58</v>
+      </c>
+      <c r="UH26" t="s">
+        <v>67</v>
+      </c>
+      <c r="UI26" t="n">
+        <v>19</v>
+      </c>
+      <c r="UJ26" t="n">
+        <v>7</v>
+      </c>
+      <c r="UK26" t="s">
+        <v>65</v>
+      </c>
+      <c r="UL26" t="n">
+        <v>3</v>
+      </c>
+      <c r="UM26" t="n">
+        <v>4</v>
+      </c>
+      <c r="UN26" t="n">
+        <v>2</v>
+      </c>
+      <c r="UO26" t="n">
+        <v>2</v>
+      </c>
+      <c r="UP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="US26" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT26" t="n">
+        <v>-2</v>
+      </c>
+      <c r="UU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="UV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX26" t="n">
+        <v>2</v>
+      </c>
+      <c r="UY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ26" t="s">
+        <v>62</v>
+      </c>
+      <c r="VA26" t="s">
+        <v>62</v>
+      </c>
+      <c r="VB26" t="n">
+        <v>15</v>
+      </c>
+      <c r="VC26" t="n">
+        <v>11</v>
+      </c>
+      <c r="VD26" t="s">
+        <v>68</v>
+      </c>
+      <c r="VE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="VF26" t="n">
+        <v>2</v>
+      </c>
+      <c r="VG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="VH26" t="n">
+        <v>1</v>
+      </c>
+      <c r="VI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="VN26" t="n">
+        <v>1</v>
+      </c>
+      <c r="VO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS26" t="s">
+        <v>56</v>
+      </c>
+      <c r="VT26" t="s">
+        <v>58</v>
+      </c>
+      <c r="VU26" t="n">
+        <v>15</v>
+      </c>
+      <c r="VV26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="VW26" t="s">
+        <v>61</v>
+      </c>
+      <c r="VX26" t="n">
+        <v>1</v>
+      </c>
+      <c r="VY26" t="n">
+        <v>2</v>
+      </c>
+      <c r="VZ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="WA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="WB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF26" t="n">
+        <v>2</v>
+      </c>
+      <c r="WG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="WH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL26" t="s">
+        <v>58</v>
+      </c>
+      <c r="WM26" t="s">
+        <v>56</v>
+      </c>
+      <c r="WN26" t="n">
+        <v>4</v>
+      </c>
+      <c r="WO26" t="n">
+        <v>-8</v>
+      </c>
+      <c r="WP26" t="s">
+        <v>68</v>
+      </c>
+      <c r="WQ26" t="n">
+        <v>4</v>
+      </c>
+      <c r="WR26" t="n">
+        <v>5</v>
+      </c>
+      <c r="WS26" t="n">
+        <v>2</v>
+      </c>
+      <c r="WT26" t="n">
+        <v>2</v>
+      </c>
+      <c r="WU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY26" t="n">
+        <v>3</v>
+      </c>
+      <c r="WZ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="XA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE26" t="s">
+        <v>56</v>
+      </c>
+      <c r="XF26" t="s">
+        <v>58</v>
+      </c>
+      <c r="XG26" t="n">
+        <v>22</v>
+      </c>
+      <c r="XH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="XI26" t="s">
+        <v>65</v>
+      </c>
+      <c r="XJ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="XK26" t="n">
+        <v>2</v>
+      </c>
+      <c r="XL26" t="n">
+        <v>3</v>
+      </c>
+      <c r="XM26" t="n">
+        <v>3</v>
+      </c>
+      <c r="XN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR26" t="n">
+        <v>2</v>
+      </c>
+      <c r="XS26" t="n">
+        <v>2</v>
+      </c>
+      <c r="XT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX26" t="s">
+        <v>58</v>
+      </c>
+      <c r="XY26" t="s">
+        <v>58</v>
+      </c>
+      <c r="XZ26" t="n">
+        <v>22</v>
+      </c>
+      <c r="YA26" t="n">
+        <v>17</v>
+      </c>
+      <c r="YB26" t="s">
+        <v>61</v>
+      </c>
+      <c r="YC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="YD26" t="n">
+        <v>2</v>
+      </c>
+      <c r="YE26" t="n">
+        <v>2</v>
+      </c>
+      <c r="YF26" t="n">
+        <v>2</v>
+      </c>
+      <c r="YG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK26" t="n">
+        <v>2</v>
+      </c>
+      <c r="YL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="YM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP26" t="n">
         <v>0</v>
       </c>
     </row>
